--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\tL7TceG7nkeoPTq_b1ea5w==\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\AppData\Local\Box\Box Edit\Documents\tA0VW6Yfj0K6Fcos_Fe9Vw==\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -723,10 +723,10 @@
   <dimension ref="A1:TO56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="SY5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="SW5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="TJ14" sqref="TJ14"/>
+      <selection pane="bottomRight" activeCell="TK15" sqref="TK15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3817,7 +3817,7 @@
         <v>4.7</v>
       </c>
       <c r="SA5" s="4">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="SB5" s="4">
         <v>4.4000000000000004</v>
@@ -3859,7 +3859,7 @@
         <v>4</v>
       </c>
       <c r="SO5" s="4">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="SP5" s="4">
         <v>3.8</v>
@@ -3868,7 +3868,7 @@
         <v>4</v>
       </c>
       <c r="SR5" s="4">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="SS5" s="4">
         <v>3.8</v>
@@ -3916,6 +3916,9 @@
         <v>3.6</v>
       </c>
       <c r="TH5" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="TI5" s="8">
         <v>3.5</v>
       </c>
     </row>
@@ -5504,6 +5507,9 @@
       <c r="TH6" s="8">
         <v>2.7</v>
       </c>
+      <c r="TI6" s="8">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="7" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -7090,6 +7096,9 @@
       <c r="TH7" s="8">
         <v>6.1</v>
       </c>
+      <c r="TI7" s="8">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="8" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -8676,6 +8685,9 @@
       <c r="TH8" s="8">
         <v>4.7</v>
       </c>
+      <c r="TI8" s="8">
+        <v>4.5999999999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -10262,6 +10274,9 @@
       <c r="TH9" s="8">
         <v>3.6</v>
       </c>
+      <c r="TI9" s="8">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="10" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -11848,6 +11863,9 @@
       <c r="TH10" s="8">
         <v>3.9</v>
       </c>
+      <c r="TI10" s="8">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="11" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -13434,6 +13452,9 @@
       <c r="TH11" s="8">
         <v>2.6</v>
       </c>
+      <c r="TI11" s="8">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="12" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -15020,6 +15041,9 @@
       <c r="TH12" s="8">
         <v>3.7</v>
       </c>
+      <c r="TI12" s="8">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="13" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -16606,6 +16630,9 @@
       <c r="TH13" s="8">
         <v>3.8</v>
       </c>
+      <c r="TI13" s="8">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="14" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -18192,6 +18219,9 @@
       <c r="TH14" s="8">
         <v>5.3</v>
       </c>
+      <c r="TI14" s="8">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="15" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -19778,6 +19808,9 @@
       <c r="TH15" s="8">
         <v>3.1</v>
       </c>
+      <c r="TI15" s="8">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -21364,8 +21397,11 @@
       <c r="TH16" s="8">
         <v>3.3</v>
       </c>
+      <c r="TI16" s="8">
+        <v>3.2</v>
+      </c>
     </row>
-    <row r="17" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -22950,8 +22986,11 @@
       <c r="TH17" s="8">
         <v>2.6</v>
       </c>
+      <c r="TI17" s="8">
+        <v>2.6</v>
+      </c>
     </row>
-    <row r="18" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
@@ -24536,8 +24575,11 @@
       <c r="TH18" s="8">
         <v>2.9</v>
       </c>
+      <c r="TI18" s="8">
+        <v>2.9</v>
+      </c>
     </row>
-    <row r="19" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
@@ -26122,8 +26164,11 @@
       <c r="TH19" s="8">
         <v>3.8</v>
       </c>
+      <c r="TI19" s="8">
+        <v>3.7</v>
+      </c>
     </row>
-    <row r="20" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
@@ -27708,8 +27753,11 @@
       <c r="TH20" s="8">
         <v>3.2</v>
       </c>
+      <c r="TI20" s="8">
+        <v>3.2</v>
+      </c>
     </row>
-    <row r="21" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
@@ -29294,8 +29342,11 @@
       <c r="TH21" s="8">
         <v>2.6</v>
       </c>
+      <c r="TI21" s="8">
+        <v>2.7</v>
+      </c>
     </row>
-    <row r="22" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
@@ -30880,8 +30931,11 @@
       <c r="TH22" s="8">
         <v>3.1</v>
       </c>
+      <c r="TI22" s="8">
+        <v>3.2</v>
+      </c>
     </row>
-    <row r="23" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
@@ -32466,8 +32520,11 @@
       <c r="TH23" s="8">
         <v>4.4000000000000004</v>
       </c>
+      <c r="TI23" s="8">
+        <v>4.3</v>
+      </c>
     </row>
-    <row r="24" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
@@ -34052,8 +34109,11 @@
       <c r="TH24" s="8">
         <v>4.7</v>
       </c>
+      <c r="TI24" s="8">
+        <v>4.9000000000000004</v>
+      </c>
     </row>
-    <row r="25" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
@@ -35638,8 +35698,11 @@
       <c r="TH25" s="8">
         <v>2.8</v>
       </c>
+      <c r="TI25" s="8">
+        <v>2.9</v>
+      </c>
     </row>
-    <row r="26" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
@@ -37224,8 +37287,11 @@
       <c r="TH26" s="8">
         <v>3.6</v>
       </c>
+      <c r="TI26" s="8">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="27" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
@@ -38810,8 +38876,11 @@
       <c r="TH27" s="8">
         <v>2.9</v>
       </c>
+      <c r="TI27" s="8">
+        <v>2.8</v>
+      </c>
     </row>
-    <row r="28" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
@@ -40396,8 +40465,11 @@
       <c r="TH28" s="8">
         <v>4</v>
       </c>
+      <c r="TI28" s="8">
+        <v>3.9</v>
+      </c>
     </row>
-    <row r="29" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
@@ -41982,8 +42054,11 @@
       <c r="TH29" s="8">
         <v>3.3</v>
       </c>
+      <c r="TI29" s="8">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="30" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>26</v>
       </c>
@@ -43568,8 +43643,11 @@
       <c r="TH30" s="8">
         <v>5.6</v>
       </c>
+      <c r="TI30" s="8">
+        <v>5.7</v>
+      </c>
     </row>
-    <row r="31" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
@@ -45154,8 +45232,11 @@
       <c r="TH31" s="8">
         <v>3.1</v>
       </c>
+      <c r="TI31" s="8">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="32" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
@@ -46740,8 +46821,11 @@
       <c r="TH32" s="8">
         <v>3.4</v>
       </c>
+      <c r="TI32" s="8">
+        <v>3.4</v>
+      </c>
     </row>
-    <row r="33" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>29</v>
       </c>
@@ -48326,8 +48410,11 @@
       <c r="TH33" s="8">
         <v>3.1</v>
       </c>
+      <c r="TI33" s="8">
+        <v>3.1</v>
+      </c>
     </row>
-    <row r="34" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
@@ -49912,8 +49999,11 @@
       <c r="TH34" s="8">
         <v>4</v>
       </c>
+      <c r="TI34" s="8">
+        <v>3.8</v>
+      </c>
     </row>
-    <row r="35" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>31</v>
       </c>
@@ -51498,8 +51588,11 @@
       <c r="TH35" s="8">
         <v>2.6</v>
       </c>
+      <c r="TI35" s="8">
+        <v>2.6</v>
+      </c>
     </row>
-    <row r="36" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
@@ -53084,8 +53177,11 @@
       <c r="TH36" s="8">
         <v>3.4</v>
       </c>
+      <c r="TI36" s="8">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="37" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
@@ -54670,8 +54766,11 @@
       <c r="TH37" s="8">
         <v>4.8</v>
       </c>
+      <c r="TI37" s="8">
+        <v>4.7</v>
+      </c>
     </row>
-    <row r="38" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
@@ -56256,8 +56355,11 @@
       <c r="TH38" s="8">
         <v>4</v>
       </c>
+      <c r="TI38" s="8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="39" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
@@ -57842,8 +57944,11 @@
       <c r="TH39" s="8">
         <v>3.8</v>
       </c>
+      <c r="TI39" s="8">
+        <v>3.7</v>
+      </c>
     </row>
-    <row r="40" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
@@ -59428,8 +59533,11 @@
       <c r="TH40" s="8">
         <v>2.5</v>
       </c>
+      <c r="TI40" s="8">
+        <v>2.4</v>
+      </c>
     </row>
-    <row r="41" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>37</v>
       </c>
@@ -61014,8 +61122,11 @@
       <c r="TH41" s="8">
         <v>4.2</v>
       </c>
+      <c r="TI41" s="8">
+        <v>4.2</v>
+      </c>
     </row>
-    <row r="42" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>38</v>
       </c>
@@ -62600,8 +62711,11 @@
       <c r="TH42" s="8">
         <v>3.4</v>
       </c>
+      <c r="TI42" s="8">
+        <v>3.4</v>
+      </c>
     </row>
-    <row r="43" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>39</v>
       </c>
@@ -64186,8 +64300,11 @@
       <c r="TH43" s="8">
         <v>3.9</v>
       </c>
+      <c r="TI43" s="8">
+        <v>3.7</v>
+      </c>
     </row>
-    <row r="44" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>40</v>
       </c>
@@ -65772,8 +65889,11 @@
       <c r="TH44" s="8">
         <v>4.3</v>
       </c>
+      <c r="TI44" s="8">
+        <v>4.5</v>
+      </c>
     </row>
-    <row r="45" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>41</v>
       </c>
@@ -67358,8 +67478,11 @@
       <c r="TH45" s="8">
         <v>3.5</v>
       </c>
+      <c r="TI45" s="8">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="46" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>42</v>
       </c>
@@ -68944,8 +69067,11 @@
       <c r="TH46" s="8">
         <v>2.4</v>
       </c>
+      <c r="TI46" s="8">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
-    <row r="47" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
@@ -70530,8 +70656,11 @@
       <c r="TH47" s="8">
         <v>3.1</v>
       </c>
+      <c r="TI47" s="8">
+        <v>3.2</v>
+      </c>
     </row>
-    <row r="48" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>44</v>
       </c>
@@ -72116,8 +72245,11 @@
       <c r="TH48" s="8">
         <v>3.3</v>
       </c>
+      <c r="TI48" s="8">
+        <v>3.3</v>
+      </c>
     </row>
-    <row r="49" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
@@ -73702,8 +73834,11 @@
       <c r="TH49" s="8">
         <v>3.4</v>
       </c>
+      <c r="TI49" s="8">
+        <v>3.5</v>
+      </c>
     </row>
-    <row r="50" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>46</v>
       </c>
@@ -75288,8 +75423,11 @@
       <c r="TH50" s="8">
         <v>2.4</v>
       </c>
+      <c r="TI50" s="8">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
-    <row r="51" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>47</v>
       </c>
@@ -76874,8 +77012,11 @@
       <c r="TH51" s="8">
         <v>2.2999999999999998</v>
       </c>
+      <c r="TI51" s="8">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
-    <row r="52" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>48</v>
       </c>
@@ -78460,8 +78601,11 @@
       <c r="TH52" s="8">
         <v>2.6</v>
       </c>
+      <c r="TI52" s="8">
+        <v>2.6</v>
+      </c>
     </row>
-    <row r="53" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>49</v>
       </c>
@@ -80046,8 +80190,11 @@
       <c r="TH53" s="8">
         <v>4.4000000000000004</v>
       </c>
+      <c r="TI53" s="8">
+        <v>4.3</v>
+      </c>
     </row>
-    <row r="54" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>50</v>
       </c>
@@ -81632,8 +81779,11 @@
       <c r="TH54" s="8">
         <v>4.9000000000000004</v>
       </c>
+      <c r="TI54" s="8">
+        <v>5</v>
+      </c>
     </row>
-    <row r="55" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>51</v>
       </c>
@@ -83218,8 +83368,11 @@
       <c r="TH55" s="8">
         <v>3.3</v>
       </c>
+      <c r="TI55" s="8">
+        <v>3.4</v>
+      </c>
     </row>
-    <row r="56" spans="1:528" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:529" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>52</v>
       </c>
@@ -84802,6 +84955,9 @@
         <v>3.8</v>
       </c>
       <c r="TH56" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="TI56" s="8">
         <v>3.7</v>
       </c>
     </row>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\EHuffer\Box Sync\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\aboddupalli\Box\TPC\CENTER\SLFI\Interactive Data Tools\SEM\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -724,10 +724,10 @@
   <dimension ref="A1:TO56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="TD5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="TN7" sqref="TN7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,15 +737,15 @@
     <col min="525" max="535" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:533" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:534" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:534" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="4" spans="1:533" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:534" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2345,8 +2345,11 @@
       <c r="TM4" s="7">
         <v>43922</v>
       </c>
+      <c r="TN4" s="7">
+        <v>43952</v>
+      </c>
     </row>
-    <row r="5" spans="1:533" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:534" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
@@ -3946,8 +3949,11 @@
       <c r="TM5" s="8">
         <v>14.7</v>
       </c>
+      <c r="TN5" s="8">
+        <v>13.3</v>
+      </c>
     </row>
-    <row r="6" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
@@ -5545,10 +5551,13 @@
         <v>3</v>
       </c>
       <c r="TM6" s="8">
-        <v>12.9</v>
+        <v>13.8</v>
+      </c>
+      <c r="TN6" s="8">
+        <v>9.9</v>
       </c>
     </row>
-    <row r="7" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>3</v>
       </c>
@@ -7146,10 +7155,13 @@
         <v>5.2</v>
       </c>
       <c r="TM7" s="8">
-        <v>12.9</v>
+        <v>13.5</v>
+      </c>
+      <c r="TN7" s="8">
+        <v>12.6</v>
       </c>
     </row>
-    <row r="8" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -8747,10 +8759,13 @@
         <v>6.1</v>
       </c>
       <c r="TM8" s="8">
-        <v>12.6</v>
+        <v>13.4</v>
+      </c>
+      <c r="TN8" s="8">
+        <v>8.9</v>
       </c>
     </row>
-    <row r="9" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>5</v>
       </c>
@@ -10348,10 +10363,13 @@
         <v>5</v>
       </c>
       <c r="TM9" s="8">
-        <v>10.199999999999999</v>
+        <v>10.8</v>
+      </c>
+      <c r="TN9" s="8">
+        <v>9.5</v>
       </c>
     </row>
-    <row r="10" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -11949,10 +11967,13 @@
         <v>5.5</v>
       </c>
       <c r="TM10" s="8">
-        <v>15.5</v>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="TN10" s="8">
+        <v>16.3</v>
       </c>
     </row>
-    <row r="11" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -13550,10 +13571,13 @@
         <v>5.2</v>
       </c>
       <c r="TM11" s="8">
-        <v>11.3</v>
+        <v>12.2</v>
+      </c>
+      <c r="TN11" s="8">
+        <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
@@ -15151,10 +15175,13 @@
         <v>3.4</v>
       </c>
       <c r="TM12" s="8">
-        <v>7.9</v>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="TN12" s="8">
+        <v>9.4</v>
       </c>
     </row>
-    <row r="13" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -16752,10 +16779,13 @@
         <v>5</v>
       </c>
       <c r="TM13" s="8">
-        <v>14.3</v>
+        <v>14.9</v>
+      </c>
+      <c r="TN13" s="8">
+        <v>15.8</v>
       </c>
     </row>
-    <row r="14" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>10</v>
       </c>
@@ -18353,10 +18383,13 @@
         <v>6</v>
       </c>
       <c r="TM14" s="8">
-        <v>11.1</v>
+        <v>11.7</v>
+      </c>
+      <c r="TN14" s="8">
+        <v>8.9</v>
       </c>
     </row>
-    <row r="15" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>11</v>
       </c>
@@ -19954,10 +19987,13 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="TM15" s="8">
-        <v>12.9</v>
+        <v>13.8</v>
+      </c>
+      <c r="TN15" s="8">
+        <v>14.5</v>
       </c>
     </row>
-    <row r="16" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>12</v>
       </c>
@@ -21555,10 +21591,13 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="TM16" s="8">
-        <v>11.9</v>
+        <v>12.6</v>
+      </c>
+      <c r="TN16" s="8">
+        <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="17" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -23156,10 +23195,13 @@
         <v>2.4</v>
       </c>
       <c r="TM17" s="8">
-        <v>22.3</v>
+        <v>23.8</v>
+      </c>
+      <c r="TN17" s="8">
+        <v>22.6</v>
       </c>
     </row>
-    <row r="18" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>14</v>
       </c>
@@ -24757,10 +24799,13 @@
         <v>2.5</v>
       </c>
       <c r="TM18" s="8">
-        <v>11.5</v>
+        <v>11.8</v>
+      </c>
+      <c r="TN18" s="8">
+        <v>8.9</v>
       </c>
     </row>
-    <row r="19" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>15</v>
       </c>
@@ -26358,10 +26403,13 @@
         <v>4.2</v>
       </c>
       <c r="TM19" s="8">
-        <v>16.399999999999999</v>
+        <v>17.2</v>
+      </c>
+      <c r="TN19" s="8">
+        <v>15.2</v>
       </c>
     </row>
-    <row r="20" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
@@ -27959,10 +28007,13 @@
         <v>3</v>
       </c>
       <c r="TM20" s="8">
-        <v>16.899999999999999</v>
+        <v>17.5</v>
+      </c>
+      <c r="TN20" s="8">
+        <v>12.3</v>
       </c>
     </row>
-    <row r="21" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
@@ -29560,10 +29611,13 @@
         <v>3.3</v>
       </c>
       <c r="TM21" s="8">
-        <v>10.199999999999999</v>
+        <v>11</v>
+      </c>
+      <c r="TN21" s="8">
+        <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
@@ -31161,10 +31215,13 @@
         <v>2.8</v>
       </c>
       <c r="TM22" s="8">
-        <v>11.2</v>
+        <v>11.9</v>
+      </c>
+      <c r="TN22" s="8">
+        <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
@@ -32762,10 +32819,13 @@
         <v>5.2</v>
       </c>
       <c r="TM23" s="8">
-        <v>15.4</v>
+        <v>16.600000000000001</v>
+      </c>
+      <c r="TN23" s="8">
+        <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
@@ -34363,10 +34423,13 @@
         <v>6.7</v>
       </c>
       <c r="TM24" s="8">
-        <v>14.5</v>
+        <v>15.1</v>
+      </c>
+      <c r="TN24" s="8">
+        <v>13.3</v>
       </c>
     </row>
-    <row r="25" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
@@ -35964,10 +36027,13 @@
         <v>3</v>
       </c>
       <c r="TM25" s="8">
-        <v>10.6</v>
+        <v>10.4</v>
+      </c>
+      <c r="TN25" s="8">
+        <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="26" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
@@ -37565,10 +37631,13 @@
         <v>3.3</v>
       </c>
       <c r="TM26" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="TN26" s="8">
         <v>9.9</v>
       </c>
     </row>
-    <row r="27" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
@@ -39166,10 +39235,13 @@
         <v>2.8</v>
       </c>
       <c r="TM27" s="8">
-        <v>15.1</v>
+        <v>16.2</v>
+      </c>
+      <c r="TN27" s="8">
+        <v>16.3</v>
       </c>
     </row>
-    <row r="28" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
@@ -40767,10 +40839,13 @@
         <v>4.3</v>
       </c>
       <c r="TM28" s="8">
-        <v>22.7</v>
+        <v>24</v>
+      </c>
+      <c r="TN28" s="8">
+        <v>21.2</v>
       </c>
     </row>
-    <row r="29" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
@@ -42368,10 +42443,13 @@
         <v>2.9</v>
       </c>
       <c r="TM29" s="8">
-        <v>8.1</v>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="TN29" s="8">
+        <v>9.9</v>
       </c>
     </row>
-    <row r="30" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>26</v>
       </c>
@@ -43969,10 +44047,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="TM30" s="8">
-        <v>15.4</v>
+        <v>16.3</v>
+      </c>
+      <c r="TN30" s="8">
+        <v>10.6</v>
       </c>
     </row>
-    <row r="31" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>27</v>
       </c>
@@ -45570,10 +45651,13 @@
         <v>3.9</v>
       </c>
       <c r="TM31" s="8">
-        <v>9.6999999999999993</v>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="TN31" s="8">
+        <v>10.1</v>
       </c>
     </row>
-    <row r="32" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>28</v>
       </c>
@@ -47171,10 +47255,13 @@
         <v>3.6</v>
       </c>
       <c r="TM32" s="8">
-        <v>11.3</v>
+        <v>11.9</v>
+      </c>
+      <c r="TN32" s="8">
+        <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>29</v>
       </c>
@@ -48772,10 +48859,13 @@
         <v>4</v>
       </c>
       <c r="TM33" s="8">
-        <v>8.3000000000000007</v>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="TN33" s="8">
+        <v>5.2</v>
       </c>
     </row>
-    <row r="34" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>30</v>
       </c>
@@ -50373,10 +50463,13 @@
         <v>6.9</v>
       </c>
       <c r="TM34" s="8">
-        <v>28.2</v>
+        <v>30.1</v>
+      </c>
+      <c r="TN34" s="8">
+        <v>25.3</v>
       </c>
     </row>
-    <row r="35" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>31</v>
       </c>
@@ -51974,10 +52067,13 @@
         <v>2.4</v>
       </c>
       <c r="TM35" s="8">
-        <v>16.3</v>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="TN35" s="8">
+        <v>14.5</v>
       </c>
     </row>
-    <row r="36" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>32</v>
       </c>
@@ -53575,10 +53671,13 @@
         <v>3.7</v>
       </c>
       <c r="TM36" s="8">
-        <v>15.3</v>
+        <v>16.3</v>
+      </c>
+      <c r="TN36" s="8">
+        <v>15.2</v>
       </c>
     </row>
-    <row r="37" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
@@ -55176,10 +55275,13 @@
         <v>6.3</v>
       </c>
       <c r="TM37" s="8">
-        <v>11.3</v>
+        <v>11.9</v>
+      </c>
+      <c r="TN37" s="8">
+        <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="38" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>34</v>
       </c>
@@ -56777,10 +56879,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="TM38" s="8">
+        <v>15.3</v>
+      </c>
+      <c r="TN38" s="8">
         <v>14.5</v>
       </c>
     </row>
-    <row r="39" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
@@ -58378,10 +58483,13 @@
         <v>4.3</v>
       </c>
       <c r="TM39" s="8">
-        <v>12.2</v>
+        <v>12.9</v>
+      </c>
+      <c r="TN39" s="8">
+        <v>12.9</v>
       </c>
     </row>
-    <row r="40" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>36</v>
       </c>
@@ -59979,10 +60087,13 @@
         <v>2</v>
       </c>
       <c r="TM40" s="8">
-        <v>8.5</v>
+        <v>9.1</v>
+      </c>
+      <c r="TN40" s="8">
+        <v>9.1</v>
       </c>
     </row>
-    <row r="41" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>37</v>
       </c>
@@ -61580,10 +61691,13 @@
         <v>5.8</v>
       </c>
       <c r="TM41" s="8">
-        <v>16.8</v>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="TN41" s="8">
+        <v>13.7</v>
       </c>
     </row>
-    <row r="42" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>38</v>
       </c>
@@ -63181,10 +63295,13 @@
         <v>2.9</v>
       </c>
       <c r="TM42" s="8">
-        <v>13.7</v>
+        <v>14.7</v>
+      </c>
+      <c r="TN42" s="8">
+        <v>12.6</v>
       </c>
     </row>
-    <row r="43" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>39</v>
       </c>
@@ -64782,10 +64899,13 @@
         <v>3.5</v>
       </c>
       <c r="TM43" s="8">
+        <v>14.9</v>
+      </c>
+      <c r="TN43" s="8">
         <v>14.2</v>
       </c>
     </row>
-    <row r="44" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>40</v>
       </c>
@@ -66383,10 +66503,13 @@
         <v>5.8</v>
       </c>
       <c r="TM44" s="8">
-        <v>15.1</v>
+        <v>16.100000000000001</v>
+      </c>
+      <c r="TN44" s="8">
+        <v>13.1</v>
       </c>
     </row>
-    <row r="45" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>41</v>
       </c>
@@ -67984,10 +68107,13 @@
         <v>4.7</v>
       </c>
       <c r="TM45" s="8">
-        <v>17</v>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="TN45" s="8">
+        <v>16.3</v>
       </c>
     </row>
-    <row r="46" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>42</v>
       </c>
@@ -69585,10 +69711,13 @@
         <v>3.2</v>
       </c>
       <c r="TM46" s="8">
-        <v>12.1</v>
+        <v>12.8</v>
+      </c>
+      <c r="TN46" s="8">
+        <v>12.5</v>
       </c>
     </row>
-    <row r="47" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>43</v>
       </c>
@@ -71186,10 +71315,13 @@
         <v>3.1</v>
       </c>
       <c r="TM47" s="8">
-        <v>10.199999999999999</v>
+        <v>10.9</v>
+      </c>
+      <c r="TN47" s="8">
+        <v>9.4</v>
       </c>
     </row>
-    <row r="48" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>44</v>
       </c>
@@ -72787,10 +72919,13 @@
         <v>3.3</v>
       </c>
       <c r="TM48" s="8">
-        <v>14.7</v>
+        <v>15.5</v>
+      </c>
+      <c r="TN48" s="8">
+        <v>11.3</v>
       </c>
     </row>
-    <row r="49" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>45</v>
       </c>
@@ -74388,10 +74523,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="TM49" s="8">
-        <v>12.8</v>
+        <v>13.5</v>
+      </c>
+      <c r="TN49" s="8">
+        <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>46</v>
       </c>
@@ -75989,10 +76127,13 @@
         <v>3.8</v>
       </c>
       <c r="TM50" s="8">
-        <v>9.6999999999999993</v>
+        <v>10.4</v>
+      </c>
+      <c r="TN50" s="8">
+        <v>8.5</v>
       </c>
     </row>
-    <row r="51" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>47</v>
       </c>
@@ -77590,10 +77731,13 @@
         <v>3.1</v>
       </c>
       <c r="TM51" s="8">
-        <v>15.6</v>
+        <v>16.5</v>
+      </c>
+      <c r="TN51" s="8">
+        <v>12.7</v>
       </c>
     </row>
-    <row r="52" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>48</v>
       </c>
@@ -79191,10 +79335,13 @@
         <v>3.3</v>
       </c>
       <c r="TM52" s="8">
-        <v>10.6</v>
+        <v>11.2</v>
+      </c>
+      <c r="TN52" s="8">
+        <v>9.4</v>
       </c>
     </row>
-    <row r="53" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>49</v>
       </c>
@@ -80792,10 +80939,13 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="TM53" s="8">
-        <v>15.4</v>
+        <v>16.3</v>
+      </c>
+      <c r="TN53" s="8">
+        <v>15.1</v>
       </c>
     </row>
-    <row r="54" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>50</v>
       </c>
@@ -82393,10 +82543,13 @@
         <v>6</v>
       </c>
       <c r="TM54" s="8">
-        <v>15.2</v>
+        <v>15.9</v>
+      </c>
+      <c r="TN54" s="8">
+        <v>12.9</v>
       </c>
     </row>
-    <row r="55" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>51</v>
       </c>
@@ -83994,10 +84147,13 @@
         <v>3.1</v>
       </c>
       <c r="TM55" s="8">
-        <v>14.1</v>
+        <v>13.6</v>
+      </c>
+      <c r="TN55" s="8">
+        <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:533" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:534" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>52</v>
       </c>
@@ -85595,7 +85751,10 @@
         <v>3.8</v>
       </c>
       <c r="TM56" s="8">
-        <v>9.1999999999999993</v>
+        <v>9.6</v>
+      </c>
+      <c r="TN56" s="8">
+        <v>8.8000000000000007</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="592">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1631,6 +1631,9 @@
     <t xml:space="preserve">10/01/2020</t>
   </si>
   <si>
+    <t xml:space="preserve">11/01/2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3734,10 +3737,13 @@
       <c r="TS4" t="s">
         <v>538</v>
       </c>
+      <c r="TT4" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5352,11 +5358,14 @@
       </c>
       <c r="TS5" t="n">
         <v>6.9</v>
+      </c>
+      <c r="TT5" t="n">
+        <v>6.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B6" t="n">
         <v>6.7</v>
@@ -6970,12 +6979,15 @@
         <v>6.7</v>
       </c>
       <c r="TS6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
+      </c>
+      <c r="TT6" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -8590,11 +8602,14 @@
       </c>
       <c r="TS7" t="n">
         <v>5.9</v>
+      </c>
+      <c r="TT7" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B8" t="n">
         <v>10.3</v>
@@ -10208,12 +10223,15 @@
         <v>6.5</v>
       </c>
       <c r="TS8" t="n">
-        <v>8</v>
+        <v>7.9</v>
+      </c>
+      <c r="TT8" t="n">
+        <v>7.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B9" t="n">
         <v>7.4</v>
@@ -11827,12 +11845,15 @@
         <v>7.2</v>
       </c>
       <c r="TS9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="TT9" t="n">
         <v>6.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B10" t="n">
         <v>9.1</v>
@@ -13446,12 +13467,15 @@
         <v>11.1</v>
       </c>
       <c r="TS10" t="n">
-        <v>9.3</v>
+        <v>9</v>
+      </c>
+      <c r="TT10" t="n">
+        <v>8.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B11" t="n">
         <v>5.5</v>
@@ -15065,12 +15089,15 @@
         <v>6.4</v>
       </c>
       <c r="TS11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="TT11" t="n">
         <v>6.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -16685,11 +16712,14 @@
       </c>
       <c r="TS12" t="n">
         <v>6.1</v>
+      </c>
+      <c r="TT12" t="n">
+        <v>8.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B13" t="n">
         <v>7.7</v>
@@ -18304,11 +18334,14 @@
       </c>
       <c r="TS13" t="n">
         <v>5.6</v>
+      </c>
+      <c r="TT13" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B14" t="n">
         <v>9</v>
@@ -19922,12 +19955,15 @@
         <v>9</v>
       </c>
       <c r="TS14" t="n">
-        <v>8.2</v>
+        <v>8.3</v>
+      </c>
+      <c r="TT14" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B15" t="n">
         <v>9.6</v>
@@ -21541,12 +21577,15 @@
         <v>7.2</v>
       </c>
       <c r="TS15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
+      </c>
+      <c r="TT15" t="n">
+        <v>6.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -23161,11 +23200,14 @@
       </c>
       <c r="TS16" t="n">
         <v>4.5</v>
+      </c>
+      <c r="TT16" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B17" t="n">
         <v>10.1</v>
@@ -24779,12 +24821,15 @@
         <v>15</v>
       </c>
       <c r="TS17" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
+      </c>
+      <c r="TT17" t="n">
+        <v>10.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B18" t="n">
         <v>5.5</v>
@@ -26399,11 +26444,14 @@
       </c>
       <c r="TS18" t="n">
         <v>5.5</v>
+      </c>
+      <c r="TT18" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B19" t="n">
         <v>6.7</v>
@@ -28017,12 +28065,15 @@
         <v>10.4</v>
       </c>
       <c r="TS19" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
+      </c>
+      <c r="TT19" t="n">
+        <v>6.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B20" t="n">
         <v>6.5</v>
@@ -29636,12 +29687,15 @@
         <v>6.3</v>
       </c>
       <c r="TS20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="TT20" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B21" t="n">
         <v>4.2</v>
@@ -31255,12 +31309,15 @@
         <v>4.8</v>
       </c>
       <c r="TS21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="TT21" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B22" t="n">
         <v>4.3</v>
@@ -32874,12 +32931,15 @@
         <v>5.9</v>
       </c>
       <c r="TS22" t="n">
-        <v>5.3</v>
+        <v>5</v>
+      </c>
+      <c r="TT22" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -34493,12 +34553,15 @@
         <v>5.6</v>
       </c>
       <c r="TS23" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
+      </c>
+      <c r="TT23" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -36113,11 +36176,14 @@
       </c>
       <c r="TS24" t="n">
         <v>9.4</v>
+      </c>
+      <c r="TT24" t="n">
+        <v>8.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B25" t="n">
         <v>8.8</v>
@@ -37732,11 +37798,14 @@
       </c>
       <c r="TS25" t="n">
         <v>5.4</v>
+      </c>
+      <c r="TT25" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B26" t="n">
         <v>6.5</v>
@@ -39350,12 +39419,15 @@
         <v>7.6</v>
       </c>
       <c r="TS26" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
+      </c>
+      <c r="TT26" t="n">
+        <v>6.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B27" t="n">
         <v>10.3</v>
@@ -40970,11 +41042,14 @@
       </c>
       <c r="TS27" t="n">
         <v>7.4</v>
+      </c>
+      <c r="TT27" t="n">
+        <v>6.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -42588,12 +42663,15 @@
         <v>8.6</v>
       </c>
       <c r="TS28" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
+      </c>
+      <c r="TT28" t="n">
+        <v>6.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -44208,11 +44286,14 @@
       </c>
       <c r="TS29" t="n">
         <v>4.6</v>
+      </c>
+      <c r="TT29" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -45827,11 +45908,14 @@
       </c>
       <c r="TS30" t="n">
         <v>7.4</v>
+      </c>
+      <c r="TT30" t="n">
+        <v>6.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B31" t="n">
         <v>6</v>
@@ -47446,11 +47530,14 @@
       </c>
       <c r="TS31" t="n">
         <v>4.6</v>
+      </c>
+      <c r="TT31" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B32" t="n">
         <v>5.9</v>
@@ -49064,12 +49151,15 @@
         <v>5.4</v>
       </c>
       <c r="TS32" t="n">
+        <v>5</v>
+      </c>
+      <c r="TT32" t="n">
         <v>4.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -50684,11 +50774,14 @@
       </c>
       <c r="TS33" t="n">
         <v>3</v>
+      </c>
+      <c r="TT33" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B34" t="n">
         <v>8.9</v>
@@ -52302,12 +52395,15 @@
         <v>12.5</v>
       </c>
       <c r="TS34" t="n">
-        <v>12</v>
+        <v>11.9</v>
+      </c>
+      <c r="TT34" t="n">
+        <v>10.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B35" t="n">
         <v>6.8</v>
@@ -53922,11 +54018,14 @@
       </c>
       <c r="TS35" t="n">
         <v>4.2</v>
+      </c>
+      <c r="TT35" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -55540,12 +55639,15 @@
         <v>6.7</v>
       </c>
       <c r="TS36" t="n">
-        <v>8.2</v>
+        <v>8</v>
+      </c>
+      <c r="TT36" t="n">
+        <v>10.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B37" t="n">
         <v>8.9</v>
@@ -57160,11 +57262,14 @@
       </c>
       <c r="TS37" t="n">
         <v>8.1</v>
+      </c>
+      <c r="TT37" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -58778,12 +58883,15 @@
         <v>9.7</v>
       </c>
       <c r="TS38" t="n">
-        <v>9.6</v>
+        <v>9.2</v>
+      </c>
+      <c r="TT38" t="n">
+        <v>8.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B39" t="n">
         <v>6.5</v>
@@ -60397,12 +60505,15 @@
         <v>7.2</v>
       </c>
       <c r="TS39" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
+      </c>
+      <c r="TT39" t="n">
+        <v>6.2</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B40" t="n">
         <v>3.3</v>
@@ -62016,12 +62127,15 @@
         <v>4.4</v>
       </c>
       <c r="TS40" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
+      </c>
+      <c r="TT40" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -63635,12 +63749,15 @@
         <v>8.3</v>
       </c>
       <c r="TS41" t="n">
-        <v>5.6</v>
+        <v>6.1</v>
+      </c>
+      <c r="TT41" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B42" t="n">
         <v>5.9</v>
@@ -65254,12 +65371,15 @@
         <v>5.4</v>
       </c>
       <c r="TS42" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
+      </c>
+      <c r="TT42" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B43" t="n">
         <v>9.7</v>
@@ -66873,12 +66993,15 @@
         <v>7.9</v>
       </c>
       <c r="TS43" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
+      </c>
+      <c r="TT43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B44" t="n">
         <v>8.1</v>
@@ -68492,12 +68615,15 @@
         <v>8.3</v>
       </c>
       <c r="TS44" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
+      </c>
+      <c r="TT44" t="n">
+        <v>6.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B45" t="n">
         <v>8.1</v>
@@ -70111,12 +70237,15 @@
         <v>10.5</v>
       </c>
       <c r="TS45" t="n">
-        <v>7</v>
+        <v>7.1</v>
+      </c>
+      <c r="TT45" t="n">
+        <v>7.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B46" t="n">
         <v>7.6</v>
@@ -71731,11 +71860,14 @@
       </c>
       <c r="TS46" t="n">
         <v>4.2</v>
+      </c>
+      <c r="TT46" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B47" t="n">
         <v>3.2</v>
@@ -73349,12 +73481,15 @@
         <v>4.1</v>
       </c>
       <c r="TS47" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
+      </c>
+      <c r="TT47" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -74968,12 +75103,15 @@
         <v>6.5</v>
       </c>
       <c r="TS48" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
+      </c>
+      <c r="TT48" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -76588,11 +76726,14 @@
       </c>
       <c r="TS49" t="n">
         <v>6.9</v>
+      </c>
+      <c r="TT49" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -78207,11 +78348,14 @@
       </c>
       <c r="TS50" t="n">
         <v>4.1</v>
+      </c>
+      <c r="TT50" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B51" t="n">
         <v>8.7</v>
@@ -79826,11 +79970,14 @@
       </c>
       <c r="TS51" t="n">
         <v>3.2</v>
+      </c>
+      <c r="TT51" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B52" t="n">
         <v>5.9</v>
@@ -81444,12 +81591,15 @@
         <v>6.2</v>
       </c>
       <c r="TS52" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
+      </c>
+      <c r="TT52" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B53" t="n">
         <v>8.7</v>
@@ -83063,12 +83213,15 @@
         <v>8.3</v>
       </c>
       <c r="TS53" t="n">
+        <v>6</v>
+      </c>
+      <c r="TT53" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B54" t="n">
         <v>7.8</v>
@@ -84683,11 +84836,14 @@
       </c>
       <c r="TS54" t="n">
         <v>6.4</v>
+      </c>
+      <c r="TT54" t="n">
+        <v>6.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -86301,12 +86457,15 @@
         <v>5.4</v>
       </c>
       <c r="TS55" t="n">
-        <v>5.7</v>
+        <v>6</v>
+      </c>
+      <c r="TT55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -87921,6 +88080,9 @@
       </c>
       <c r="TS56" t="n">
         <v>5.5</v>
+      </c>
+      <c r="TT56" t="n">
+        <v>5.1</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="597">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1646,6 +1646,9 @@
     <t xml:space="preserve">03/01/2021</t>
   </si>
   <si>
+    <t xml:space="preserve">04/01/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3764,10 +3767,13 @@
       <c r="TX4" t="s">
         <v>543</v>
       </c>
+      <c r="TY4" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5397,11 +5403,14 @@
       </c>
       <c r="TX5" t="n">
         <v>6</v>
+      </c>
+      <c r="TY5" t="n">
+        <v>6.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7031,11 +7040,14 @@
       </c>
       <c r="TX6" t="n">
         <v>3.8</v>
+      </c>
+      <c r="TY6" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -8664,12 +8676,15 @@
         <v>6.6</v>
       </c>
       <c r="TX7" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
+      </c>
+      <c r="TY7" t="n">
+        <v>6.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10298,12 +10313,15 @@
         <v>6.9</v>
       </c>
       <c r="TX8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="TY8" t="n">
         <v>6.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -11932,12 +11950,15 @@
         <v>4.5</v>
       </c>
       <c r="TX9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="TY9" t="n">
         <v>4.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -13566,12 +13587,15 @@
         <v>8.5</v>
       </c>
       <c r="TX10" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="TY10" t="n">
         <v>8.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -15200,12 +15224,15 @@
         <v>6.4</v>
       </c>
       <c r="TX11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="TY11" t="n">
         <v>6.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -16835,11 +16862,14 @@
       </c>
       <c r="TX12" t="n">
         <v>8.3</v>
+      </c>
+      <c r="TY12" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -18469,11 +18499,14 @@
       </c>
       <c r="TX13" t="n">
         <v>6.5</v>
+      </c>
+      <c r="TY13" t="n">
+        <v>6.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -20102,12 +20135,15 @@
         <v>8.1</v>
       </c>
       <c r="TX14" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
+      </c>
+      <c r="TY14" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -21737,11 +21773,14 @@
       </c>
       <c r="TX15" t="n">
         <v>4.7</v>
+      </c>
+      <c r="TY15" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -23371,11 +23410,14 @@
       </c>
       <c r="TX16" t="n">
         <v>4.5</v>
+      </c>
+      <c r="TY16" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -25004,12 +25046,15 @@
         <v>9.2</v>
       </c>
       <c r="TX17" t="n">
-        <v>9</v>
+        <v>9.1</v>
+      </c>
+      <c r="TY17" t="n">
+        <v>8.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -26639,11 +26684,14 @@
       </c>
       <c r="TX18" t="n">
         <v>3.2</v>
+      </c>
+      <c r="TY18" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -28272,12 +28320,15 @@
         <v>7.4</v>
       </c>
       <c r="TX19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="TY19" t="n">
         <v>7.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -29906,12 +29957,15 @@
         <v>4</v>
       </c>
       <c r="TX20" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="TY20" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -31541,11 +31595,14 @@
       </c>
       <c r="TX21" t="n">
         <v>3.7</v>
+      </c>
+      <c r="TY21" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -33175,11 +33232,14 @@
       </c>
       <c r="TX22" t="n">
         <v>3.7</v>
+      </c>
+      <c r="TY22" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -34809,11 +34869,14 @@
       </c>
       <c r="TX23" t="n">
         <v>5</v>
+      </c>
+      <c r="TY23" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -36442,12 +36505,15 @@
         <v>7.6</v>
       </c>
       <c r="TX24" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="TY24" t="n">
         <v>7.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -38076,12 +38142,15 @@
         <v>4.8</v>
       </c>
       <c r="TX25" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="TY25" t="n">
         <v>4.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -39710,12 +39779,15 @@
         <v>6.2</v>
       </c>
       <c r="TX26" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="TY26" t="n">
         <v>6.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -41344,12 +41416,15 @@
         <v>7</v>
       </c>
       <c r="TX27" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
+      </c>
+      <c r="TY27" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -42979,11 +43054,14 @@
       </c>
       <c r="TX28" t="n">
         <v>5.1</v>
+      </c>
+      <c r="TY28" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -44613,11 +44691,14 @@
       </c>
       <c r="TX29" t="n">
         <v>4.2</v>
+      </c>
+      <c r="TY29" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -46246,12 +46327,15 @@
         <v>6.3</v>
       </c>
       <c r="TX30" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
+      </c>
+      <c r="TY30" t="n">
+        <v>6.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -47881,11 +47965,14 @@
       </c>
       <c r="TX31" t="n">
         <v>4.2</v>
+      </c>
+      <c r="TY31" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -49515,11 +49602,14 @@
       </c>
       <c r="TX32" t="n">
         <v>3.8</v>
+      </c>
+      <c r="TY32" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -51149,11 +51239,14 @@
       </c>
       <c r="TX33" t="n">
         <v>2.9</v>
+      </c>
+      <c r="TY33" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -52783,11 +52876,14 @@
       </c>
       <c r="TX34" t="n">
         <v>8.1</v>
+      </c>
+      <c r="TY34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -54417,11 +54513,14 @@
       </c>
       <c r="TX35" t="n">
         <v>3</v>
+      </c>
+      <c r="TY35" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -56050,12 +56149,15 @@
         <v>7.8</v>
       </c>
       <c r="TX36" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
+      </c>
+      <c r="TY36" t="n">
+        <v>7.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -57685,11 +57787,14 @@
       </c>
       <c r="TX37" t="n">
         <v>8.3</v>
+      </c>
+      <c r="TY37" t="n">
+        <v>8.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -59318,12 +59423,15 @@
         <v>8.9</v>
       </c>
       <c r="TX38" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
+      </c>
+      <c r="TY38" t="n">
+        <v>8.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -60953,11 +61061,14 @@
       </c>
       <c r="TX39" t="n">
         <v>5.2</v>
+      </c>
+      <c r="TY39" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -62587,11 +62698,14 @@
       </c>
       <c r="TX40" t="n">
         <v>4.4</v>
+      </c>
+      <c r="TY40" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -64220,12 +64334,15 @@
         <v>5</v>
       </c>
       <c r="TX41" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="TY41" t="n">
         <v>4.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -65854,12 +65971,15 @@
         <v>4.4</v>
       </c>
       <c r="TX42" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
+      </c>
+      <c r="TY42" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -67488,12 +67608,15 @@
         <v>6.1</v>
       </c>
       <c r="TX43" t="n">
+        <v>6</v>
+      </c>
+      <c r="TY43" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -69123,11 +69246,14 @@
       </c>
       <c r="TX44" t="n">
         <v>7.3</v>
+      </c>
+      <c r="TY44" t="n">
+        <v>7.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -70756,12 +70882,15 @@
         <v>7.3</v>
       </c>
       <c r="TX45" t="n">
-        <v>7.1</v>
+        <v>7</v>
+      </c>
+      <c r="TY45" t="n">
+        <v>6.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -72391,11 +72520,14 @@
       </c>
       <c r="TX46" t="n">
         <v>5.1</v>
+      </c>
+      <c r="TY46" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -74025,11 +74157,14 @@
       </c>
       <c r="TX47" t="n">
         <v>2.9</v>
+      </c>
+      <c r="TY47" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -75658,12 +75793,15 @@
         <v>4.9</v>
       </c>
       <c r="TX48" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="TY48" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -77293,11 +77431,14 @@
       </c>
       <c r="TX49" t="n">
         <v>6.9</v>
+      </c>
+      <c r="TY49" t="n">
+        <v>6.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -78927,11 +79068,14 @@
       </c>
       <c r="TX50" t="n">
         <v>2.9</v>
+      </c>
+      <c r="TY50" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -80560,12 +80704,15 @@
         <v>3</v>
       </c>
       <c r="TX51" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="TY51" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -82195,11 +82342,14 @@
       </c>
       <c r="TX52" t="n">
         <v>5.1</v>
+      </c>
+      <c r="TY52" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -83828,12 +83978,15 @@
         <v>5.6</v>
       </c>
       <c r="TX53" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
+      </c>
+      <c r="TY53" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -85463,11 +85616,14 @@
       </c>
       <c r="TX54" t="n">
         <v>5.9</v>
+      </c>
+      <c r="TY54" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -87097,11 +87253,14 @@
       </c>
       <c r="TX55" t="n">
         <v>3.8</v>
+      </c>
+      <c r="TY55" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -88731,6 +88890,9 @@
       </c>
       <c r="TX56" t="n">
         <v>5.3</v>
+      </c>
+      <c r="TY56" t="n">
+        <v>5.4</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="598">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1649,6 +1649,9 @@
     <t xml:space="preserve">04/01/2021</t>
   </si>
   <si>
+    <t xml:space="preserve">05/01/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3770,10 +3773,13 @@
       <c r="TY4" t="s">
         <v>544</v>
       </c>
+      <c r="TZ4" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5406,11 +5412,14 @@
       </c>
       <c r="TY5" t="n">
         <v>6.1</v>
+      </c>
+      <c r="TZ5" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7043,11 +7052,14 @@
       </c>
       <c r="TY6" t="n">
         <v>3.6</v>
+      </c>
+      <c r="TZ6" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -8679,12 +8691,15 @@
         <v>6.7</v>
       </c>
       <c r="TY7" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="TZ7" t="n">
         <v>6.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10316,12 +10331,15 @@
         <v>6.7</v>
       </c>
       <c r="TY8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="TZ8" t="n">
         <v>6.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -11953,12 +11971,15 @@
         <v>4.4</v>
       </c>
       <c r="TY9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="TZ9" t="n">
         <v>4.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -13590,12 +13611,15 @@
         <v>8.3</v>
       </c>
       <c r="TY10" t="n">
-        <v>8.3</v>
+        <v>8</v>
+      </c>
+      <c r="TZ10" t="n">
+        <v>7.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -15228,11 +15252,14 @@
       </c>
       <c r="TY11" t="n">
         <v>6.4</v>
+      </c>
+      <c r="TZ11" t="n">
+        <v>6.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -16865,11 +16892,14 @@
       </c>
       <c r="TY12" t="n">
         <v>8.1</v>
+      </c>
+      <c r="TZ12" t="n">
+        <v>7.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -18502,11 +18532,14 @@
       </c>
       <c r="TY13" t="n">
         <v>6.4</v>
+      </c>
+      <c r="TZ13" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -20139,11 +20172,14 @@
       </c>
       <c r="TY14" t="n">
         <v>7.5</v>
+      </c>
+      <c r="TZ14" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -21776,11 +21812,14 @@
       </c>
       <c r="TY15" t="n">
         <v>4.8</v>
+      </c>
+      <c r="TZ15" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -23413,11 +23452,14 @@
       </c>
       <c r="TY16" t="n">
         <v>4.3</v>
+      </c>
+      <c r="TZ16" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -25050,11 +25092,14 @@
       </c>
       <c r="TY17" t="n">
         <v>8.5</v>
+      </c>
+      <c r="TZ17" t="n">
+        <v>8.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -26687,11 +26732,14 @@
       </c>
       <c r="TY18" t="n">
         <v>3.1</v>
+      </c>
+      <c r="TZ18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -28323,12 +28371,15 @@
         <v>7.1</v>
       </c>
       <c r="TY19" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="TZ19" t="n">
         <v>7.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -29961,11 +30012,14 @@
       </c>
       <c r="TY20" t="n">
         <v>3.9</v>
+      </c>
+      <c r="TZ20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -31598,11 +31652,14 @@
       </c>
       <c r="TY21" t="n">
         <v>3.8</v>
+      </c>
+      <c r="TZ21" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -33234,12 +33291,15 @@
         <v>3.7</v>
       </c>
       <c r="TY22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="TZ22" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -34872,11 +34932,14 @@
       </c>
       <c r="TY23" t="n">
         <v>4.7</v>
+      </c>
+      <c r="TZ23" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -36508,12 +36571,15 @@
         <v>7.4</v>
       </c>
       <c r="TY24" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
+      </c>
+      <c r="TZ24" t="n">
+        <v>7.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -38146,11 +38212,14 @@
       </c>
       <c r="TY25" t="n">
         <v>4.8</v>
+      </c>
+      <c r="TZ25" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -39783,11 +39852,14 @@
       </c>
       <c r="TY26" t="n">
         <v>6.2</v>
+      </c>
+      <c r="TZ26" t="n">
+        <v>6.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -41419,12 +41491,15 @@
         <v>6.7</v>
       </c>
       <c r="TY27" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
+      </c>
+      <c r="TZ27" t="n">
+        <v>6.1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -43057,11 +43132,14 @@
       </c>
       <c r="TY28" t="n">
         <v>4.9</v>
+      </c>
+      <c r="TZ28" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -44694,11 +44772,14 @@
       </c>
       <c r="TY29" t="n">
         <v>4.1</v>
+      </c>
+      <c r="TZ29" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -46331,11 +46412,14 @@
       </c>
       <c r="TY30" t="n">
         <v>6.2</v>
+      </c>
+      <c r="TZ30" t="n">
+        <v>6.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -47968,11 +48052,14 @@
       </c>
       <c r="TY31" t="n">
         <v>4.1</v>
+      </c>
+      <c r="TZ31" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -49605,11 +49692,14 @@
       </c>
       <c r="TY32" t="n">
         <v>3.7</v>
+      </c>
+      <c r="TZ32" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -51242,11 +51332,14 @@
       </c>
       <c r="TY33" t="n">
         <v>2.8</v>
+      </c>
+      <c r="TZ33" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -52879,11 +52972,14 @@
       </c>
       <c r="TY34" t="n">
         <v>8</v>
+      </c>
+      <c r="TZ34" t="n">
+        <v>7.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -54516,11 +54612,14 @@
       </c>
       <c r="TY35" t="n">
         <v>2.8</v>
+      </c>
+      <c r="TZ35" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -56153,11 +56252,14 @@
       </c>
       <c r="TY36" t="n">
         <v>7.5</v>
+      </c>
+      <c r="TZ36" t="n">
+        <v>7.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -57789,12 +57891,15 @@
         <v>8.3</v>
       </c>
       <c r="TY37" t="n">
-        <v>8.2</v>
+        <v>8.1</v>
+      </c>
+      <c r="TZ37" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -59427,11 +59532,14 @@
       </c>
       <c r="TY38" t="n">
         <v>8.2</v>
+      </c>
+      <c r="TZ38" t="n">
+        <v>7.8</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -61064,11 +61172,14 @@
       </c>
       <c r="TY39" t="n">
         <v>5</v>
+      </c>
+      <c r="TZ39" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -62701,11 +62812,14 @@
       </c>
       <c r="TY40" t="n">
         <v>4.2</v>
+      </c>
+      <c r="TZ40" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -64338,11 +64452,14 @@
       </c>
       <c r="TY41" t="n">
         <v>4.7</v>
+      </c>
+      <c r="TZ41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -65974,12 +66091,15 @@
         <v>4.3</v>
       </c>
       <c r="TY42" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
+      </c>
+      <c r="TZ42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -67611,12 +67731,15 @@
         <v>6</v>
       </c>
       <c r="TY43" t="n">
-        <v>6</v>
+        <v>5.9</v>
+      </c>
+      <c r="TZ43" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -69248,12 +69371,15 @@
         <v>7.3</v>
       </c>
       <c r="TY44" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
+      </c>
+      <c r="TZ44" t="n">
+        <v>6.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -70886,11 +71012,14 @@
       </c>
       <c r="TY45" t="n">
         <v>6.3</v>
+      </c>
+      <c r="TZ45" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -72523,11 +72652,14 @@
       </c>
       <c r="TY46" t="n">
         <v>5</v>
+      </c>
+      <c r="TZ46" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -74159,12 +74291,15 @@
         <v>2.9</v>
       </c>
       <c r="TY47" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="TZ47" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -75796,12 +75931,15 @@
         <v>5.1</v>
       </c>
       <c r="TY48" t="n">
+        <v>5</v>
+      </c>
+      <c r="TZ48" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -77434,11 +77572,14 @@
       </c>
       <c r="TY49" t="n">
         <v>6.7</v>
+      </c>
+      <c r="TZ49" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -79071,11 +79212,14 @@
       </c>
       <c r="TY50" t="n">
         <v>2.8</v>
+      </c>
+      <c r="TZ50" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -80708,11 +80852,14 @@
       </c>
       <c r="TY51" t="n">
         <v>2.9</v>
+      </c>
+      <c r="TZ51" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -82345,11 +82492,14 @@
       </c>
       <c r="TY52" t="n">
         <v>4.7</v>
+      </c>
+      <c r="TZ52" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -83981,12 +84131,15 @@
         <v>5.5</v>
       </c>
       <c r="TY53" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
+      </c>
+      <c r="TZ53" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -85619,11 +85772,14 @@
       </c>
       <c r="TY54" t="n">
         <v>5.8</v>
+      </c>
+      <c r="TZ54" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -87255,12 +87411,15 @@
         <v>3.8</v>
       </c>
       <c r="TY55" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="TZ55" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -88892,6 +89051,9 @@
         <v>5.3</v>
       </c>
       <c r="TY56" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="TZ56" t="n">
         <v>5.4</v>
       </c>
     </row>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1655,6 +1655,9 @@
     <t xml:space="preserve">06/01/2021</t>
   </si>
   <si>
+    <t xml:space="preserve">07/01/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3782,10 +3785,13 @@
       <c r="UA4" t="s">
         <v>546</v>
       </c>
+      <c r="UB4" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5424,11 +5430,14 @@
       </c>
       <c r="UA5" t="n">
         <v>5.9</v>
+      </c>
+      <c r="UB5" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7067,11 +7076,14 @@
       </c>
       <c r="UA6" t="n">
         <v>3.3</v>
+      </c>
+      <c r="UB6" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -8709,12 +8721,15 @@
         <v>6.6</v>
       </c>
       <c r="UA7" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="UB7" t="n">
         <v>6.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10353,11 +10368,14 @@
       </c>
       <c r="UA8" t="n">
         <v>6.8</v>
+      </c>
+      <c r="UB8" t="n">
+        <v>6.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -11996,11 +12014,14 @@
       </c>
       <c r="UA9" t="n">
         <v>4.4</v>
+      </c>
+      <c r="UB9" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -13638,12 +13659,15 @@
         <v>7.7</v>
       </c>
       <c r="UA10" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
+      </c>
+      <c r="UB10" t="n">
+        <v>7.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -15282,11 +15306,14 @@
       </c>
       <c r="UA11" t="n">
         <v>6.2</v>
+      </c>
+      <c r="UB11" t="n">
+        <v>6.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -16924,12 +16951,15 @@
         <v>8.1</v>
       </c>
       <c r="UA12" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
+      </c>
+      <c r="UB12" t="n">
+        <v>7.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -18568,11 +18598,14 @@
       </c>
       <c r="UA13" t="n">
         <v>5.8</v>
+      </c>
+      <c r="UB13" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -20211,11 +20244,14 @@
       </c>
       <c r="UA14" t="n">
         <v>7</v>
+      </c>
+      <c r="UB14" t="n">
+        <v>6.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -21854,11 +21890,14 @@
       </c>
       <c r="UA15" t="n">
         <v>5</v>
+      </c>
+      <c r="UB15" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -23497,11 +23536,14 @@
       </c>
       <c r="UA16" t="n">
         <v>4</v>
+      </c>
+      <c r="UB16" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -25140,11 +25182,14 @@
       </c>
       <c r="UA17" t="n">
         <v>7.7</v>
+      </c>
+      <c r="UB17" t="n">
+        <v>7.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -26782,12 +26827,15 @@
         <v>3</v>
       </c>
       <c r="UA18" t="n">
+        <v>3</v>
+      </c>
+      <c r="UB18" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -28426,11 +28474,14 @@
       </c>
       <c r="UA19" t="n">
         <v>7.2</v>
+      </c>
+      <c r="UB19" t="n">
+        <v>7.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -30068,12 +30119,15 @@
         <v>4</v>
       </c>
       <c r="UA20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="UB20" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -31712,11 +31766,14 @@
       </c>
       <c r="UA21" t="n">
         <v>4</v>
+      </c>
+      <c r="UB21" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -33355,11 +33412,14 @@
       </c>
       <c r="UA22" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UB22" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -34997,12 +35057,15 @@
         <v>4.5</v>
       </c>
       <c r="UA23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="UB23" t="n">
         <v>4.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -36641,11 +36704,14 @@
       </c>
       <c r="UA24" t="n">
         <v>6.9</v>
+      </c>
+      <c r="UB24" t="n">
+        <v>6.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -38284,11 +38350,14 @@
       </c>
       <c r="UA25" t="n">
         <v>4.8</v>
+      </c>
+      <c r="UB25" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -39927,11 +39996,14 @@
       </c>
       <c r="UA26" t="n">
         <v>6.2</v>
+      </c>
+      <c r="UB26" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -41569,12 +41641,15 @@
         <v>5</v>
       </c>
       <c r="UA27" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="UB27" t="n">
         <v>4.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -43213,11 +43288,14 @@
       </c>
       <c r="UA28" t="n">
         <v>5</v>
+      </c>
+      <c r="UB28" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -44856,11 +44934,14 @@
       </c>
       <c r="UA29" t="n">
         <v>4</v>
+      </c>
+      <c r="UB29" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -46499,11 +46580,14 @@
       </c>
       <c r="UA30" t="n">
         <v>6.2</v>
+      </c>
+      <c r="UB30" t="n">
+        <v>6.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -48142,11 +48226,14 @@
       </c>
       <c r="UA31" t="n">
         <v>4.3</v>
+      </c>
+      <c r="UB31" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -49785,11 +49872,14 @@
       </c>
       <c r="UA32" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UB32" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -51428,11 +51518,14 @@
       </c>
       <c r="UA33" t="n">
         <v>2.5</v>
+      </c>
+      <c r="UB33" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -53071,11 +53164,14 @@
       </c>
       <c r="UA34" t="n">
         <v>7.8</v>
+      </c>
+      <c r="UB34" t="n">
+        <v>7.7</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -54713,12 +54809,15 @@
         <v>2.9</v>
       </c>
       <c r="UA35" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="UB35" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -56356,12 +56455,15 @@
         <v>7.2</v>
       </c>
       <c r="UA36" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="UB36" t="n">
         <v>7.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -58000,11 +58102,14 @@
       </c>
       <c r="UA37" t="n">
         <v>7.9</v>
+      </c>
+      <c r="UB37" t="n">
+        <v>7.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -59643,11 +59748,14 @@
       </c>
       <c r="UA38" t="n">
         <v>7.7</v>
+      </c>
+      <c r="UB38" t="n">
+        <v>7.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -61286,11 +61394,14 @@
       </c>
       <c r="UA39" t="n">
         <v>4.6</v>
+      </c>
+      <c r="UB39" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -62929,11 +63040,14 @@
       </c>
       <c r="UA40" t="n">
         <v>4</v>
+      </c>
+      <c r="UB40" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -64572,11 +64686,14 @@
       </c>
       <c r="UA41" t="n">
         <v>5.2</v>
+      </c>
+      <c r="UB41" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -66215,11 +66332,14 @@
       </c>
       <c r="UA42" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UB42" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -67858,11 +67978,14 @@
       </c>
       <c r="UA43" t="n">
         <v>5.6</v>
+      </c>
+      <c r="UB43" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -69501,11 +69624,14 @@
       </c>
       <c r="UA44" t="n">
         <v>6.9</v>
+      </c>
+      <c r="UB44" t="n">
+        <v>6.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -71144,11 +71270,14 @@
       </c>
       <c r="UA45" t="n">
         <v>5.9</v>
+      </c>
+      <c r="UB45" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -72787,11 +72916,14 @@
       </c>
       <c r="UA46" t="n">
         <v>4.5</v>
+      </c>
+      <c r="UB46" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -74429,12 +74561,15 @@
         <v>2.8</v>
       </c>
       <c r="UA47" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="UB47" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -76073,11 +76208,14 @@
       </c>
       <c r="UA48" t="n">
         <v>4.9</v>
+      </c>
+      <c r="UB48" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -77716,11 +77854,14 @@
       </c>
       <c r="UA49" t="n">
         <v>6.5</v>
+      </c>
+      <c r="UB49" t="n">
+        <v>6.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -79359,11 +79500,14 @@
       </c>
       <c r="UA50" t="n">
         <v>2.7</v>
+      </c>
+      <c r="UB50" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -81002,11 +81146,14 @@
       </c>
       <c r="UA51" t="n">
         <v>3.1</v>
+      </c>
+      <c r="UB51" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -82645,11 +82792,14 @@
       </c>
       <c r="UA52" t="n">
         <v>4.3</v>
+      </c>
+      <c r="UB52" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -84288,11 +84438,14 @@
       </c>
       <c r="UA53" t="n">
         <v>5.2</v>
+      </c>
+      <c r="UB53" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -85931,11 +86084,14 @@
       </c>
       <c r="UA54" t="n">
         <v>5.3</v>
+      </c>
+      <c r="UB54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -87573,12 +87729,15 @@
         <v>3.9</v>
       </c>
       <c r="UA55" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="UB55" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -89217,6 +89376,9 @@
       </c>
       <c r="UA56" t="n">
         <v>5.4</v>
+      </c>
+      <c r="UB56" t="n">
+        <v>5.2</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="604">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1667,6 +1667,9 @@
     <t xml:space="preserve">10/01/2021</t>
   </si>
   <si>
+    <t xml:space="preserve">11/01/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3806,10 +3809,13 @@
       <c r="UE4" t="s">
         <v>550</v>
       </c>
+      <c r="UF4" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5460,11 +5466,14 @@
       </c>
       <c r="UE5" t="n">
         <v>4.6</v>
+      </c>
+      <c r="UF5" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7114,12 +7123,15 @@
         <v>3.1</v>
       </c>
       <c r="UE6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UF6" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -8770,11 +8782,14 @@
       </c>
       <c r="UE7" t="n">
         <v>6.1</v>
+      </c>
+      <c r="UF7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10425,11 +10440,14 @@
       </c>
       <c r="UE8" t="n">
         <v>5.2</v>
+      </c>
+      <c r="UF8" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12080,11 +12098,14 @@
       </c>
       <c r="UE9" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UF9" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -13735,11 +13756,14 @@
       </c>
       <c r="UE10" t="n">
         <v>7.3</v>
+      </c>
+      <c r="UF10" t="n">
+        <v>6.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -15390,11 +15414,14 @@
       </c>
       <c r="UE11" t="n">
         <v>5.4</v>
+      </c>
+      <c r="UF11" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -17045,11 +17072,14 @@
       </c>
       <c r="UE12" t="n">
         <v>6.4</v>
+      </c>
+      <c r="UF12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -18700,11 +18730,14 @@
       </c>
       <c r="UE13" t="n">
         <v>5.3</v>
+      </c>
+      <c r="UF13" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -20355,11 +20388,14 @@
       </c>
       <c r="UE14" t="n">
         <v>6.3</v>
+      </c>
+      <c r="UF14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -22010,11 +22046,14 @@
       </c>
       <c r="UE15" t="n">
         <v>4.6</v>
+      </c>
+      <c r="UF15" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -23665,11 +23704,14 @@
       </c>
       <c r="UE16" t="n">
         <v>3.1</v>
+      </c>
+      <c r="UF16" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -25319,12 +25361,15 @@
         <v>6.6</v>
       </c>
       <c r="UE17" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
+      </c>
+      <c r="UF17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -26975,11 +27020,14 @@
       </c>
       <c r="UE18" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UF18" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -28630,11 +28678,14 @@
       </c>
       <c r="UE19" t="n">
         <v>6</v>
+      </c>
+      <c r="UF19" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -30285,11 +30336,14 @@
       </c>
       <c r="UE20" t="n">
         <v>3.3</v>
+      </c>
+      <c r="UF20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -31940,11 +31994,14 @@
       </c>
       <c r="UE21" t="n">
         <v>3.9</v>
+      </c>
+      <c r="UF21" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -33595,11 +33652,14 @@
       </c>
       <c r="UE22" t="n">
         <v>3.9</v>
+      </c>
+      <c r="UF22" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -35250,11 +35310,14 @@
       </c>
       <c r="UE23" t="n">
         <v>4.2</v>
+      </c>
+      <c r="UF23" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -36905,11 +36968,14 @@
       </c>
       <c r="UE24" t="n">
         <v>5.4</v>
+      </c>
+      <c r="UF24" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -38560,11 +38626,14 @@
       </c>
       <c r="UE25" t="n">
         <v>4.9</v>
+      </c>
+      <c r="UF25" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -40214,12 +40283,15 @@
         <v>5.8</v>
       </c>
       <c r="UE26" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
+      </c>
+      <c r="UF26" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -41870,11 +41942,14 @@
       </c>
       <c r="UE27" t="n">
         <v>5.3</v>
+      </c>
+      <c r="UF27" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -43525,11 +43600,14 @@
       </c>
       <c r="UE28" t="n">
         <v>6.1</v>
+      </c>
+      <c r="UF28" t="n">
+        <v>5.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -45180,11 +45258,14 @@
       </c>
       <c r="UE29" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UF29" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -46835,11 +46916,14 @@
       </c>
       <c r="UE30" t="n">
         <v>5.5</v>
+      </c>
+      <c r="UF30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -48490,11 +48574,14 @@
       </c>
       <c r="UE31" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UF31" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -50145,11 +50232,14 @@
       </c>
       <c r="UE32" t="n">
         <v>3.1</v>
+      </c>
+      <c r="UF32" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -51800,11 +51890,14 @@
       </c>
       <c r="UE33" t="n">
         <v>1.9</v>
+      </c>
+      <c r="UF33" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -53454,12 +53547,15 @@
         <v>7.5</v>
       </c>
       <c r="UE34" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
+      </c>
+      <c r="UF34" t="n">
+        <v>6.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -55110,11 +55206,14 @@
       </c>
       <c r="UE35" t="n">
         <v>2.9</v>
+      </c>
+      <c r="UF35" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -56765,11 +56864,14 @@
       </c>
       <c r="UE36" t="n">
         <v>7</v>
+      </c>
+      <c r="UF36" t="n">
+        <v>6.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -58420,11 +58522,14 @@
       </c>
       <c r="UE37" t="n">
         <v>6.5</v>
+      </c>
+      <c r="UF37" t="n">
+        <v>6.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -60075,11 +60180,14 @@
       </c>
       <c r="UE38" t="n">
         <v>6.9</v>
+      </c>
+      <c r="UF38" t="n">
+        <v>6.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -61730,11 +61838,14 @@
       </c>
       <c r="UE39" t="n">
         <v>4.1</v>
+      </c>
+      <c r="UF39" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -63385,11 +63496,14 @@
       </c>
       <c r="UE40" t="n">
         <v>3.3</v>
+      </c>
+      <c r="UF40" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -65040,11 +65154,14 @@
       </c>
       <c r="UE41" t="n">
         <v>5.1</v>
+      </c>
+      <c r="UF41" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -66695,11 +66812,14 @@
       </c>
       <c r="UE42" t="n">
         <v>2.7</v>
+      </c>
+      <c r="UF42" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -68350,11 +68470,14 @@
       </c>
       <c r="UE43" t="n">
         <v>4.4</v>
+      </c>
+      <c r="UF43" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -70005,11 +70128,14 @@
       </c>
       <c r="UE44" t="n">
         <v>6</v>
+      </c>
+      <c r="UF44" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -71659,12 +71785,15 @@
         <v>5.2</v>
       </c>
       <c r="UE45" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
+      </c>
+      <c r="UF45" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -73315,11 +73444,14 @@
       </c>
       <c r="UE46" t="n">
         <v>3.9</v>
+      </c>
+      <c r="UF46" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -74970,11 +75102,14 @@
       </c>
       <c r="UE47" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UF47" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -76625,11 +76760,14 @@
       </c>
       <c r="UE48" t="n">
         <v>4.2</v>
+      </c>
+      <c r="UF48" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -78280,11 +78418,14 @@
       </c>
       <c r="UE49" t="n">
         <v>5.4</v>
+      </c>
+      <c r="UF49" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -79935,11 +80076,14 @@
       </c>
       <c r="UE50" t="n">
         <v>2.2</v>
+      </c>
+      <c r="UF50" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -81590,11 +81734,14 @@
       </c>
       <c r="UE51" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UF51" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -83245,11 +83392,14 @@
       </c>
       <c r="UE52" t="n">
         <v>3.6</v>
+      </c>
+      <c r="UF52" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -84900,11 +85050,14 @@
       </c>
       <c r="UE53" t="n">
         <v>5</v>
+      </c>
+      <c r="UF53" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -86555,11 +86708,14 @@
       </c>
       <c r="UE54" t="n">
         <v>4.3</v>
+      </c>
+      <c r="UF54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -88210,11 +88366,14 @@
       </c>
       <c r="UE55" t="n">
         <v>3.2</v>
+      </c>
+      <c r="UF55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -89865,6 +90024,9 @@
       </c>
       <c r="UE56" t="n">
         <v>4.1</v>
+      </c>
+      <c r="UF56" t="n">
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="605">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1670,6 +1670,9 @@
     <t xml:space="preserve">11/01/2021</t>
   </si>
   <si>
+    <t xml:space="preserve">12/01/2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3812,10 +3815,13 @@
       <c r="UF4" t="s">
         <v>551</v>
       </c>
+      <c r="UG4" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5303,7 +5309,7 @@
         <v>4.4</v>
       </c>
       <c r="SC5" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="SD5" t="n">
         <v>4.4</v>
@@ -5318,10 +5324,10 @@
         <v>4.4</v>
       </c>
       <c r="SH5" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="SI5" t="n">
         <v>4.2</v>
-      </c>
-      <c r="SI5" t="n">
-        <v>4.1</v>
       </c>
       <c r="SJ5" t="n">
         <v>4.2</v>
@@ -5375,16 +5381,16 @@
         <v>3.8</v>
       </c>
       <c r="TA5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="TB5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="TC5" t="n">
         <v>3.6</v>
       </c>
       <c r="TD5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="TE5" t="n">
         <v>3.7</v>
@@ -5411,13 +5417,13 @@
         <v>4.4</v>
       </c>
       <c r="TM5" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="TN5" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="TO5" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="TP5" t="n">
         <v>10.2</v>
@@ -5426,7 +5432,7 @@
         <v>8.4</v>
       </c>
       <c r="TR5" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="TS5" t="n">
         <v>6.9</v>
@@ -5438,7 +5444,7 @@
         <v>6.7</v>
       </c>
       <c r="TV5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="TW5" t="n">
         <v>6.2</v>
@@ -5447,7 +5453,7 @@
         <v>6</v>
       </c>
       <c r="TY5" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="TZ5" t="n">
         <v>5.8</v>
@@ -5462,18 +5468,21 @@
         <v>5.2</v>
       </c>
       <c r="UD5" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="UE5" t="n">
         <v>4.6</v>
       </c>
       <c r="UF5" t="n">
         <v>4.2</v>
+      </c>
+      <c r="UG5" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7126,12 +7135,15 @@
         <v>3.1</v>
       </c>
       <c r="UF6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UG6" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -8785,11 +8797,14 @@
       </c>
       <c r="UF7" t="n">
         <v>6</v>
+      </c>
+      <c r="UG7" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10443,11 +10458,14 @@
       </c>
       <c r="UF8" t="n">
         <v>4.7</v>
+      </c>
+      <c r="UG8" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12101,11 +12119,14 @@
       </c>
       <c r="UF9" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UG9" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -13758,12 +13779,15 @@
         <v>7.3</v>
       </c>
       <c r="UF10" t="n">
-        <v>6.9</v>
+        <v>7</v>
+      </c>
+      <c r="UG10" t="n">
+        <v>6.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -15417,11 +15441,14 @@
       </c>
       <c r="UF11" t="n">
         <v>5.1</v>
+      </c>
+      <c r="UG11" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -17075,11 +17102,14 @@
       </c>
       <c r="UF12" t="n">
         <v>6</v>
+      </c>
+      <c r="UG12" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -18733,11 +18763,14 @@
       </c>
       <c r="UF13" t="n">
         <v>5.1</v>
+      </c>
+      <c r="UG13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -20391,11 +20424,14 @@
       </c>
       <c r="UF14" t="n">
         <v>6</v>
+      </c>
+      <c r="UG14" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -22049,11 +22085,14 @@
       </c>
       <c r="UF15" t="n">
         <v>4.5</v>
+      </c>
+      <c r="UG15" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -23707,11 +23746,14 @@
       </c>
       <c r="UF16" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UG16" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -25365,11 +25407,14 @@
       </c>
       <c r="UF17" t="n">
         <v>6</v>
+      </c>
+      <c r="UG17" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -27023,11 +27068,14 @@
       </c>
       <c r="UF18" t="n">
         <v>2.6</v>
+      </c>
+      <c r="UG18" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -28681,11 +28729,14 @@
       </c>
       <c r="UF19" t="n">
         <v>5.7</v>
+      </c>
+      <c r="UG19" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -30339,11 +30390,14 @@
       </c>
       <c r="UF20" t="n">
         <v>3</v>
+      </c>
+      <c r="UG20" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -31997,11 +32051,14 @@
       </c>
       <c r="UF21" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UG21" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -33655,11 +33712,14 @@
       </c>
       <c r="UF22" t="n">
         <v>3.6</v>
+      </c>
+      <c r="UG22" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -35313,11 +35373,14 @@
       </c>
       <c r="UF23" t="n">
         <v>4.1</v>
+      </c>
+      <c r="UG23" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -36971,11 +37034,14 @@
       </c>
       <c r="UF24" t="n">
         <v>5.1</v>
+      </c>
+      <c r="UG24" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -38628,12 +38694,15 @@
         <v>4.9</v>
       </c>
       <c r="UF25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
+      </c>
+      <c r="UG25" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -40287,11 +40356,14 @@
       </c>
       <c r="UF26" t="n">
         <v>5.4</v>
+      </c>
+      <c r="UG26" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -41944,12 +42016,15 @@
         <v>5.3</v>
       </c>
       <c r="UF27" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
+      </c>
+      <c r="UG27" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -43603,11 +43678,14 @@
       </c>
       <c r="UF28" t="n">
         <v>5.9</v>
+      </c>
+      <c r="UG28" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -45261,11 +45339,14 @@
       </c>
       <c r="UF29" t="n">
         <v>3.3</v>
+      </c>
+      <c r="UG29" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -46919,11 +47000,14 @@
       </c>
       <c r="UF30" t="n">
         <v>5</v>
+      </c>
+      <c r="UG30" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -48577,11 +48661,14 @@
       </c>
       <c r="UF31" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UG31" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -50235,11 +50322,14 @@
       </c>
       <c r="UF32" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UG32" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -51893,11 +51983,14 @@
       </c>
       <c r="UF33" t="n">
         <v>1.8</v>
+      </c>
+      <c r="UG33" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -53550,12 +53643,15 @@
         <v>7.2</v>
       </c>
       <c r="UF34" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
+      </c>
+      <c r="UG34" t="n">
+        <v>6.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -55209,11 +55305,14 @@
       </c>
       <c r="UF35" t="n">
         <v>2.7</v>
+      </c>
+      <c r="UG35" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -56866,12 +56965,15 @@
         <v>7</v>
       </c>
       <c r="UF36" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
+      </c>
+      <c r="UG36" t="n">
+        <v>6.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -58525,11 +58627,14 @@
       </c>
       <c r="UF37" t="n">
         <v>6.2</v>
+      </c>
+      <c r="UG37" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -60183,11 +60288,14 @@
       </c>
       <c r="UF38" t="n">
         <v>6.6</v>
+      </c>
+      <c r="UG38" t="n">
+        <v>6.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -61841,11 +61949,14 @@
       </c>
       <c r="UF39" t="n">
         <v>3.9</v>
+      </c>
+      <c r="UG39" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -63499,11 +63610,14 @@
       </c>
       <c r="UF40" t="n">
         <v>3.2</v>
+      </c>
+      <c r="UG40" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -65157,11 +65271,14 @@
       </c>
       <c r="UF41" t="n">
         <v>4.8</v>
+      </c>
+      <c r="UG41" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -66815,11 +66932,14 @@
       </c>
       <c r="UF42" t="n">
         <v>2.5</v>
+      </c>
+      <c r="UG42" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -68473,11 +68593,14 @@
       </c>
       <c r="UF43" t="n">
         <v>4.2</v>
+      </c>
+      <c r="UG43" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -70131,11 +70254,14 @@
       </c>
       <c r="UF44" t="n">
         <v>5.7</v>
+      </c>
+      <c r="UG44" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -71789,11 +71915,14 @@
       </c>
       <c r="UF45" t="n">
         <v>5.1</v>
+      </c>
+      <c r="UG45" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -73447,11 +73576,14 @@
       </c>
       <c r="UF46" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UG46" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -75105,11 +75237,14 @@
       </c>
       <c r="UF47" t="n">
         <v>2.7</v>
+      </c>
+      <c r="UG47" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -76763,11 +76898,14 @@
       </c>
       <c r="UF48" t="n">
         <v>4</v>
+      </c>
+      <c r="UG48" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -78421,11 +78559,14 @@
       </c>
       <c r="UF49" t="n">
         <v>5.2</v>
+      </c>
+      <c r="UG49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -80079,11 +80220,14 @@
       </c>
       <c r="UF50" t="n">
         <v>2.1</v>
+      </c>
+      <c r="UG50" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -81737,11 +81881,14 @@
       </c>
       <c r="UF51" t="n">
         <v>2.6</v>
+      </c>
+      <c r="UG51" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -83395,11 +83542,14 @@
       </c>
       <c r="UF52" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UG52" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -85053,11 +85203,14 @@
       </c>
       <c r="UF53" t="n">
         <v>4.7</v>
+      </c>
+      <c r="UG53" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -86711,11 +86864,14 @@
       </c>
       <c r="UF54" t="n">
         <v>4</v>
+      </c>
+      <c r="UG54" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -88369,11 +88525,14 @@
       </c>
       <c r="UF55" t="n">
         <v>3</v>
+      </c>
+      <c r="UG55" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -90027,6 +90186,9 @@
       </c>
       <c r="UF56" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UG56" t="n">
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="608">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1679,6 +1679,9 @@
     <t xml:space="preserve">02/01/2022</t>
   </si>
   <si>
+    <t xml:space="preserve">03/01/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3830,10 +3833,13 @@
       <c r="UI4" t="s">
         <v>554</v>
       </c>
+      <c r="UJ4" t="s">
+        <v>555</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5496,11 +5502,14 @@
       </c>
       <c r="UI5" t="n">
         <v>3.8</v>
+      </c>
+      <c r="UJ5" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7163,11 +7172,14 @@
       </c>
       <c r="UI6" t="n">
         <v>3</v>
+      </c>
+      <c r="UJ6" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -8829,12 +8841,15 @@
         <v>5.6</v>
       </c>
       <c r="UI7" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
+      </c>
+      <c r="UJ7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10497,11 +10512,14 @@
       </c>
       <c r="UI8" t="n">
         <v>3.6</v>
+      </c>
+      <c r="UJ8" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12163,12 +12181,15 @@
         <v>3.2</v>
       </c>
       <c r="UI9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UJ9" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -13830,12 +13851,15 @@
         <v>5.7</v>
       </c>
       <c r="UI10" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
+      </c>
+      <c r="UJ10" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -15498,11 +15522,14 @@
       </c>
       <c r="UI11" t="n">
         <v>4</v>
+      </c>
+      <c r="UJ11" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -17165,11 +17192,14 @@
       </c>
       <c r="UI12" t="n">
         <v>4.9</v>
+      </c>
+      <c r="UJ12" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -18832,11 +18862,14 @@
       </c>
       <c r="UI13" t="n">
         <v>4.6</v>
+      </c>
+      <c r="UJ13" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -20499,11 +20532,14 @@
       </c>
       <c r="UI14" t="n">
         <v>6.1</v>
+      </c>
+      <c r="UJ14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -22166,11 +22202,14 @@
       </c>
       <c r="UI15" t="n">
         <v>3.3</v>
+      </c>
+      <c r="UJ15" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -23833,11 +23872,14 @@
       </c>
       <c r="UI16" t="n">
         <v>3.2</v>
+      </c>
+      <c r="UJ16" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -25499,12 +25541,15 @@
         <v>4.3</v>
       </c>
       <c r="UI17" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
+      </c>
+      <c r="UJ17" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -27167,11 +27212,14 @@
       </c>
       <c r="UI18" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UJ18" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -28834,11 +28882,14 @@
       </c>
       <c r="UI19" t="n">
         <v>4.8</v>
+      </c>
+      <c r="UJ19" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -30501,11 +30552,14 @@
       </c>
       <c r="UI20" t="n">
         <v>2.3</v>
+      </c>
+      <c r="UJ20" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -32168,11 +32222,14 @@
       </c>
       <c r="UI21" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UJ21" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -33834,12 +33891,15 @@
         <v>2.6</v>
       </c>
       <c r="UI22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="UJ22" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -35502,11 +35562,14 @@
       </c>
       <c r="UI23" t="n">
         <v>4.2</v>
+      </c>
+      <c r="UJ23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -37169,11 +37232,14 @@
       </c>
       <c r="UI24" t="n">
         <v>4.3</v>
+      </c>
+      <c r="UJ24" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -38836,11 +38902,14 @@
       </c>
       <c r="UI25" t="n">
         <v>4</v>
+      </c>
+      <c r="UJ25" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -40503,11 +40572,14 @@
       </c>
       <c r="UI26" t="n">
         <v>5</v>
+      </c>
+      <c r="UJ26" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -42170,11 +42242,14 @@
       </c>
       <c r="UI27" t="n">
         <v>4.7</v>
+      </c>
+      <c r="UJ27" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -43837,11 +43912,14 @@
       </c>
       <c r="UI28" t="n">
         <v>4.7</v>
+      </c>
+      <c r="UJ28" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -45504,11 +45582,14 @@
       </c>
       <c r="UI29" t="n">
         <v>2.7</v>
+      </c>
+      <c r="UJ29" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -47171,11 +47252,14 @@
       </c>
       <c r="UI30" t="n">
         <v>4.5</v>
+      </c>
+      <c r="UJ30" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -48838,11 +48922,14 @@
       </c>
       <c r="UI31" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UJ31" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -50505,11 +50592,14 @@
       </c>
       <c r="UI32" t="n">
         <v>2.6</v>
+      </c>
+      <c r="UJ32" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -52172,11 +52262,14 @@
       </c>
       <c r="UI33" t="n">
         <v>2.1</v>
+      </c>
+      <c r="UJ33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -53839,11 +53932,14 @@
       </c>
       <c r="UI34" t="n">
         <v>5.1</v>
+      </c>
+      <c r="UJ34" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -55506,11 +55602,14 @@
       </c>
       <c r="UI35" t="n">
         <v>2.7</v>
+      </c>
+      <c r="UJ35" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -57173,11 +57272,14 @@
       </c>
       <c r="UI36" t="n">
         <v>4.6</v>
+      </c>
+      <c r="UJ36" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -58840,11 +58942,14 @@
       </c>
       <c r="UI37" t="n">
         <v>5.6</v>
+      </c>
+      <c r="UJ37" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -60507,11 +60612,14 @@
       </c>
       <c r="UI38" t="n">
         <v>4.9</v>
+      </c>
+      <c r="UJ38" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -62174,11 +62282,14 @@
       </c>
       <c r="UI39" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UJ39" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -63840,12 +63951,15 @@
         <v>3.1</v>
       </c>
       <c r="UI40" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="UJ40" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -65508,11 +65622,14 @@
       </c>
       <c r="UI41" t="n">
         <v>4.2</v>
+      </c>
+      <c r="UJ41" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -67175,11 +67292,14 @@
       </c>
       <c r="UI42" t="n">
         <v>2.6</v>
+      </c>
+      <c r="UJ42" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -68842,11 +68962,14 @@
       </c>
       <c r="UI43" t="n">
         <v>4</v>
+      </c>
+      <c r="UJ43" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -70509,11 +70632,14 @@
       </c>
       <c r="UI44" t="n">
         <v>5.1</v>
+      </c>
+      <c r="UJ44" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -72176,11 +72302,14 @@
       </c>
       <c r="UI45" t="n">
         <v>3.9</v>
+      </c>
+      <c r="UJ45" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -73843,11 +73972,14 @@
       </c>
       <c r="UI46" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UJ46" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -75510,11 +75642,14 @@
       </c>
       <c r="UI47" t="n">
         <v>2.6</v>
+      </c>
+      <c r="UJ47" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -77177,11 +77312,14 @@
       </c>
       <c r="UI48" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UJ48" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -78844,11 +78982,14 @@
       </c>
       <c r="UI49" t="n">
         <v>4.7</v>
+      </c>
+      <c r="UJ49" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -80511,11 +80652,14 @@
       </c>
       <c r="UI50" t="n">
         <v>2.1</v>
+      </c>
+      <c r="UJ50" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -82178,11 +82322,14 @@
       </c>
       <c r="UI51" t="n">
         <v>2.9</v>
+      </c>
+      <c r="UJ51" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -83845,11 +83992,14 @@
       </c>
       <c r="UI52" t="n">
         <v>3.2</v>
+      </c>
+      <c r="UJ52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -85512,11 +85662,14 @@
       </c>
       <c r="UI53" t="n">
         <v>4.3</v>
+      </c>
+      <c r="UJ53" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -87179,11 +87332,14 @@
       </c>
       <c r="UI54" t="n">
         <v>3.9</v>
+      </c>
+      <c r="UJ54" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -88846,11 +89002,14 @@
       </c>
       <c r="UI55" t="n">
         <v>2.9</v>
+      </c>
+      <c r="UJ55" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -90512,7 +90671,10 @@
         <v>3.8</v>
       </c>
       <c r="UI56" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
+      </c>
+      <c r="UJ56" t="n">
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="610">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1685,6 +1685,9 @@
     <t xml:space="preserve">04/01/2022</t>
   </si>
   <si>
+    <t xml:space="preserve">05/01/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3842,10 +3845,13 @@
       <c r="UK4" t="s">
         <v>556</v>
       </c>
+      <c r="UL4" t="s">
+        <v>557</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5513,12 +5519,15 @@
         <v>3.6</v>
       </c>
       <c r="UK5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="UL5" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7187,11 +7196,14 @@
       </c>
       <c r="UK6" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UL6" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -8859,12 +8871,15 @@
         <v>4.9</v>
       </c>
       <c r="UK7" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
+      </c>
+      <c r="UL7" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10532,12 +10547,15 @@
         <v>3.3</v>
       </c>
       <c r="UK8" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="UL8" t="n">
         <v>3.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12205,12 +12223,15 @@
         <v>3.1</v>
       </c>
       <c r="UK9" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="UL9" t="n">
         <v>3.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -13879,11 +13900,14 @@
       </c>
       <c r="UK10" t="n">
         <v>4.6</v>
+      </c>
+      <c r="UL10" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -15552,11 +15576,14 @@
       </c>
       <c r="UK11" t="n">
         <v>3.6</v>
+      </c>
+      <c r="UL11" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -17225,11 +17252,14 @@
       </c>
       <c r="UK12" t="n">
         <v>4.4</v>
+      </c>
+      <c r="UL12" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -18897,12 +18927,15 @@
         <v>4.5</v>
       </c>
       <c r="UK13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="UL13" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -20571,11 +20604,14 @@
       </c>
       <c r="UK14" t="n">
         <v>5.8</v>
+      </c>
+      <c r="UL14" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -22243,12 +22279,15 @@
         <v>3.2</v>
       </c>
       <c r="UK15" t="n">
+        <v>3</v>
+      </c>
+      <c r="UL15" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -23917,11 +23956,14 @@
       </c>
       <c r="UK16" t="n">
         <v>3.1</v>
+      </c>
+      <c r="UL16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -25589,12 +25631,15 @@
         <v>4.1</v>
       </c>
       <c r="UK17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="UL17" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -27263,11 +27308,14 @@
       </c>
       <c r="UK18" t="n">
         <v>2.6</v>
+      </c>
+      <c r="UL18" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -28935,12 +28983,15 @@
         <v>4.7</v>
       </c>
       <c r="UK19" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="UL19" t="n">
         <v>4.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -30608,12 +30659,15 @@
         <v>2.2</v>
       </c>
       <c r="UK20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="UL20" t="n">
         <v>2.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -32282,11 +32336,14 @@
       </c>
       <c r="UK21" t="n">
         <v>3</v>
+      </c>
+      <c r="UL21" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -33955,11 +34012,14 @@
       </c>
       <c r="UK22" t="n">
         <v>2.4</v>
+      </c>
+      <c r="UL22" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -35628,11 +35688,14 @@
       </c>
       <c r="UK23" t="n">
         <v>3.9</v>
+      </c>
+      <c r="UL23" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -37301,11 +37364,14 @@
       </c>
       <c r="UK24" t="n">
         <v>4.1</v>
+      </c>
+      <c r="UL24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -38974,11 +39040,14 @@
       </c>
       <c r="UK25" t="n">
         <v>3.3</v>
+      </c>
+      <c r="UL25" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -40647,11 +40716,14 @@
       </c>
       <c r="UK26" t="n">
         <v>4.2</v>
+      </c>
+      <c r="UL26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -42320,11 +42392,14 @@
       </c>
       <c r="UK27" t="n">
         <v>4.1</v>
+      </c>
+      <c r="UL27" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -43992,12 +44067,15 @@
         <v>4.4</v>
       </c>
       <c r="UK28" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="UL28" t="n">
         <v>4.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -45666,11 +45744,14 @@
       </c>
       <c r="UK29" t="n">
         <v>2.2</v>
+      </c>
+      <c r="UL29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -47339,11 +47420,14 @@
       </c>
       <c r="UK30" t="n">
         <v>4.1</v>
+      </c>
+      <c r="UL30" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -49012,11 +49096,14 @@
       </c>
       <c r="UK31" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UL31" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -50685,11 +50772,14 @@
       </c>
       <c r="UK32" t="n">
         <v>2.3</v>
+      </c>
+      <c r="UL32" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -52357,12 +52447,15 @@
         <v>2</v>
       </c>
       <c r="UK33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="UL33" t="n">
         <v>1.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -54031,11 +54124,14 @@
       </c>
       <c r="UK34" t="n">
         <v>5</v>
+      </c>
+      <c r="UL34" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -55704,11 +55800,14 @@
       </c>
       <c r="UK35" t="n">
         <v>2.3</v>
+      </c>
+      <c r="UL35" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -57377,11 +57476,14 @@
       </c>
       <c r="UK36" t="n">
         <v>4.1</v>
+      </c>
+      <c r="UL36" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -59050,11 +59152,14 @@
       </c>
       <c r="UK37" t="n">
         <v>5.3</v>
+      </c>
+      <c r="UL37" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -60723,11 +60828,14 @@
       </c>
       <c r="UK38" t="n">
         <v>4.5</v>
+      </c>
+      <c r="UL38" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -62395,12 +62503,15 @@
         <v>3.5</v>
       </c>
       <c r="UK39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="UL39" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -64069,11 +64180,14 @@
       </c>
       <c r="UK40" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UL40" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -65742,11 +65856,14 @@
       </c>
       <c r="UK41" t="n">
         <v>4</v>
+      </c>
+      <c r="UL41" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -67415,11 +67532,14 @@
       </c>
       <c r="UK42" t="n">
         <v>2.7</v>
+      </c>
+      <c r="UL42" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -69088,11 +69208,14 @@
       </c>
       <c r="UK43" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UL43" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -70761,11 +70884,14 @@
       </c>
       <c r="UK44" t="n">
         <v>4.8</v>
+      </c>
+      <c r="UL44" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -72434,11 +72560,14 @@
       </c>
       <c r="UK45" t="n">
         <v>3.2</v>
+      </c>
+      <c r="UL45" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -74106,12 +74235,15 @@
         <v>3.4</v>
       </c>
       <c r="UK46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="UL46" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -75779,12 +75911,15 @@
         <v>2.5</v>
       </c>
       <c r="UK47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="UL47" t="n">
         <v>2.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -77453,11 +77588,14 @@
       </c>
       <c r="UK48" t="n">
         <v>3.2</v>
+      </c>
+      <c r="UL48" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -79126,11 +79264,14 @@
       </c>
       <c r="UK49" t="n">
         <v>4.3</v>
+      </c>
+      <c r="UL49" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -80799,11 +80940,14 @@
       </c>
       <c r="UK50" t="n">
         <v>1.9</v>
+      </c>
+      <c r="UL50" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -82472,11 +82616,14 @@
       </c>
       <c r="UK51" t="n">
         <v>2.5</v>
+      </c>
+      <c r="UL51" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -84144,12 +84291,15 @@
         <v>3</v>
       </c>
       <c r="UK52" t="n">
+        <v>3</v>
+      </c>
+      <c r="UL52" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -85818,11 +85968,14 @@
       </c>
       <c r="UK53" t="n">
         <v>4.1</v>
+      </c>
+      <c r="UL53" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -87491,11 +87644,14 @@
       </c>
       <c r="UK54" t="n">
         <v>3.6</v>
+      </c>
+      <c r="UL54" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -89164,11 +89320,14 @@
       </c>
       <c r="UK55" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UL55" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -90837,6 +90996,9 @@
       </c>
       <c r="UK56" t="n">
         <v>3.3</v>
+      </c>
+      <c r="UL56" t="n">
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="614">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1697,6 +1697,9 @@
     <t xml:space="preserve">08/01/2022</t>
   </si>
   <si>
+    <t xml:space="preserve">09/01/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3866,10 +3869,13 @@
       <c r="UO4" t="s">
         <v>560</v>
       </c>
+      <c r="UP4" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5550,11 +5556,14 @@
       </c>
       <c r="UO5" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UP5" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7234,12 +7243,15 @@
         <v>2.6</v>
       </c>
       <c r="UO6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="UP6" t="n">
         <v>2.6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -8920,11 +8932,14 @@
       </c>
       <c r="UO7" t="n">
         <v>4.6</v>
+      </c>
+      <c r="UP7" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10605,11 +10620,14 @@
       </c>
       <c r="UO8" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UP8" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12290,11 +12308,14 @@
       </c>
       <c r="UO9" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UP9" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -13975,11 +13996,14 @@
       </c>
       <c r="UO10" t="n">
         <v>4.1</v>
+      </c>
+      <c r="UP10" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -15659,12 +15683,15 @@
         <v>3.3</v>
       </c>
       <c r="UO11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="UP11" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -17345,11 +17372,14 @@
       </c>
       <c r="UO12" t="n">
         <v>4.1</v>
+      </c>
+      <c r="UP12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -19030,11 +19060,14 @@
       </c>
       <c r="UO13" t="n">
         <v>4.5</v>
+      </c>
+      <c r="UP13" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -20715,11 +20748,14 @@
       </c>
       <c r="UO14" t="n">
         <v>5.1</v>
+      </c>
+      <c r="UP14" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -22400,11 +22436,14 @@
       </c>
       <c r="UO15" t="n">
         <v>2.7</v>
+      </c>
+      <c r="UP15" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -24084,12 +24123,15 @@
         <v>2.8</v>
       </c>
       <c r="UO16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="UP16" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -25769,12 +25811,15 @@
         <v>4</v>
       </c>
       <c r="UO17" t="n">
-        <v>4.1</v>
+        <v>4</v>
+      </c>
+      <c r="UP17" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -27455,11 +27500,14 @@
       </c>
       <c r="UO18" t="n">
         <v>2.7</v>
+      </c>
+      <c r="UP18" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -29139,12 +29187,15 @@
         <v>4.4</v>
       </c>
       <c r="UO19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="UP19" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -30824,12 +30875,15 @@
         <v>2.6</v>
       </c>
       <c r="UO20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="UP20" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -32510,11 +32564,14 @@
       </c>
       <c r="UO21" t="n">
         <v>2.6</v>
+      </c>
+      <c r="UP21" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -34195,11 +34252,14 @@
       </c>
       <c r="UO22" t="n">
         <v>2.5</v>
+      </c>
+      <c r="UP22" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -35879,12 +35939,15 @@
         <v>3.7</v>
       </c>
       <c r="UO23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="UP23" t="n">
         <v>3.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -37565,11 +37628,14 @@
       </c>
       <c r="UO24" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UP24" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -39250,11 +39316,14 @@
       </c>
       <c r="UO25" t="n">
         <v>3.1</v>
+      </c>
+      <c r="UP25" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -40935,11 +41004,14 @@
       </c>
       <c r="UO26" t="n">
         <v>4.3</v>
+      </c>
+      <c r="UP26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -42620,11 +42692,14 @@
       </c>
       <c r="UO27" t="n">
         <v>3.6</v>
+      </c>
+      <c r="UP27" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -44304,12 +44379,15 @@
         <v>4.2</v>
       </c>
       <c r="UO28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="UP28" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -45990,11 +46068,14 @@
       </c>
       <c r="UO29" t="n">
         <v>1.9</v>
+      </c>
+      <c r="UP29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -47674,12 +47755,15 @@
         <v>3.6</v>
       </c>
       <c r="UO30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="UP30" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -49360,11 +49444,14 @@
       </c>
       <c r="UO31" t="n">
         <v>2.5</v>
+      </c>
+      <c r="UP31" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -51045,11 +51132,14 @@
       </c>
       <c r="UO32" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UP32" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -52730,11 +52820,14 @@
       </c>
       <c r="UO33" t="n">
         <v>2.1</v>
+      </c>
+      <c r="UP33" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -54414,12 +54507,15 @@
         <v>4.4</v>
       </c>
       <c r="UO34" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="UP34" t="n">
         <v>4.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -56100,11 +56196,14 @@
       </c>
       <c r="UO35" t="n">
         <v>2</v>
+      </c>
+      <c r="UP35" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -57785,11 +57884,14 @@
       </c>
       <c r="UO36" t="n">
         <v>4</v>
+      </c>
+      <c r="UP36" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -59470,11 +59572,14 @@
       </c>
       <c r="UO37" t="n">
         <v>4.4</v>
+      </c>
+      <c r="UP37" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -61155,11 +61260,14 @@
       </c>
       <c r="UO38" t="n">
         <v>4.7</v>
+      </c>
+      <c r="UP38" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -62840,11 +62948,14 @@
       </c>
       <c r="UO39" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UP39" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -64525,11 +64636,14 @@
       </c>
       <c r="UO40" t="n">
         <v>2.3</v>
+      </c>
+      <c r="UP40" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -66209,12 +66323,15 @@
         <v>3.9</v>
       </c>
       <c r="UO41" t="n">
+        <v>4</v>
+      </c>
+      <c r="UP41" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -67895,11 +68012,14 @@
       </c>
       <c r="UO42" t="n">
         <v>3.1</v>
+      </c>
+      <c r="UP42" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -69580,11 +69700,14 @@
       </c>
       <c r="UO43" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UP43" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -71265,11 +71388,14 @@
       </c>
       <c r="UO44" t="n">
         <v>4.2</v>
+      </c>
+      <c r="UP44" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -72950,11 +73076,14 @@
       </c>
       <c r="UO45" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UP45" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -74635,11 +74764,14 @@
       </c>
       <c r="UO46" t="n">
         <v>3.1</v>
+      </c>
+      <c r="UP46" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -76319,12 +76451,15 @@
         <v>2.3</v>
       </c>
       <c r="UO47" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="UP47" t="n">
         <v>2.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -78004,12 +78139,15 @@
         <v>3.3</v>
       </c>
       <c r="UO48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="UP48" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -79690,11 +79828,14 @@
       </c>
       <c r="UO49" t="n">
         <v>4.1</v>
+      </c>
+      <c r="UP49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -81375,11 +81516,14 @@
       </c>
       <c r="UO50" t="n">
         <v>2</v>
+      </c>
+      <c r="UP50" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -83059,12 +83203,15 @@
         <v>2.1</v>
       </c>
       <c r="UO51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="UP51" t="n">
         <v>2.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -84744,12 +84891,15 @@
         <v>2.7</v>
       </c>
       <c r="UO52" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="UP52" t="n">
         <v>2.6</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -86429,12 +86579,15 @@
         <v>3.7</v>
       </c>
       <c r="UO53" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="UP53" t="n">
         <v>3.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -88115,11 +88268,14 @@
       </c>
       <c r="UO54" t="n">
         <v>3.9</v>
+      </c>
+      <c r="UP54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -89800,11 +89956,14 @@
       </c>
       <c r="UO55" t="n">
         <v>3.1</v>
+      </c>
+      <c r="UP55" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -91485,6 +91644,9 @@
       </c>
       <c r="UO56" t="n">
         <v>3.1</v>
+      </c>
+      <c r="UP56" t="n">
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="614">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="615">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1700,6 +1700,9 @@
     <t xml:space="preserve">09/01/2022</t>
   </si>
   <si>
+    <t xml:space="preserve">10/01/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3872,10 +3875,13 @@
       <c r="UP4" t="s">
         <v>561</v>
       </c>
+      <c r="UQ4" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5559,11 +5565,14 @@
       </c>
       <c r="UP5" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UQ5" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7247,11 +7256,14 @@
       </c>
       <c r="UP6" t="n">
         <v>2.6</v>
+      </c>
+      <c r="UQ6" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -8935,11 +8947,14 @@
       </c>
       <c r="UP7" t="n">
         <v>4.4</v>
+      </c>
+      <c r="UQ7" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10623,11 +10638,14 @@
       </c>
       <c r="UP8" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UQ8" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12311,11 +12329,14 @@
       </c>
       <c r="UP9" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UQ9" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -13998,12 +14019,15 @@
         <v>4.1</v>
       </c>
       <c r="UP10" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
+      </c>
+      <c r="UQ10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -15687,11 +15711,14 @@
       </c>
       <c r="UP11" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UQ11" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -17375,11 +17402,14 @@
       </c>
       <c r="UP12" t="n">
         <v>4</v>
+      </c>
+      <c r="UQ12" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -19062,12 +19092,15 @@
         <v>4.5</v>
       </c>
       <c r="UP13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="UQ13" t="n">
         <v>4.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -20751,11 +20784,14 @@
       </c>
       <c r="UP14" t="n">
         <v>4.7</v>
+      </c>
+      <c r="UQ14" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -22439,11 +22475,14 @@
       </c>
       <c r="UP15" t="n">
         <v>2.5</v>
+      </c>
+      <c r="UQ15" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -24127,11 +24166,14 @@
       </c>
       <c r="UP16" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UQ16" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -25815,11 +25857,14 @@
       </c>
       <c r="UP17" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UQ17" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -27503,11 +27548,14 @@
       </c>
       <c r="UP18" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UQ18" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -29191,11 +29239,14 @@
       </c>
       <c r="UP19" t="n">
         <v>4.5</v>
+      </c>
+      <c r="UQ19" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -30879,11 +30930,14 @@
       </c>
       <c r="UP20" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UQ20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -32567,11 +32621,14 @@
       </c>
       <c r="UP21" t="n">
         <v>2.7</v>
+      </c>
+      <c r="UQ21" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -34255,11 +34312,14 @@
       </c>
       <c r="UP22" t="n">
         <v>2.6</v>
+      </c>
+      <c r="UQ22" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -35943,11 +36003,14 @@
       </c>
       <c r="UP23" t="n">
         <v>3.8</v>
+      </c>
+      <c r="UQ23" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -37631,11 +37694,14 @@
       </c>
       <c r="UP24" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UQ24" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -39319,11 +39385,14 @@
       </c>
       <c r="UP25" t="n">
         <v>3.3</v>
+      </c>
+      <c r="UQ25" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -41007,11 +41076,14 @@
       </c>
       <c r="UP26" t="n">
         <v>4</v>
+      </c>
+      <c r="UQ26" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -42695,11 +42767,14 @@
       </c>
       <c r="UP27" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UQ27" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -44383,11 +44458,14 @@
       </c>
       <c r="UP28" t="n">
         <v>4.1</v>
+      </c>
+      <c r="UQ28" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -46071,11 +46149,14 @@
       </c>
       <c r="UP29" t="n">
         <v>2</v>
+      </c>
+      <c r="UQ29" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -47759,11 +47840,14 @@
       </c>
       <c r="UP30" t="n">
         <v>3.6</v>
+      </c>
+      <c r="UQ30" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -49447,11 +49531,14 @@
       </c>
       <c r="UP31" t="n">
         <v>2.4</v>
+      </c>
+      <c r="UQ31" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -51135,11 +51222,14 @@
       </c>
       <c r="UP32" t="n">
         <v>2.9</v>
+      </c>
+      <c r="UQ32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -52823,11 +52913,14 @@
       </c>
       <c r="UP33" t="n">
         <v>2.2</v>
+      </c>
+      <c r="UQ33" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -54511,11 +54604,14 @@
       </c>
       <c r="UP34" t="n">
         <v>4.4</v>
+      </c>
+      <c r="UQ34" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -56199,11 +56295,14 @@
       </c>
       <c r="UP35" t="n">
         <v>2.2</v>
+      </c>
+      <c r="UQ35" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -57887,11 +57986,14 @@
       </c>
       <c r="UP36" t="n">
         <v>3.3</v>
+      </c>
+      <c r="UQ36" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -59575,11 +59677,14 @@
       </c>
       <c r="UP37" t="n">
         <v>4.2</v>
+      </c>
+      <c r="UQ37" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -61263,11 +61368,14 @@
       </c>
       <c r="UP38" t="n">
         <v>4.3</v>
+      </c>
+      <c r="UQ38" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -62951,11 +63059,14 @@
       </c>
       <c r="UP39" t="n">
         <v>3.6</v>
+      </c>
+      <c r="UQ39" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -64639,11 +64750,14 @@
       </c>
       <c r="UP40" t="n">
         <v>2.2</v>
+      </c>
+      <c r="UQ40" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -66327,11 +66441,14 @@
       </c>
       <c r="UP41" t="n">
         <v>4</v>
+      </c>
+      <c r="UQ41" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -68015,11 +68132,14 @@
       </c>
       <c r="UP42" t="n">
         <v>3.2</v>
+      </c>
+      <c r="UQ42" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -69703,11 +69823,14 @@
       </c>
       <c r="UP43" t="n">
         <v>3.8</v>
+      </c>
+      <c r="UQ43" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -71391,11 +71514,14 @@
       </c>
       <c r="UP44" t="n">
         <v>4.1</v>
+      </c>
+      <c r="UQ44" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -73079,11 +73205,14 @@
       </c>
       <c r="UP45" t="n">
         <v>3.1</v>
+      </c>
+      <c r="UQ45" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -74767,11 +74896,14 @@
       </c>
       <c r="UP46" t="n">
         <v>3.2</v>
+      </c>
+      <c r="UQ46" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -76455,11 +76587,14 @@
       </c>
       <c r="UP47" t="n">
         <v>2.3</v>
+      </c>
+      <c r="UQ47" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -78143,11 +78278,14 @@
       </c>
       <c r="UP48" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UQ48" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -79830,12 +79968,15 @@
         <v>4.1</v>
       </c>
       <c r="UP49" t="n">
+        <v>4</v>
+      </c>
+      <c r="UQ49" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -81518,12 +81659,15 @@
         <v>2</v>
       </c>
       <c r="UP50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="UQ50" t="n">
         <v>2.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -83207,11 +83351,14 @@
       </c>
       <c r="UP51" t="n">
         <v>2.1</v>
+      </c>
+      <c r="UQ51" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -84895,11 +85042,14 @@
       </c>
       <c r="UP52" t="n">
         <v>2.6</v>
+      </c>
+      <c r="UQ52" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -86583,11 +86733,14 @@
       </c>
       <c r="UP53" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UQ53" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -88270,12 +88423,15 @@
         <v>3.9</v>
       </c>
       <c r="UP54" t="n">
+        <v>4</v>
+      </c>
+      <c r="UQ54" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -89959,11 +90115,14 @@
       </c>
       <c r="UP55" t="n">
         <v>3.2</v>
+      </c>
+      <c r="UQ55" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -91647,6 +91806,9 @@
       </c>
       <c r="UP56" t="n">
         <v>3.3</v>
+      </c>
+      <c r="UQ56" t="n">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1703,6 +1703,9 @@
     <t xml:space="preserve">10/01/2022</t>
   </si>
   <si>
+    <t xml:space="preserve">11/01/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3878,10 +3881,13 @@
       <c r="UQ4" t="s">
         <v>562</v>
       </c>
+      <c r="UR4" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5567,12 +5573,15 @@
         <v>3.5</v>
       </c>
       <c r="UQ5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="UR5" t="n">
         <v>3.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7258,12 +7267,15 @@
         <v>2.6</v>
       </c>
       <c r="UQ6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="UR6" t="n">
         <v>2.7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -8949,12 +8961,15 @@
         <v>4.4</v>
       </c>
       <c r="UQ7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="UR7" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10641,11 +10656,14 @@
       </c>
       <c r="UQ8" t="n">
         <v>3.9</v>
+      </c>
+      <c r="UR8" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12332,11 +12350,14 @@
       </c>
       <c r="UQ9" t="n">
         <v>3.6</v>
+      </c>
+      <c r="UR9" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -14023,11 +14044,14 @@
       </c>
       <c r="UQ10" t="n">
         <v>4</v>
+      </c>
+      <c r="UR10" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -15714,11 +15738,14 @@
       </c>
       <c r="UQ11" t="n">
         <v>3.6</v>
+      </c>
+      <c r="UR11" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -17405,11 +17432,14 @@
       </c>
       <c r="UQ12" t="n">
         <v>4.3</v>
+      </c>
+      <c r="UR12" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -19096,11 +19126,14 @@
       </c>
       <c r="UQ13" t="n">
         <v>4.3</v>
+      </c>
+      <c r="UR13" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -20787,11 +20820,14 @@
       </c>
       <c r="UQ14" t="n">
         <v>4.8</v>
+      </c>
+      <c r="UR14" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -22478,11 +22514,14 @@
       </c>
       <c r="UQ15" t="n">
         <v>2.7</v>
+      </c>
+      <c r="UR15" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -24169,11 +24208,14 @@
       </c>
       <c r="UQ16" t="n">
         <v>2.9</v>
+      </c>
+      <c r="UR16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -25859,12 +25901,15 @@
         <v>3.5</v>
       </c>
       <c r="UQ17" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
+      </c>
+      <c r="UR17" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -27551,11 +27596,14 @@
       </c>
       <c r="UQ18" t="n">
         <v>2.9</v>
+      </c>
+      <c r="UR18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -29242,11 +29290,14 @@
       </c>
       <c r="UQ19" t="n">
         <v>4.6</v>
+      </c>
+      <c r="UR19" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -30932,12 +30983,15 @@
         <v>2.8</v>
       </c>
       <c r="UQ20" t="n">
+        <v>3</v>
+      </c>
+      <c r="UR20" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -32624,11 +32678,14 @@
       </c>
       <c r="UQ21" t="n">
         <v>2.9</v>
+      </c>
+      <c r="UR21" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -34314,12 +34371,15 @@
         <v>2.6</v>
       </c>
       <c r="UQ22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="UR22" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -36006,11 +36066,14 @@
       </c>
       <c r="UQ23" t="n">
         <v>3.9</v>
+      </c>
+      <c r="UR23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -37696,12 +37759,15 @@
         <v>3.4</v>
       </c>
       <c r="UQ24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="UR24" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -39388,11 +39454,14 @@
       </c>
       <c r="UQ25" t="n">
         <v>3.6</v>
+      </c>
+      <c r="UR25" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -41079,11 +41148,14 @@
       </c>
       <c r="UQ26" t="n">
         <v>4.5</v>
+      </c>
+      <c r="UR26" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -42770,11 +42842,14 @@
       </c>
       <c r="UQ27" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UR27" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -44461,11 +44536,14 @@
       </c>
       <c r="UQ28" t="n">
         <v>4.2</v>
+      </c>
+      <c r="UR28" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -46152,11 +46230,14 @@
       </c>
       <c r="UQ29" t="n">
         <v>2.1</v>
+      </c>
+      <c r="UR29" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -47843,11 +47924,14 @@
       </c>
       <c r="UQ30" t="n">
         <v>3.8</v>
+      </c>
+      <c r="UR30" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -49534,11 +49618,14 @@
       </c>
       <c r="UQ31" t="n">
         <v>2.6</v>
+      </c>
+      <c r="UR31" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -51225,11 +51312,14 @@
       </c>
       <c r="UQ32" t="n">
         <v>3</v>
+      </c>
+      <c r="UR32" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -52916,11 +53006,14 @@
       </c>
       <c r="UQ33" t="n">
         <v>2.4</v>
+      </c>
+      <c r="UR33" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -54607,11 +54700,14 @@
       </c>
       <c r="UQ34" t="n">
         <v>4.6</v>
+      </c>
+      <c r="UR34" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -56298,11 +56394,14 @@
       </c>
       <c r="UQ35" t="n">
         <v>2.4</v>
+      </c>
+      <c r="UR35" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -57988,12 +58087,15 @@
         <v>3.3</v>
       </c>
       <c r="UQ36" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
+      </c>
+      <c r="UR36" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -59680,11 +59782,14 @@
       </c>
       <c r="UQ37" t="n">
         <v>4.3</v>
+      </c>
+      <c r="UR37" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -61370,12 +61475,15 @@
         <v>4.3</v>
       </c>
       <c r="UQ38" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
+      </c>
+      <c r="UR38" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -63062,11 +63170,14 @@
       </c>
       <c r="UQ39" t="n">
         <v>3.8</v>
+      </c>
+      <c r="UR39" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -64752,12 +64863,15 @@
         <v>2.2</v>
       </c>
       <c r="UQ40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="UR40" t="n">
         <v>2.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -66443,12 +66557,15 @@
         <v>4</v>
       </c>
       <c r="UQ41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="UR41" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -68134,12 +68251,15 @@
         <v>3.2</v>
       </c>
       <c r="UQ42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="UR42" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -69826,11 +69946,14 @@
       </c>
       <c r="UQ43" t="n">
         <v>4.1</v>
+      </c>
+      <c r="UR43" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -71516,12 +71639,15 @@
         <v>4.1</v>
       </c>
       <c r="UQ44" t="n">
+        <v>4</v>
+      </c>
+      <c r="UR44" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -73208,11 +73334,14 @@
       </c>
       <c r="UQ45" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UR45" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -74898,12 +75027,15 @@
         <v>3.2</v>
       </c>
       <c r="UQ46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="UR46" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -76589,12 +76721,15 @@
         <v>2.3</v>
       </c>
       <c r="UQ47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="UR47" t="n">
         <v>2.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -78280,12 +78415,15 @@
         <v>3.4</v>
       </c>
       <c r="UQ48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="UR48" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -79971,12 +80109,15 @@
         <v>4</v>
       </c>
       <c r="UQ49" t="n">
+        <v>4</v>
+      </c>
+      <c r="UR49" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -81663,11 +81804,14 @@
       </c>
       <c r="UQ50" t="n">
         <v>2.1</v>
+      </c>
+      <c r="UR50" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -83354,11 +83498,14 @@
       </c>
       <c r="UQ51" t="n">
         <v>2.3</v>
+      </c>
+      <c r="UR51" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -85045,11 +85192,14 @@
       </c>
       <c r="UQ52" t="n">
         <v>2.7</v>
+      </c>
+      <c r="UR52" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -86736,11 +86886,14 @@
       </c>
       <c r="UQ53" t="n">
         <v>3.8</v>
+      </c>
+      <c r="UR53" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -88427,11 +88580,14 @@
       </c>
       <c r="UQ54" t="n">
         <v>4</v>
+      </c>
+      <c r="UR54" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -90117,12 +90273,15 @@
         <v>3.2</v>
       </c>
       <c r="UQ55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="UR55" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -91809,6 +91968,9 @@
       </c>
       <c r="UQ56" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UR56" t="n">
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="617">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1706,6 +1706,9 @@
     <t xml:space="preserve">11/01/2022</t>
   </si>
   <si>
+    <t xml:space="preserve">12/01/2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3884,10 +3887,13 @@
       <c r="UR4" t="s">
         <v>563</v>
       </c>
+      <c r="US4" t="s">
+        <v>564</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5450,7 +5456,7 @@
         <v>3.6</v>
       </c>
       <c r="TB5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="TC5" t="n">
         <v>3.6</v>
@@ -5510,16 +5516,16 @@
         <v>6.7</v>
       </c>
       <c r="TV5" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="TW5" t="n">
         <v>6.2</v>
       </c>
       <c r="TX5" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="TY5" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="TZ5" t="n">
         <v>5.8</v>
@@ -5534,10 +5540,10 @@
         <v>5.2</v>
       </c>
       <c r="UD5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="UE5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="UF5" t="n">
         <v>4.2</v>
@@ -5576,12 +5582,15 @@
         <v>3.7</v>
       </c>
       <c r="UR5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
+      </c>
+      <c r="US5" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7271,11 +7280,14 @@
       </c>
       <c r="UR6" t="n">
         <v>2.7</v>
+      </c>
+      <c r="US6" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -8965,11 +8977,14 @@
       </c>
       <c r="UR7" t="n">
         <v>4.5</v>
+      </c>
+      <c r="US7" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10659,11 +10674,14 @@
       </c>
       <c r="UR8" t="n">
         <v>4.1</v>
+      </c>
+      <c r="US8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12353,11 +12371,14 @@
       </c>
       <c r="UR9" t="n">
         <v>3.7</v>
+      </c>
+      <c r="US9" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -14046,12 +14067,15 @@
         <v>4</v>
       </c>
       <c r="UR10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="US10" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -15741,11 +15765,14 @@
       </c>
       <c r="UR11" t="n">
         <v>3.5</v>
+      </c>
+      <c r="US11" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -17434,12 +17461,15 @@
         <v>4.3</v>
       </c>
       <c r="UR12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="US12" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -19128,12 +19158,15 @@
         <v>4.3</v>
       </c>
       <c r="UR13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="US13" t="n">
         <v>4.4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -20823,11 +20856,14 @@
       </c>
       <c r="UR14" t="n">
         <v>4.6</v>
+      </c>
+      <c r="US14" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -22517,11 +22553,14 @@
       </c>
       <c r="UR15" t="n">
         <v>2.6</v>
+      </c>
+      <c r="US15" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -24210,12 +24249,15 @@
         <v>2.9</v>
       </c>
       <c r="UR16" t="n">
+        <v>3</v>
+      </c>
+      <c r="US16" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -25905,11 +25947,14 @@
       </c>
       <c r="UR17" t="n">
         <v>3.3</v>
+      </c>
+      <c r="US17" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -27599,11 +27644,14 @@
       </c>
       <c r="UR18" t="n">
         <v>3</v>
+      </c>
+      <c r="US18" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -29292,12 +29340,15 @@
         <v>4.6</v>
       </c>
       <c r="UR19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="US19" t="n">
         <v>4.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -30987,11 +31038,14 @@
       </c>
       <c r="UR20" t="n">
         <v>3</v>
+      </c>
+      <c r="US20" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -32680,12 +32734,15 @@
         <v>2.9</v>
       </c>
       <c r="UR21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="US21" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -34375,11 +34432,14 @@
       </c>
       <c r="UR22" t="n">
         <v>2.8</v>
+      </c>
+      <c r="US22" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -36068,12 +36128,15 @@
         <v>3.9</v>
       </c>
       <c r="UR23" t="n">
+        <v>4</v>
+      </c>
+      <c r="US23" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -37763,11 +37826,14 @@
       </c>
       <c r="UR24" t="n">
         <v>3.3</v>
+      </c>
+      <c r="US24" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -39457,11 +39523,14 @@
       </c>
       <c r="UR25" t="n">
         <v>3.7</v>
+      </c>
+      <c r="US25" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -41151,11 +41220,14 @@
       </c>
       <c r="UR26" t="n">
         <v>4.3</v>
+      </c>
+      <c r="US26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -42845,11 +42917,14 @@
       </c>
       <c r="UR27" t="n">
         <v>3.4</v>
+      </c>
+      <c r="US27" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -44538,12 +44613,15 @@
         <v>4.2</v>
       </c>
       <c r="UR28" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="US28" t="n">
         <v>4.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -46233,11 +46311,14 @@
       </c>
       <c r="UR29" t="n">
         <v>2.3</v>
+      </c>
+      <c r="US29" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -47927,11 +48008,14 @@
       </c>
       <c r="UR30" t="n">
         <v>3.9</v>
+      </c>
+      <c r="US30" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -49621,11 +49705,14 @@
       </c>
       <c r="UR31" t="n">
         <v>2.7</v>
+      </c>
+      <c r="US31" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -51315,11 +51402,14 @@
       </c>
       <c r="UR32" t="n">
         <v>2.9</v>
+      </c>
+      <c r="US32" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -53009,11 +53099,14 @@
       </c>
       <c r="UR33" t="n">
         <v>2.5</v>
+      </c>
+      <c r="US33" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -54703,11 +54796,14 @@
       </c>
       <c r="UR34" t="n">
         <v>4.9</v>
+      </c>
+      <c r="US34" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -56397,11 +56493,14 @@
       </c>
       <c r="UR35" t="n">
         <v>2.6</v>
+      </c>
+      <c r="US35" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -58090,12 +58189,15 @@
         <v>3.4</v>
       </c>
       <c r="UR36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="US36" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -59785,11 +59887,14 @@
       </c>
       <c r="UR37" t="n">
         <v>4.1</v>
+      </c>
+      <c r="US37" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -61478,12 +61583,15 @@
         <v>4.3</v>
       </c>
       <c r="UR38" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="US38" t="n">
         <v>4.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -63172,12 +63280,15 @@
         <v>3.8</v>
       </c>
       <c r="UR39" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="US39" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -64866,12 +64977,15 @@
         <v>2.3</v>
       </c>
       <c r="UR40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="US40" t="n">
         <v>2.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -66560,12 +66674,15 @@
         <v>4.2</v>
       </c>
       <c r="UR41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="US41" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -68254,12 +68371,15 @@
         <v>3.4</v>
       </c>
       <c r="UR42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="US42" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -69948,12 +70068,15 @@
         <v>4.1</v>
       </c>
       <c r="UR43" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
+      </c>
+      <c r="US43" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -71643,11 +71766,14 @@
       </c>
       <c r="UR44" t="n">
         <v>4</v>
+      </c>
+      <c r="US44" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -73337,11 +73463,14 @@
       </c>
       <c r="UR45" t="n">
         <v>3.6</v>
+      </c>
+      <c r="US45" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -75030,12 +75159,15 @@
         <v>3.3</v>
       </c>
       <c r="UR46" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="US46" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -76725,11 +76857,14 @@
       </c>
       <c r="UR47" t="n">
         <v>2.4</v>
+      </c>
+      <c r="US47" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -78418,12 +78553,15 @@
         <v>3.5</v>
       </c>
       <c r="UR48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="US48" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -80113,11 +80251,14 @@
       </c>
       <c r="UR49" t="n">
         <v>4</v>
+      </c>
+      <c r="US49" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -81806,12 +81947,15 @@
         <v>2.1</v>
       </c>
       <c r="UR50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="US50" t="n">
         <v>2.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -83501,11 +83645,14 @@
       </c>
       <c r="UR51" t="n">
         <v>2.5</v>
+      </c>
+      <c r="US51" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -85195,11 +85342,14 @@
       </c>
       <c r="UR52" t="n">
         <v>2.8</v>
+      </c>
+      <c r="US52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -86889,11 +87039,14 @@
       </c>
       <c r="UR53" t="n">
         <v>4</v>
+      </c>
+      <c r="US53" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -88582,12 +88735,15 @@
         <v>4</v>
       </c>
       <c r="UR54" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="US54" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -90277,11 +90433,14 @@
       </c>
       <c r="UR55" t="n">
         <v>3.3</v>
+      </c>
+      <c r="US55" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -91971,6 +92130,9 @@
       </c>
       <c r="UR56" t="n">
         <v>3.6</v>
+      </c>
+      <c r="US56" t="n">
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="621">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1715,6 +1715,12 @@
     <t xml:space="preserve">02/01/2023</t>
   </si>
   <si>
+    <t xml:space="preserve">03/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04/01/2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3902,10 +3908,16 @@
       <c r="UU4" t="s">
         <v>566</v>
       </c>
+      <c r="UV4" t="s">
+        <v>567</v>
+      </c>
+      <c r="UW4" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5604,11 +5616,17 @@
       </c>
       <c r="UU5" t="n">
         <v>3.6</v>
+      </c>
+      <c r="UV5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="UW5" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7307,11 +7325,17 @@
       </c>
       <c r="UU6" t="n">
         <v>2.5</v>
+      </c>
+      <c r="UV6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="UW6" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -9010,11 +9034,17 @@
       </c>
       <c r="UU7" t="n">
         <v>3.8</v>
+      </c>
+      <c r="UV7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="UW7" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10713,11 +10743,17 @@
       </c>
       <c r="UU8" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UV8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="UW8" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12416,11 +12452,17 @@
       </c>
       <c r="UU9" t="n">
         <v>3.2</v>
+      </c>
+      <c r="UV9" t="n">
+        <v>3</v>
+      </c>
+      <c r="UW9" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -14118,12 +14160,18 @@
         <v>4.2</v>
       </c>
       <c r="UU10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
+      </c>
+      <c r="UV10" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="UW10" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -15822,11 +15870,17 @@
       </c>
       <c r="UU11" t="n">
         <v>2.9</v>
+      </c>
+      <c r="UV11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="UW11" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -17525,11 +17579,17 @@
       </c>
       <c r="UU12" t="n">
         <v>4</v>
+      </c>
+      <c r="UV12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="UW12" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -19228,11 +19288,17 @@
       </c>
       <c r="UU13" t="n">
         <v>4.6</v>
+      </c>
+      <c r="UV13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="UW13" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -20931,11 +20997,17 @@
       </c>
       <c r="UU14" t="n">
         <v>4.7</v>
+      </c>
+      <c r="UV14" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="UW14" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -22633,12 +22705,18 @@
         <v>2.6</v>
       </c>
       <c r="UU15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="UV15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="UW15" t="n">
         <v>2.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -24336,12 +24414,18 @@
         <v>3.1</v>
       </c>
       <c r="UU16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UV16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UW16" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -26040,11 +26124,17 @@
       </c>
       <c r="UU17" t="n">
         <v>3.6</v>
+      </c>
+      <c r="UV17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="UW17" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -27742,12 +27832,18 @@
         <v>2.7</v>
       </c>
       <c r="UU18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="UV18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="UW18" t="n">
         <v>2.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -29446,11 +29542,17 @@
       </c>
       <c r="UU19" t="n">
         <v>4.5</v>
+      </c>
+      <c r="UV19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="UW19" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -31149,11 +31251,17 @@
       </c>
       <c r="UU20" t="n">
         <v>3.1</v>
+      </c>
+      <c r="UV20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UW20" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -32852,11 +32960,17 @@
       </c>
       <c r="UU21" t="n">
         <v>2.9</v>
+      </c>
+      <c r="UV21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="UW21" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -34554,12 +34668,18 @@
         <v>2.9</v>
       </c>
       <c r="UU22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="UV22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="UW22" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -36258,11 +36378,17 @@
       </c>
       <c r="UU23" t="n">
         <v>3.9</v>
+      </c>
+      <c r="UV23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="UW23" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -37960,12 +38086,18 @@
         <v>3.5</v>
       </c>
       <c r="UU24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="UV24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="UW24" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -39664,11 +39796,17 @@
       </c>
       <c r="UU25" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UV25" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="UW25" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -41367,11 +41505,17 @@
       </c>
       <c r="UU26" t="n">
         <v>2.9</v>
+      </c>
+      <c r="UV26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="UW26" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -43070,11 +43214,17 @@
       </c>
       <c r="UU27" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UV27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="UW27" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -44773,11 +44923,17 @@
       </c>
       <c r="UU28" t="n">
         <v>4.3</v>
+      </c>
+      <c r="UV28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="UW28" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -46476,11 +46632,17 @@
       </c>
       <c r="UU29" t="n">
         <v>3</v>
+      </c>
+      <c r="UV29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="UW29" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -48179,11 +48341,17 @@
       </c>
       <c r="UU30" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UV30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="UW30" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -49882,11 +50050,17 @@
       </c>
       <c r="UU31" t="n">
         <v>2.6</v>
+      </c>
+      <c r="UV31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="UW31" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -51585,11 +51759,17 @@
       </c>
       <c r="UU32" t="n">
         <v>2.4</v>
+      </c>
+      <c r="UV32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="UW32" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -53288,11 +53468,17 @@
       </c>
       <c r="UU33" t="n">
         <v>2.3</v>
+      </c>
+      <c r="UV33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="UW33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -54991,11 +55177,17 @@
       </c>
       <c r="UU34" t="n">
         <v>5.5</v>
+      </c>
+      <c r="UV34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="UW34" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -56694,11 +56886,17 @@
       </c>
       <c r="UU35" t="n">
         <v>2.7</v>
+      </c>
+      <c r="UV35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="UW35" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -58396,12 +58594,18 @@
         <v>3.4</v>
       </c>
       <c r="UU36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="UV36" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="UW36" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -60100,11 +60304,17 @@
       </c>
       <c r="UU37" t="n">
         <v>3.6</v>
+      </c>
+      <c r="UV37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="UW37" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -61803,11 +62013,17 @@
       </c>
       <c r="UU38" t="n">
         <v>4.2</v>
+      </c>
+      <c r="UV38" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="UW38" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -63506,11 +63722,17 @@
       </c>
       <c r="UU39" t="n">
         <v>3.6</v>
+      </c>
+      <c r="UV39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="UW39" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -65208,12 +65430,18 @@
         <v>2.1</v>
       </c>
       <c r="UU40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="UV40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="UW40" t="n">
         <v>2.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -66912,11 +67140,17 @@
       </c>
       <c r="UU41" t="n">
         <v>3.9</v>
+      </c>
+      <c r="UV41" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="UW41" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -68615,11 +68849,17 @@
       </c>
       <c r="UU42" t="n">
         <v>3</v>
+      </c>
+      <c r="UV42" t="n">
+        <v>3</v>
+      </c>
+      <c r="UW42" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -70318,11 +70558,17 @@
       </c>
       <c r="UU43" t="n">
         <v>4.7</v>
+      </c>
+      <c r="UV43" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="UW43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -72021,11 +72267,17 @@
       </c>
       <c r="UU44" t="n">
         <v>4.4</v>
+      </c>
+      <c r="UV44" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="UW44" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -73724,11 +73976,17 @@
       </c>
       <c r="UU45" t="n">
         <v>3.1</v>
+      </c>
+      <c r="UV45" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UW45" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -75427,11 +75685,17 @@
       </c>
       <c r="UU46" t="n">
         <v>3.2</v>
+      </c>
+      <c r="UV46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="UW46" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -77130,11 +77394,17 @@
       </c>
       <c r="UU47" t="n">
         <v>2.1</v>
+      </c>
+      <c r="UV47" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="UW47" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -78833,11 +79103,17 @@
       </c>
       <c r="UU48" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UV48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="UW48" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -80535,12 +80811,18 @@
         <v>3.9</v>
       </c>
       <c r="UU49" t="n">
+        <v>4</v>
+      </c>
+      <c r="UV49" t="n">
+        <v>4</v>
+      </c>
+      <c r="UW49" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -82239,11 +82521,17 @@
       </c>
       <c r="UU50" t="n">
         <v>2.4</v>
+      </c>
+      <c r="UV50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="UW50" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -83942,11 +84230,17 @@
       </c>
       <c r="UU51" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UV51" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="UW51" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -85645,11 +85939,17 @@
       </c>
       <c r="UU52" t="n">
         <v>3.2</v>
+      </c>
+      <c r="UV52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="UW52" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -87348,11 +87648,17 @@
       </c>
       <c r="UU53" t="n">
         <v>4.6</v>
+      </c>
+      <c r="UV53" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="UW53" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -89051,11 +89357,17 @@
       </c>
       <c r="UU54" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UV54" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="UW54" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -90754,11 +91066,17 @@
       </c>
       <c r="UU55" t="n">
         <v>2.7</v>
+      </c>
+      <c r="UV55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="UW55" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -92457,6 +92775,12 @@
       </c>
       <c r="UU56" t="n">
         <v>3.8</v>
+      </c>
+      <c r="UV56" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="UW56" t="n">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="621">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1721,9 +1721,6 @@
     <t xml:space="preserve">04/01/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">05/01/2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3917,13 +3914,10 @@
       <c r="UW4" t="s">
         <v>568</v>
       </c>
-      <c r="UX4" t="s">
-        <v>569</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5628,14 +5622,11 @@
       </c>
       <c r="UW5" t="n">
         <v>3.4</v>
-      </c>
-      <c r="UX5" t="n">
-        <v>3.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7339,15 +7330,12 @@
         <v>2.3</v>
       </c>
       <c r="UW6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="UX6" t="n">
         <v>2.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -9052,14 +9040,11 @@
       </c>
       <c r="UW7" t="n">
         <v>3.7</v>
-      </c>
-      <c r="UX7" t="n">
-        <v>3.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10763,15 +10748,12 @@
         <v>3.5</v>
       </c>
       <c r="UW8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="UX8" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12476,14 +12458,11 @@
       </c>
       <c r="UW9" t="n">
         <v>2.8</v>
-      </c>
-      <c r="UX9" t="n">
-        <v>2.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -14187,15 +14166,12 @@
         <v>4.4</v>
       </c>
       <c r="UW10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="UX10" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -15899,15 +15875,12 @@
         <v>2.8</v>
       </c>
       <c r="UW11" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="UX11" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -17612,14 +17585,11 @@
       </c>
       <c r="UW12" t="n">
         <v>3.8</v>
-      </c>
-      <c r="UX12" t="n">
-        <v>3.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -19324,14 +19294,11 @@
       </c>
       <c r="UW13" t="n">
         <v>4.3</v>
-      </c>
-      <c r="UX13" t="n">
-        <v>4.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -21036,14 +21003,11 @@
       </c>
       <c r="UW14" t="n">
         <v>5</v>
-      </c>
-      <c r="UX14" t="n">
-        <v>5.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -22747,15 +22711,12 @@
         <v>2.6</v>
       </c>
       <c r="UW15" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="UX15" t="n">
         <v>2.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -24460,14 +24421,11 @@
       </c>
       <c r="UW16" t="n">
         <v>3.1</v>
-      </c>
-      <c r="UX16" t="n">
-        <v>3.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -26172,14 +26130,11 @@
       </c>
       <c r="UW17" t="n">
         <v>3.3</v>
-      </c>
-      <c r="UX17" t="n">
-        <v>3.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -27883,15 +27838,12 @@
         <v>2.6</v>
       </c>
       <c r="UW18" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="UX18" t="n">
         <v>2.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -29596,14 +29548,11 @@
       </c>
       <c r="UW19" t="n">
         <v>4.2</v>
-      </c>
-      <c r="UX19" t="n">
-        <v>4.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -31308,14 +31257,11 @@
       </c>
       <c r="UW20" t="n">
         <v>3</v>
-      </c>
-      <c r="UX20" t="n">
-        <v>3.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -33019,15 +32965,12 @@
         <v>2.8</v>
       </c>
       <c r="UW21" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="UX21" t="n">
         <v>2.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -34731,15 +34674,12 @@
         <v>2.9</v>
       </c>
       <c r="UW22" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="UX22" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -36444,14 +36384,11 @@
       </c>
       <c r="UW23" t="n">
         <v>3.7</v>
-      </c>
-      <c r="UX23" t="n">
-        <v>3.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -38155,15 +38092,12 @@
         <v>3.6</v>
       </c>
       <c r="UW24" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="UX24" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -39867,15 +39801,12 @@
         <v>2.6</v>
       </c>
       <c r="UW25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="UX25" t="n">
         <v>2.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -41580,14 +41511,11 @@
       </c>
       <c r="UW26" t="n">
         <v>2.5</v>
-      </c>
-      <c r="UX26" t="n">
-        <v>2.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -43291,15 +43219,12 @@
         <v>3.5</v>
       </c>
       <c r="UW27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="UX27" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -45004,14 +44929,11 @@
       </c>
       <c r="UW28" t="n">
         <v>3.8</v>
-      </c>
-      <c r="UX28" t="n">
-        <v>3.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -46716,14 +46638,11 @@
       </c>
       <c r="UW29" t="n">
         <v>2.8</v>
-      </c>
-      <c r="UX29" t="n">
-        <v>2.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -48428,14 +48347,11 @@
       </c>
       <c r="UW30" t="n">
         <v>3.4</v>
-      </c>
-      <c r="UX30" t="n">
-        <v>3.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -50139,15 +50055,12 @@
         <v>2.5</v>
       </c>
       <c r="UW31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="UX31" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -51851,15 +51764,12 @@
         <v>2.3</v>
       </c>
       <c r="UW32" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="UX32" t="n">
         <v>2.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -53564,14 +53474,11 @@
       </c>
       <c r="UW33" t="n">
         <v>2</v>
-      </c>
-      <c r="UX33" t="n">
-        <v>1.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -55275,15 +55182,12 @@
         <v>5.5</v>
       </c>
       <c r="UW34" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="UX34" t="n">
         <v>5.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -56988,14 +56892,11 @@
       </c>
       <c r="UW35" t="n">
         <v>2.1</v>
-      </c>
-      <c r="UX35" t="n">
-        <v>1.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -58700,14 +58601,11 @@
       </c>
       <c r="UW36" t="n">
         <v>3.5</v>
-      </c>
-      <c r="UX36" t="n">
-        <v>3.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -60411,15 +60309,12 @@
         <v>3.5</v>
       </c>
       <c r="UW37" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="UX37" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -62124,14 +62019,11 @@
       </c>
       <c r="UW38" t="n">
         <v>4</v>
-      </c>
-      <c r="UX38" t="n">
-        <v>3.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -63835,15 +63727,12 @@
         <v>3.5</v>
       </c>
       <c r="UW39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="UX39" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -65547,15 +65436,12 @@
         <v>2.1</v>
       </c>
       <c r="UW40" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="UX40" t="n">
         <v>2.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -67260,14 +67146,11 @@
       </c>
       <c r="UW41" t="n">
         <v>3.7</v>
-      </c>
-      <c r="UX41" t="n">
-        <v>3.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -68972,14 +68855,11 @@
       </c>
       <c r="UW42" t="n">
         <v>2.9</v>
-      </c>
-      <c r="UX42" t="n">
-        <v>2.8</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -70684,14 +70564,11 @@
       </c>
       <c r="UW43" t="n">
         <v>4</v>
-      </c>
-      <c r="UX43" t="n">
-        <v>3.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -72396,14 +72273,11 @@
       </c>
       <c r="UW44" t="n">
         <v>4.1</v>
-      </c>
-      <c r="UX44" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -74107,15 +73981,12 @@
         <v>3.1</v>
       </c>
       <c r="UW45" t="n">
-        <v>3</v>
-      </c>
-      <c r="UX45" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -75819,15 +75690,12 @@
         <v>3.2</v>
       </c>
       <c r="UW46" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="UX46" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -77531,15 +77399,12 @@
         <v>1.9</v>
       </c>
       <c r="UW47" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="UX47" t="n">
         <v>1.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -79243,15 +79108,12 @@
         <v>3.4</v>
       </c>
       <c r="UW48" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="UX48" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -80956,14 +80818,11 @@
       </c>
       <c r="UW49" t="n">
         <v>4</v>
-      </c>
-      <c r="UX49" t="n">
-        <v>4.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -82667,15 +82526,12 @@
         <v>2.4</v>
       </c>
       <c r="UW50" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="UX50" t="n">
         <v>2.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -84380,14 +84236,11 @@
       </c>
       <c r="UW51" t="n">
         <v>2.4</v>
-      </c>
-      <c r="UX51" t="n">
-        <v>2.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -86092,14 +85945,11 @@
       </c>
       <c r="UW52" t="n">
         <v>3.1</v>
-      </c>
-      <c r="UX52" t="n">
-        <v>2.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -87804,14 +87654,11 @@
       </c>
       <c r="UW53" t="n">
         <v>4.3</v>
-      </c>
-      <c r="UX53" t="n">
-        <v>4.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -89515,15 +89362,12 @@
         <v>3.4</v>
       </c>
       <c r="UW54" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="UX54" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -91227,15 +91071,12 @@
         <v>2.5</v>
       </c>
       <c r="UW55" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="UX55" t="n">
         <v>2.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -92940,9 +92781,6 @@
       </c>
       <c r="UW56" t="n">
         <v>3.5</v>
-      </c>
-      <c r="UX56" t="n">
-        <v>3.3</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="623">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1721,6 +1721,12 @@
     <t xml:space="preserve">04/01/2023</t>
   </si>
   <si>
+    <t xml:space="preserve">05/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/01/2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3914,10 +3920,16 @@
       <c r="UW4" t="s">
         <v>568</v>
       </c>
+      <c r="UX4" t="s">
+        <v>569</v>
+      </c>
+      <c r="UY4" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5622,11 +5634,17 @@
       </c>
       <c r="UW5" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UX5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="UY5" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7330,12 +7348,18 @@
         <v>2.3</v>
       </c>
       <c r="UW6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="UX6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="UY6" t="n">
         <v>2.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -9039,12 +9063,18 @@
         <v>3.7</v>
       </c>
       <c r="UW7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="UX7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="UY7" t="n">
         <v>3.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10749,11 +10779,17 @@
       </c>
       <c r="UW8" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UX8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="UY8" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12458,11 +12494,17 @@
       </c>
       <c r="UW9" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UX9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="UY9" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -14167,11 +14209,17 @@
       </c>
       <c r="UW10" t="n">
         <v>4.5</v>
+      </c>
+      <c r="UX10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="UY10" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -15875,12 +15923,18 @@
         <v>2.8</v>
       </c>
       <c r="UW11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="UX11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="UY11" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -17585,11 +17639,17 @@
       </c>
       <c r="UW12" t="n">
         <v>3.8</v>
+      </c>
+      <c r="UX12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="UY12" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -19294,11 +19354,17 @@
       </c>
       <c r="UW13" t="n">
         <v>4.3</v>
+      </c>
+      <c r="UX13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="UY13" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -21003,11 +21069,17 @@
       </c>
       <c r="UW14" t="n">
         <v>5</v>
+      </c>
+      <c r="UX14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="UY14" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -22711,12 +22783,18 @@
         <v>2.6</v>
       </c>
       <c r="UW15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="UX15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="UY15" t="n">
         <v>2.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -24421,11 +24499,17 @@
       </c>
       <c r="UW16" t="n">
         <v>3.1</v>
+      </c>
+      <c r="UX16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="UY16" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -26130,11 +26214,17 @@
       </c>
       <c r="UW17" t="n">
         <v>3.3</v>
+      </c>
+      <c r="UX17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UY17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -27839,11 +27929,17 @@
       </c>
       <c r="UW18" t="n">
         <v>2.6</v>
+      </c>
+      <c r="UX18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="UY18" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -29548,11 +29644,17 @@
       </c>
       <c r="UW19" t="n">
         <v>4.2</v>
+      </c>
+      <c r="UX19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="UY19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -31257,11 +31359,17 @@
       </c>
       <c r="UW20" t="n">
         <v>3</v>
+      </c>
+      <c r="UX20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UY20" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -32965,12 +33073,18 @@
         <v>2.8</v>
       </c>
       <c r="UW21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="UX21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="UY21" t="n">
         <v>2.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -34675,11 +34789,17 @@
       </c>
       <c r="UW22" t="n">
         <v>2.9</v>
+      </c>
+      <c r="UX22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="UY22" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -36384,11 +36504,17 @@
       </c>
       <c r="UW23" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UX23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="UY23" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -38092,12 +38218,18 @@
         <v>3.6</v>
       </c>
       <c r="UW24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="UX24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="UY24" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -39801,12 +39933,18 @@
         <v>2.6</v>
       </c>
       <c r="UW25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="UX25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="UY25" t="n">
         <v>2.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -41511,11 +41649,17 @@
       </c>
       <c r="UW26" t="n">
         <v>2.5</v>
+      </c>
+      <c r="UX26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="UY26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -43219,12 +43363,18 @@
         <v>3.5</v>
       </c>
       <c r="UW27" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
+      </c>
+      <c r="UX27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="UY27" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -44929,11 +45079,17 @@
       </c>
       <c r="UW28" t="n">
         <v>3.8</v>
+      </c>
+      <c r="UX28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="UY28" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -46638,11 +46794,17 @@
       </c>
       <c r="UW29" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UX29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="UY29" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -48347,11 +48509,17 @@
       </c>
       <c r="UW30" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UX30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="UY30" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -50056,11 +50224,17 @@
       </c>
       <c r="UW31" t="n">
         <v>2.5</v>
+      </c>
+      <c r="UX31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="UY31" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -51765,11 +51939,17 @@
       </c>
       <c r="UW32" t="n">
         <v>2.3</v>
+      </c>
+      <c r="UX32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="UY32" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -53474,11 +53654,17 @@
       </c>
       <c r="UW33" t="n">
         <v>2</v>
+      </c>
+      <c r="UX33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="UY33" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -55182,12 +55368,18 @@
         <v>5.5</v>
       </c>
       <c r="UW34" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="UX34" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="UY34" t="n">
         <v>5.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -56892,11 +57084,17 @@
       </c>
       <c r="UW35" t="n">
         <v>2.1</v>
+      </c>
+      <c r="UX35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="UY35" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -58601,11 +58799,17 @@
       </c>
       <c r="UW36" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UX36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="UY36" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -60309,12 +60513,18 @@
         <v>3.5</v>
       </c>
       <c r="UW37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="UX37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="UY37" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -62019,11 +62229,17 @@
       </c>
       <c r="UW38" t="n">
         <v>4</v>
+      </c>
+      <c r="UX38" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="UY38" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -63728,11 +63944,17 @@
       </c>
       <c r="UW39" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UX39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="UY39" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -65437,11 +65659,17 @@
       </c>
       <c r="UW40" t="n">
         <v>2.1</v>
+      </c>
+      <c r="UX40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="UY40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -67146,11 +67374,17 @@
       </c>
       <c r="UW41" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UX41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="UY41" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -68855,11 +69089,17 @@
       </c>
       <c r="UW42" t="n">
         <v>2.9</v>
+      </c>
+      <c r="UX42" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="UY42" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -70564,11 +70804,17 @@
       </c>
       <c r="UW43" t="n">
         <v>4</v>
+      </c>
+      <c r="UX43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="UY43" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -72273,11 +72519,17 @@
       </c>
       <c r="UW44" t="n">
         <v>4.1</v>
+      </c>
+      <c r="UX44" t="n">
+        <v>4</v>
+      </c>
+      <c r="UY44" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -73982,11 +74234,17 @@
       </c>
       <c r="UW45" t="n">
         <v>3</v>
+      </c>
+      <c r="UX45" t="n">
+        <v>3</v>
+      </c>
+      <c r="UY45" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -75690,12 +75948,18 @@
         <v>3.2</v>
       </c>
       <c r="UW46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UX46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UY46" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -77400,11 +77664,17 @@
       </c>
       <c r="UW47" t="n">
         <v>1.9</v>
+      </c>
+      <c r="UX47" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="UY47" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -79109,11 +79379,17 @@
       </c>
       <c r="UW48" t="n">
         <v>3.3</v>
+      </c>
+      <c r="UX48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="UY48" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -80818,11 +81094,17 @@
       </c>
       <c r="UW49" t="n">
         <v>4</v>
+      </c>
+      <c r="UX49" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="UY49" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -82527,11 +82809,17 @@
       </c>
       <c r="UW50" t="n">
         <v>2.3</v>
+      </c>
+      <c r="UX50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="UY50" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -84236,11 +84524,17 @@
       </c>
       <c r="UW51" t="n">
         <v>2.4</v>
+      </c>
+      <c r="UX51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="UY51" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -85945,11 +86239,17 @@
       </c>
       <c r="UW52" t="n">
         <v>3.1</v>
+      </c>
+      <c r="UX52" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="UY52" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -87654,11 +87954,17 @@
       </c>
       <c r="UW53" t="n">
         <v>4.3</v>
+      </c>
+      <c r="UX53" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="UY53" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -89362,12 +89668,18 @@
         <v>3.4</v>
       </c>
       <c r="UW54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="UX54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="UY54" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -91072,11 +91384,17 @@
       </c>
       <c r="UW55" t="n">
         <v>2.4</v>
+      </c>
+      <c r="UX55" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="UY55" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -92781,6 +93099,12 @@
       </c>
       <c r="UW56" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UX56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="UY56" t="n">
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="624">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1721,6 +1721,15 @@
     <t xml:space="preserve">04/01/2023</t>
   </si>
   <si>
+    <t xml:space="preserve">05/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06/01/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07/01/2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3914,10 +3923,19 @@
       <c r="UW4" t="s">
         <v>568</v>
       </c>
+      <c r="UX4" t="s">
+        <v>569</v>
+      </c>
+      <c r="UY4" t="s">
+        <v>570</v>
+      </c>
+      <c r="UZ4" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5622,11 +5640,20 @@
       </c>
       <c r="UW5" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UX5" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="UY5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="UZ5" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7331,11 +7358,20 @@
       </c>
       <c r="UW6" t="n">
         <v>2.2</v>
+      </c>
+      <c r="UX6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="UY6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="UZ6" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -9040,11 +9076,20 @@
       </c>
       <c r="UW7" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UX7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="UY7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="UZ7" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10749,11 +10794,20 @@
       </c>
       <c r="UW8" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UX8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="UY8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="UZ8" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12458,11 +12512,20 @@
       </c>
       <c r="UW9" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UX9" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="UY9" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="UZ9" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -14167,11 +14230,20 @@
       </c>
       <c r="UW10" t="n">
         <v>4.5</v>
+      </c>
+      <c r="UX10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="UY10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="UZ10" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -15876,11 +15948,20 @@
       </c>
       <c r="UW11" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UX11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="UY11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="UZ11" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -17585,11 +17666,20 @@
       </c>
       <c r="UW12" t="n">
         <v>3.8</v>
+      </c>
+      <c r="UX12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="UY12" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="UZ12" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -19294,11 +19384,20 @@
       </c>
       <c r="UW13" t="n">
         <v>4.3</v>
+      </c>
+      <c r="UX13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="UY13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="UZ13" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -21002,12 +21101,21 @@
         <v>4.8</v>
       </c>
       <c r="UW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="UX14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="UY14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="UZ14" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -22712,11 +22820,20 @@
       </c>
       <c r="UW15" t="n">
         <v>2.6</v>
+      </c>
+      <c r="UX15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="UY15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="UZ15" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -24421,11 +24538,20 @@
       </c>
       <c r="UW16" t="n">
         <v>3.1</v>
+      </c>
+      <c r="UX16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="UY16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="UZ16" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -26130,11 +26256,20 @@
       </c>
       <c r="UW17" t="n">
         <v>3.3</v>
+      </c>
+      <c r="UX17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UY17" t="n">
+        <v>3</v>
+      </c>
+      <c r="UZ17" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -27839,11 +27974,20 @@
       </c>
       <c r="UW18" t="n">
         <v>2.6</v>
+      </c>
+      <c r="UX18" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="UY18" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="UZ18" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -29548,11 +29692,20 @@
       </c>
       <c r="UW19" t="n">
         <v>4.2</v>
+      </c>
+      <c r="UX19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="UY19" t="n">
+        <v>4</v>
+      </c>
+      <c r="UZ19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -31257,11 +31410,20 @@
       </c>
       <c r="UW20" t="n">
         <v>3</v>
+      </c>
+      <c r="UX20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UY20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="UZ20" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -32965,12 +33127,21 @@
         <v>2.8</v>
       </c>
       <c r="UW21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="UX21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="UY21" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="UZ21" t="n">
         <v>2.7</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -34675,11 +34846,20 @@
       </c>
       <c r="UW22" t="n">
         <v>2.9</v>
+      </c>
+      <c r="UX22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="UY22" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="UZ22" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -36384,11 +36564,20 @@
       </c>
       <c r="UW23" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UX23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="UY23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="UZ23" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -38093,11 +38282,20 @@
       </c>
       <c r="UW24" t="n">
         <v>3.6</v>
+      </c>
+      <c r="UX24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="UY24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="UZ24" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -39801,12 +39999,21 @@
         <v>2.6</v>
       </c>
       <c r="UW25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="UX25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="UY25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="UZ25" t="n">
         <v>2.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -41511,11 +41718,20 @@
       </c>
       <c r="UW26" t="n">
         <v>2.5</v>
+      </c>
+      <c r="UX26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="UY26" t="n">
+        <v>2</v>
+      </c>
+      <c r="UZ26" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -43219,12 +43435,21 @@
         <v>3.5</v>
       </c>
       <c r="UW27" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
+      </c>
+      <c r="UX27" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="UY27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="UZ27" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -44929,11 +45154,20 @@
       </c>
       <c r="UW28" t="n">
         <v>3.8</v>
+      </c>
+      <c r="UX28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="UY28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="UZ28" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -46638,11 +46872,20 @@
       </c>
       <c r="UW29" t="n">
         <v>2.8</v>
+      </c>
+      <c r="UX29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="UY29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="UZ29" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -48347,11 +48590,20 @@
       </c>
       <c r="UW30" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UX30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="UY30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UZ30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -50056,11 +50308,20 @@
       </c>
       <c r="UW31" t="n">
         <v>2.5</v>
+      </c>
+      <c r="UX31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="UY31" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="UZ31" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -51765,11 +52026,20 @@
       </c>
       <c r="UW32" t="n">
         <v>2.3</v>
+      </c>
+      <c r="UX32" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="UY32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="UZ32" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -53473,12 +53743,21 @@
         <v>2.1</v>
       </c>
       <c r="UW33" t="n">
+        <v>2</v>
+      </c>
+      <c r="UX33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="UY33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="UZ33" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -55183,11 +55462,20 @@
       </c>
       <c r="UW34" t="n">
         <v>5.4</v>
+      </c>
+      <c r="UX34" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="UY34" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="UZ34" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -56892,11 +57180,20 @@
       </c>
       <c r="UW35" t="n">
         <v>2.1</v>
+      </c>
+      <c r="UX35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="UY35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="UZ35" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -58601,11 +58898,20 @@
       </c>
       <c r="UW36" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UX36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="UY36" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="UZ36" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -60310,11 +60616,20 @@
       </c>
       <c r="UW37" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UX37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="UY37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="UZ37" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -62019,11 +62334,20 @@
       </c>
       <c r="UW38" t="n">
         <v>4</v>
+      </c>
+      <c r="UX38" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="UY38" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="UZ38" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -63728,11 +64052,20 @@
       </c>
       <c r="UW39" t="n">
         <v>3.4</v>
+      </c>
+      <c r="UX39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="UY39" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="UZ39" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -65437,11 +65770,20 @@
       </c>
       <c r="UW40" t="n">
         <v>2.1</v>
+      </c>
+      <c r="UX40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="UY40" t="n">
+        <v>2</v>
+      </c>
+      <c r="UZ40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -67146,11 +67488,20 @@
       </c>
       <c r="UW41" t="n">
         <v>3.7</v>
+      </c>
+      <c r="UX41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="UY41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="UZ41" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -68855,11 +69206,20 @@
       </c>
       <c r="UW42" t="n">
         <v>2.9</v>
+      </c>
+      <c r="UX42" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="UY42" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="UZ42" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -70564,11 +70924,20 @@
       </c>
       <c r="UW43" t="n">
         <v>4</v>
+      </c>
+      <c r="UX43" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="UY43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="UZ43" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -72273,11 +72642,20 @@
       </c>
       <c r="UW44" t="n">
         <v>4.1</v>
+      </c>
+      <c r="UX44" t="n">
+        <v>4</v>
+      </c>
+      <c r="UY44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="UZ44" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -73982,11 +74360,20 @@
       </c>
       <c r="UW45" t="n">
         <v>3</v>
+      </c>
+      <c r="UX45" t="n">
+        <v>3</v>
+      </c>
+      <c r="UY45" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="UZ45" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -75690,12 +76077,21 @@
         <v>3.2</v>
       </c>
       <c r="UW46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UX46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UY46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UZ46" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -77399,12 +77795,21 @@
         <v>1.9</v>
       </c>
       <c r="UW47" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="UX47" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="UY47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="UZ47" t="n">
         <v>1.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -79109,11 +79514,20 @@
       </c>
       <c r="UW48" t="n">
         <v>3.3</v>
+      </c>
+      <c r="UX48" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="UY48" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="UZ48" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -80818,11 +81232,20 @@
       </c>
       <c r="UW49" t="n">
         <v>4</v>
+      </c>
+      <c r="UX49" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="UY49" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="UZ49" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -82527,11 +82950,20 @@
       </c>
       <c r="UW50" t="n">
         <v>2.3</v>
+      </c>
+      <c r="UX50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="UY50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="UZ50" t="n">
+        <v>2.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -84236,11 +84668,20 @@
       </c>
       <c r="UW51" t="n">
         <v>2.4</v>
+      </c>
+      <c r="UX51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="UY51" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="UZ51" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -85945,11 +86386,20 @@
       </c>
       <c r="UW52" t="n">
         <v>3.1</v>
+      </c>
+      <c r="UX52" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="UY52" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="UZ52" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -87654,11 +88104,20 @@
       </c>
       <c r="UW53" t="n">
         <v>4.3</v>
+      </c>
+      <c r="UX53" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="UY53" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="UZ53" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -89363,11 +89822,20 @@
       </c>
       <c r="UW54" t="n">
         <v>3.3</v>
+      </c>
+      <c r="UX54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="UY54" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="UZ54" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -91072,11 +91540,20 @@
       </c>
       <c r="UW55" t="n">
         <v>2.4</v>
+      </c>
+      <c r="UX55" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="UY55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="UZ55" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -92781,6 +93258,15 @@
       </c>
       <c r="UW56" t="n">
         <v>3.5</v>
+      </c>
+      <c r="UX56" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="UY56" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="UZ56" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="626">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1733,6 +1733,9 @@
     <t xml:space="preserve">08/01/2023</t>
   </si>
   <si>
+    <t xml:space="preserve">09/01/2023</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3938,10 +3941,13 @@
       <c r="VA4" t="s">
         <v>572</v>
       </c>
+      <c r="VB4" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5657,12 +5663,15 @@
         <v>3.5</v>
       </c>
       <c r="VA5" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="VB5" t="n">
         <v>3.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7379,11 +7388,14 @@
       </c>
       <c r="VA6" t="n">
         <v>2.1</v>
+      </c>
+      <c r="VB6" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -9100,11 +9112,14 @@
       </c>
       <c r="VA7" t="n">
         <v>3.9</v>
+      </c>
+      <c r="VB7" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10821,11 +10836,14 @@
       </c>
       <c r="VA8" t="n">
         <v>3.8</v>
+      </c>
+      <c r="VB8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12542,11 +12560,14 @@
       </c>
       <c r="VA9" t="n">
         <v>2.7</v>
+      </c>
+      <c r="VB9" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -14263,11 +14284,14 @@
       </c>
       <c r="VA10" t="n">
         <v>4.6</v>
+      </c>
+      <c r="VB10" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -15984,11 +16008,14 @@
       </c>
       <c r="VA11" t="n">
         <v>3.1</v>
+      </c>
+      <c r="VB11" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -17704,12 +17731,15 @@
         <v>3.6</v>
       </c>
       <c r="VA12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
+      </c>
+      <c r="VB12" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -19425,12 +19455,15 @@
         <v>4.1</v>
       </c>
       <c r="VA13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="VB13" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -21146,12 +21179,15 @@
         <v>5</v>
       </c>
       <c r="VA14" t="n">
+        <v>5</v>
+      </c>
+      <c r="VB14" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -22868,11 +22904,14 @@
       </c>
       <c r="VA15" t="n">
         <v>2.7</v>
+      </c>
+      <c r="VB15" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -24589,11 +24628,14 @@
       </c>
       <c r="VA16" t="n">
         <v>3.3</v>
+      </c>
+      <c r="VB16" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -26309,12 +26351,15 @@
         <v>2.8</v>
       </c>
       <c r="VA17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="VB17" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -28031,11 +28076,14 @@
       </c>
       <c r="VA18" t="n">
         <v>3</v>
+      </c>
+      <c r="VB18" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -29752,11 +29800,14 @@
       </c>
       <c r="VA19" t="n">
         <v>4.1</v>
+      </c>
+      <c r="VB19" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -31473,11 +31524,14 @@
       </c>
       <c r="VA20" t="n">
         <v>3.4</v>
+      </c>
+      <c r="VB20" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -33194,11 +33248,14 @@
       </c>
       <c r="VA21" t="n">
         <v>2.9</v>
+      </c>
+      <c r="VB21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -34915,11 +34972,14 @@
       </c>
       <c r="VA22" t="n">
         <v>2.7</v>
+      </c>
+      <c r="VB22" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -36636,11 +36696,14 @@
       </c>
       <c r="VA23" t="n">
         <v>4</v>
+      </c>
+      <c r="VB23" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -38356,12 +38419,15 @@
         <v>3.4</v>
       </c>
       <c r="VA24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="VB24" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -40078,11 +40144,14 @@
       </c>
       <c r="VA25" t="n">
         <v>2.5</v>
+      </c>
+      <c r="VB25" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -41799,11 +41868,14 @@
       </c>
       <c r="VA26" t="n">
         <v>1.7</v>
+      </c>
+      <c r="VB26" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -43519,12 +43591,15 @@
         <v>2.5</v>
       </c>
       <c r="VA27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="VB27" t="n">
         <v>2.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -45241,11 +45316,14 @@
       </c>
       <c r="VA28" t="n">
         <v>3.7</v>
+      </c>
+      <c r="VB28" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -46961,12 +47039,15 @@
         <v>3</v>
       </c>
       <c r="VA29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="VB29" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -48682,12 +48763,15 @@
         <v>3</v>
       </c>
       <c r="VA30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="VB30" t="n">
         <v>3.2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -50404,11 +50488,14 @@
       </c>
       <c r="VA31" t="n">
         <v>2.8</v>
+      </c>
+      <c r="VB31" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -52125,11 +52212,14 @@
       </c>
       <c r="VA32" t="n">
         <v>2.5</v>
+      </c>
+      <c r="VB32" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -53846,11 +53936,14 @@
       </c>
       <c r="VA33" t="n">
         <v>2</v>
+      </c>
+      <c r="VB33" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -55566,12 +55659,15 @@
         <v>5.3</v>
       </c>
       <c r="VA34" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="VB34" t="n">
         <v>5.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -57288,11 +57384,14 @@
       </c>
       <c r="VA35" t="n">
         <v>1.8</v>
+      </c>
+      <c r="VB35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -59009,11 +59108,14 @@
       </c>
       <c r="VA36" t="n">
         <v>4.2</v>
+      </c>
+      <c r="VB36" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -60729,12 +60831,15 @@
         <v>3.6</v>
       </c>
       <c r="VA37" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="VB37" t="n">
         <v>3.7</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -62451,11 +62556,14 @@
       </c>
       <c r="VA38" t="n">
         <v>3.9</v>
+      </c>
+      <c r="VB38" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -64172,11 +64280,14 @@
       </c>
       <c r="VA39" t="n">
         <v>3.3</v>
+      </c>
+      <c r="VB39" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -65892,12 +66003,15 @@
         <v>2</v>
       </c>
       <c r="VA40" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="VB40" t="n">
         <v>1.9</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -67613,12 +67727,15 @@
         <v>3.3</v>
       </c>
       <c r="VA41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="VB41" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -69335,11 +69452,14 @@
       </c>
       <c r="VA42" t="n">
         <v>2.8</v>
+      </c>
+      <c r="VB42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -71056,11 +71176,14 @@
       </c>
       <c r="VA43" t="n">
         <v>3.4</v>
+      </c>
+      <c r="VB43" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -72777,11 +72900,14 @@
       </c>
       <c r="VA44" t="n">
         <v>3.5</v>
+      </c>
+      <c r="VB44" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -74498,11 +74624,14 @@
       </c>
       <c r="VA45" t="n">
         <v>2.7</v>
+      </c>
+      <c r="VB45" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -76219,11 +76348,14 @@
       </c>
       <c r="VA46" t="n">
         <v>3</v>
+      </c>
+      <c r="VB46" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -77939,12 +78071,15 @@
         <v>1.9</v>
       </c>
       <c r="VA47" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="VB47" t="n">
         <v>1.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -79661,11 +79796,14 @@
       </c>
       <c r="VA48" t="n">
         <v>3.1</v>
+      </c>
+      <c r="VB48" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -81381,12 +81519,15 @@
         <v>4.1</v>
       </c>
       <c r="VA49" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="VB49" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -83103,11 +83244,14 @@
       </c>
       <c r="VA50" t="n">
         <v>2.5</v>
+      </c>
+      <c r="VB50" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -84824,11 +84968,14 @@
       </c>
       <c r="VA51" t="n">
         <v>1.8</v>
+      </c>
+      <c r="VB51" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -86544,12 +86691,15 @@
         <v>2.5</v>
       </c>
       <c r="VA52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="VB52" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -88265,12 +88415,15 @@
         <v>3.6</v>
       </c>
       <c r="VA53" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="VB53" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -89987,11 +90140,14 @@
       </c>
       <c r="VA54" t="n">
         <v>3.6</v>
+      </c>
+      <c r="VB54" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -91708,11 +91864,14 @@
       </c>
       <c r="VA55" t="n">
         <v>2.9</v>
+      </c>
+      <c r="VB55" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -93428,6 +93587,9 @@
         <v>3</v>
       </c>
       <c r="VA56" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="VB56" t="n">
         <v>2.9</v>
       </c>
     </row>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="632">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1751,6 +1751,9 @@
     <t xml:space="preserve">02/01/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">03/01/2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3974,10 +3977,13 @@
       <c r="VG4" t="s">
         <v>578</v>
       </c>
+      <c r="VH4" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5712,11 +5718,14 @@
       </c>
       <c r="VG5" t="n">
         <v>3.9</v>
+      </c>
+      <c r="VH5" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7450,12 +7459,15 @@
         <v>2.9</v>
       </c>
       <c r="VG6" t="n">
+        <v>3</v>
+      </c>
+      <c r="VH6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -9189,12 +9201,15 @@
         <v>4.6</v>
       </c>
       <c r="VG7" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
+      </c>
+      <c r="VH7" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10929,11 +10944,14 @@
       </c>
       <c r="VG8" t="n">
         <v>4.1</v>
+      </c>
+      <c r="VH8" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12668,11 +12686,14 @@
       </c>
       <c r="VG9" t="n">
         <v>3.6</v>
+      </c>
+      <c r="VH9" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -14406,12 +14427,15 @@
         <v>5.2</v>
       </c>
       <c r="VG10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="VH10" t="n">
         <v>5.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -16146,11 +16170,14 @@
       </c>
       <c r="VG11" t="n">
         <v>3.5</v>
+      </c>
+      <c r="VH11" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -17884,12 +17911,15 @@
         <v>4.4</v>
       </c>
       <c r="VG12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="VH12" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -19624,11 +19654,14 @@
       </c>
       <c r="VG13" t="n">
         <v>4</v>
+      </c>
+      <c r="VH13" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -21363,11 +21396,14 @@
       </c>
       <c r="VG14" t="n">
         <v>5.1</v>
+      </c>
+      <c r="VH14" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -23102,11 +23138,14 @@
       </c>
       <c r="VG15" t="n">
         <v>3.1</v>
+      </c>
+      <c r="VH15" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -24840,12 +24879,15 @@
         <v>3.1</v>
       </c>
       <c r="VG16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="VH16" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -26579,12 +26621,15 @@
         <v>3.1</v>
       </c>
       <c r="VG17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="VH17" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -28318,12 +28363,15 @@
         <v>3.3</v>
       </c>
       <c r="VG18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="VH18" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -30057,12 +30105,15 @@
         <v>4.7</v>
       </c>
       <c r="VG19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="VH19" t="n">
         <v>4.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -31796,12 +31847,15 @@
         <v>3.5</v>
       </c>
       <c r="VG20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="VH20" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -33535,12 +33589,15 @@
         <v>3</v>
       </c>
       <c r="VG21" t="n">
+        <v>3</v>
+      </c>
+      <c r="VH21" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -35274,12 +35331,15 @@
         <v>2.6</v>
       </c>
       <c r="VG22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="VH22" t="n">
         <v>2.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -37014,11 +37074,14 @@
       </c>
       <c r="VG23" t="n">
         <v>4.4</v>
+      </c>
+      <c r="VH23" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -38753,11 +38816,14 @@
       </c>
       <c r="VG24" t="n">
         <v>4.2</v>
+      </c>
+      <c r="VH24" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -40492,11 +40558,14 @@
       </c>
       <c r="VG25" t="n">
         <v>3.4</v>
+      </c>
+      <c r="VH25" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -42231,11 +42300,14 @@
       </c>
       <c r="VG26" t="n">
         <v>2.4</v>
+      </c>
+      <c r="VH26" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -43969,12 +44041,15 @@
         <v>3</v>
       </c>
       <c r="VG27" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="VH27" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -45708,12 +45783,15 @@
         <v>4</v>
       </c>
       <c r="VG28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="VH28" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -47447,12 +47525,15 @@
         <v>2.7</v>
       </c>
       <c r="VG29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="VH29" t="n">
         <v>2.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -49187,11 +49268,14 @@
       </c>
       <c r="VG30" t="n">
         <v>3.1</v>
+      </c>
+      <c r="VH30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -50925,12 +51009,15 @@
         <v>3.3</v>
       </c>
       <c r="VG31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="VH31" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -52665,11 +52752,14 @@
       </c>
       <c r="VG32" t="n">
         <v>3.4</v>
+      </c>
+      <c r="VH32" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -54403,12 +54493,15 @@
         <v>2.5</v>
       </c>
       <c r="VG33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="VH33" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -56143,11 +56236,14 @@
       </c>
       <c r="VG34" t="n">
         <v>5.2</v>
+      </c>
+      <c r="VH34" t="n">
+        <v>5.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -57881,12 +57977,15 @@
         <v>2.6</v>
       </c>
       <c r="VG35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="VH35" t="n">
         <v>2.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -59620,12 +59719,15 @@
         <v>4.8</v>
       </c>
       <c r="VG36" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="VH36" t="n">
         <v>4.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -61360,11 +61462,14 @@
       </c>
       <c r="VG37" t="n">
         <v>3.9</v>
+      </c>
+      <c r="VH37" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -63099,11 +63204,14 @@
       </c>
       <c r="VG38" t="n">
         <v>4.4</v>
+      </c>
+      <c r="VH38" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -64837,12 +64945,15 @@
         <v>3.5</v>
       </c>
       <c r="VG39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="VH39" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -66576,12 +66687,15 @@
         <v>1.9</v>
       </c>
       <c r="VG40" t="n">
+        <v>2</v>
+      </c>
+      <c r="VH40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -68316,11 +68430,14 @@
       </c>
       <c r="VG41" t="n">
         <v>3.7</v>
+      </c>
+      <c r="VH41" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -70055,11 +70172,14 @@
       </c>
       <c r="VG42" t="n">
         <v>3.6</v>
+      </c>
+      <c r="VH42" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -71793,12 +71913,15 @@
         <v>4.1</v>
       </c>
       <c r="VG43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="VH43" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -73532,12 +73655,15 @@
         <v>3.4</v>
       </c>
       <c r="VG44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="VH44" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -75272,11 +75398,14 @@
       </c>
       <c r="VG45" t="n">
         <v>3.9</v>
+      </c>
+      <c r="VH45" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -77010,12 +77139,15 @@
         <v>3</v>
       </c>
       <c r="VG46" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="VH46" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -78749,12 +78881,15 @@
         <v>2.1</v>
       </c>
       <c r="VG47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="VH47" t="n">
         <v>2.1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -80489,11 +80624,14 @@
       </c>
       <c r="VG48" t="n">
         <v>3.3</v>
+      </c>
+      <c r="VH48" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -82227,12 +82365,15 @@
         <v>3.9</v>
       </c>
       <c r="VG49" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="VH49" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -83966,12 +84107,15 @@
         <v>2.8</v>
       </c>
       <c r="VG50" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="VH50" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -85706,11 +85850,14 @@
       </c>
       <c r="VG51" t="n">
         <v>2.3</v>
+      </c>
+      <c r="VH51" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -87445,11 +87592,14 @@
       </c>
       <c r="VG52" t="n">
         <v>3</v>
+      </c>
+      <c r="VH52" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -89184,11 +89334,14 @@
       </c>
       <c r="VG53" t="n">
         <v>4.7</v>
+      </c>
+      <c r="VH53" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -90922,12 +91075,15 @@
         <v>4.3</v>
       </c>
       <c r="VG54" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="VH54" t="n">
         <v>4.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -92661,12 +92817,15 @@
         <v>3.2</v>
       </c>
       <c r="VG55" t="n">
+        <v>3</v>
+      </c>
+      <c r="VH55" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -94400,6 +94559,9 @@
         <v>2.8</v>
       </c>
       <c r="VG56" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="VH56" t="n">
         <v>2.8</v>
       </c>
     </row>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="633">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1754,6 +1754,9 @@
     <t xml:space="preserve">03/01/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">04/01/2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3980,10 +3983,13 @@
       <c r="VH4" t="s">
         <v>579</v>
       </c>
+      <c r="VI4" t="s">
+        <v>580</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5721,11 +5727,14 @@
       </c>
       <c r="VH5" t="n">
         <v>3.8</v>
+      </c>
+      <c r="VI5" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7463,11 +7472,14 @@
       </c>
       <c r="VH6" t="n">
         <v>3</v>
+      </c>
+      <c r="VI6" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -9204,12 +9216,15 @@
         <v>4.6</v>
       </c>
       <c r="VH7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="VI7" t="n">
         <v>4.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10947,11 +10962,14 @@
       </c>
       <c r="VH8" t="n">
         <v>3.8</v>
+      </c>
+      <c r="VI8" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12689,11 +12707,14 @@
       </c>
       <c r="VH9" t="n">
         <v>3.5</v>
+      </c>
+      <c r="VI9" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -14430,12 +14451,15 @@
         <v>5.3</v>
       </c>
       <c r="VH10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="VI10" t="n">
         <v>5.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -16172,12 +16196,15 @@
         <v>3.5</v>
       </c>
       <c r="VH11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="VI11" t="n">
         <v>3.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -17915,11 +17942,14 @@
       </c>
       <c r="VH12" t="n">
         <v>4.5</v>
+      </c>
+      <c r="VI12" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -19656,12 +19686,15 @@
         <v>4</v>
       </c>
       <c r="VH13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="VI13" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -21398,12 +21431,15 @@
         <v>5.1</v>
       </c>
       <c r="VH14" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="VI14" t="n">
         <v>5.2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -23141,11 +23177,14 @@
       </c>
       <c r="VH15" t="n">
         <v>3.2</v>
+      </c>
+      <c r="VI15" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -24882,12 +24921,15 @@
         <v>3.1</v>
       </c>
       <c r="VH16" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="VI16" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -26624,12 +26666,15 @@
         <v>3.1</v>
       </c>
       <c r="VH17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="VI17" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -28366,12 +28411,15 @@
         <v>3.3</v>
       </c>
       <c r="VH18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="VI18" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -30108,12 +30156,15 @@
         <v>4.8</v>
       </c>
       <c r="VH19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="VI19" t="n">
         <v>4.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -31851,11 +31902,14 @@
       </c>
       <c r="VH20" t="n">
         <v>3.5</v>
+      </c>
+      <c r="VI20" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -33593,11 +33647,14 @@
       </c>
       <c r="VH21" t="n">
         <v>2.9</v>
+      </c>
+      <c r="VI21" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -35335,11 +35392,14 @@
       </c>
       <c r="VH22" t="n">
         <v>2.7</v>
+      </c>
+      <c r="VI22" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -37077,11 +37137,14 @@
       </c>
       <c r="VH23" t="n">
         <v>4.5</v>
+      </c>
+      <c r="VI23" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -38819,11 +38882,14 @@
       </c>
       <c r="VH24" t="n">
         <v>4.4</v>
+      </c>
+      <c r="VI24" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -40561,11 +40627,14 @@
       </c>
       <c r="VH25" t="n">
         <v>3.3</v>
+      </c>
+      <c r="VI25" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -42303,11 +42372,14 @@
       </c>
       <c r="VH26" t="n">
         <v>2.5</v>
+      </c>
+      <c r="VI26" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -44044,12 +44116,15 @@
         <v>2.9</v>
       </c>
       <c r="VH27" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="VI27" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -45786,12 +45861,15 @@
         <v>3.9</v>
       </c>
       <c r="VH28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="VI28" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -47528,12 +47606,15 @@
         <v>2.7</v>
       </c>
       <c r="VH29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="VI29" t="n">
         <v>2.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -49271,11 +49352,14 @@
       </c>
       <c r="VH30" t="n">
         <v>3</v>
+      </c>
+      <c r="VI30" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -51013,11 +51097,14 @@
       </c>
       <c r="VH31" t="n">
         <v>3.3</v>
+      </c>
+      <c r="VI31" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -52755,11 +52842,14 @@
       </c>
       <c r="VH32" t="n">
         <v>3.3</v>
+      </c>
+      <c r="VI32" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -54496,12 +54586,15 @@
         <v>2.5</v>
       </c>
       <c r="VH33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="VI33" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -56238,12 +56331,15 @@
         <v>5.2</v>
       </c>
       <c r="VH34" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="VI34" t="n">
         <v>5.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -57980,12 +58076,15 @@
         <v>2.6</v>
       </c>
       <c r="VH35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="VI35" t="n">
         <v>2.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -59723,11 +59822,14 @@
       </c>
       <c r="VH36" t="n">
         <v>4.8</v>
+      </c>
+      <c r="VI36" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -61464,12 +61566,15 @@
         <v>3.9</v>
       </c>
       <c r="VH37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="VI37" t="n">
         <v>3.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -63207,11 +63312,14 @@
       </c>
       <c r="VH38" t="n">
         <v>4.3</v>
+      </c>
+      <c r="VI38" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -64948,12 +65056,15 @@
         <v>3.5</v>
       </c>
       <c r="VH39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="VI39" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -66690,12 +66801,15 @@
         <v>2</v>
       </c>
       <c r="VH40" t="n">
+        <v>2</v>
+      </c>
+      <c r="VI40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -68433,11 +68547,14 @@
       </c>
       <c r="VH41" t="n">
         <v>3.8</v>
+      </c>
+      <c r="VI41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -70174,12 +70291,15 @@
         <v>3.6</v>
       </c>
       <c r="VH42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="VI42" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -71916,12 +72036,15 @@
         <v>4.2</v>
       </c>
       <c r="VH43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="VI43" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -73658,12 +73781,15 @@
         <v>3.4</v>
       </c>
       <c r="VH44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="VI44" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -75400,12 +75526,15 @@
         <v>3.9</v>
       </c>
       <c r="VH45" t="n">
-        <v>4</v>
+        <v>4.1</v>
+      </c>
+      <c r="VI45" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -77143,11 +77272,14 @@
       </c>
       <c r="VH46" t="n">
         <v>3.1</v>
+      </c>
+      <c r="VI46" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -78885,11 +79017,14 @@
       </c>
       <c r="VH47" t="n">
         <v>2.1</v>
+      </c>
+      <c r="VI47" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -80627,11 +80762,14 @@
       </c>
       <c r="VH48" t="n">
         <v>3.2</v>
+      </c>
+      <c r="VI48" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -82369,11 +82507,14 @@
       </c>
       <c r="VH49" t="n">
         <v>3.9</v>
+      </c>
+      <c r="VI49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -84110,12 +84251,15 @@
         <v>2.8</v>
       </c>
       <c r="VH50" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="VI50" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -85853,11 +85997,14 @@
       </c>
       <c r="VH51" t="n">
         <v>2.2</v>
+      </c>
+      <c r="VI51" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -87595,11 +87742,14 @@
       </c>
       <c r="VH52" t="n">
         <v>2.9</v>
+      </c>
+      <c r="VI52" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -89336,12 +89486,15 @@
         <v>4.7</v>
       </c>
       <c r="VH53" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="VI53" t="n">
         <v>4.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -91078,12 +91231,15 @@
         <v>4.3</v>
       </c>
       <c r="VH54" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="VI54" t="n">
         <v>4.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -92821,11 +92977,14 @@
       </c>
       <c r="VH55" t="n">
         <v>3</v>
+      </c>
+      <c r="VI55" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -94562,6 +94721,9 @@
         <v>2.8</v>
       </c>
       <c r="VH56" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="VI56" t="n">
         <v>2.8</v>
       </c>
     </row>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="634">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1757,6 +1757,9 @@
     <t xml:space="preserve">04/01/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">05/01/2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3986,10 +3989,13 @@
       <c r="VI4" t="s">
         <v>580</v>
       </c>
+      <c r="VJ4" t="s">
+        <v>581</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5730,11 +5736,14 @@
       </c>
       <c r="VI5" t="n">
         <v>3.9</v>
+      </c>
+      <c r="VJ5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7475,11 +7484,14 @@
       </c>
       <c r="VI6" t="n">
         <v>3.1</v>
+      </c>
+      <c r="VJ6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -9220,11 +9232,14 @@
       </c>
       <c r="VI7" t="n">
         <v>4.6</v>
+      </c>
+      <c r="VJ7" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10965,11 +10980,14 @@
       </c>
       <c r="VI8" t="n">
         <v>3.6</v>
+      </c>
+      <c r="VJ8" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12709,12 +12727,15 @@
         <v>3.5</v>
       </c>
       <c r="VI9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="VJ9" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -14455,11 +14476,14 @@
       </c>
       <c r="VI10" t="n">
         <v>5.3</v>
+      </c>
+      <c r="VJ10" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -16200,11 +16224,14 @@
       </c>
       <c r="VI11" t="n">
         <v>3.7</v>
+      </c>
+      <c r="VJ11" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -17945,11 +17972,14 @@
       </c>
       <c r="VI12" t="n">
         <v>4.4</v>
+      </c>
+      <c r="VJ12" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -19689,12 +19719,15 @@
         <v>3.9</v>
       </c>
       <c r="VI13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="VJ13" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -21435,11 +21468,14 @@
       </c>
       <c r="VI14" t="n">
         <v>5.2</v>
+      </c>
+      <c r="VJ14" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -23179,12 +23215,15 @@
         <v>3.2</v>
       </c>
       <c r="VI15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="VJ15" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -24925,11 +24964,14 @@
       </c>
       <c r="VI16" t="n">
         <v>3.1</v>
+      </c>
+      <c r="VJ16" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -26670,11 +26712,14 @@
       </c>
       <c r="VI17" t="n">
         <v>3.1</v>
+      </c>
+      <c r="VJ17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -28414,12 +28459,15 @@
         <v>3.3</v>
       </c>
       <c r="VI18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="VJ18" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -30160,11 +30208,14 @@
       </c>
       <c r="VI19" t="n">
         <v>4.8</v>
+      </c>
+      <c r="VJ19" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -31905,11 +31956,14 @@
       </c>
       <c r="VI20" t="n">
         <v>3.6</v>
+      </c>
+      <c r="VJ20" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -33649,12 +33703,15 @@
         <v>2.9</v>
       </c>
       <c r="VI21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="VJ21" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -35395,11 +35452,14 @@
       </c>
       <c r="VI22" t="n">
         <v>2.8</v>
+      </c>
+      <c r="VJ22" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -37139,12 +37199,15 @@
         <v>4.5</v>
       </c>
       <c r="VI23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="VJ23" t="n">
         <v>4.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -38885,11 +38948,14 @@
       </c>
       <c r="VI24" t="n">
         <v>4.3</v>
+      </c>
+      <c r="VJ24" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -40630,11 +40696,14 @@
       </c>
       <c r="VI25" t="n">
         <v>3.1</v>
+      </c>
+      <c r="VJ25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -42375,11 +42444,14 @@
       </c>
       <c r="VI26" t="n">
         <v>2.6</v>
+      </c>
+      <c r="VJ26" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -44120,11 +44192,14 @@
       </c>
       <c r="VI27" t="n">
         <v>2.9</v>
+      </c>
+      <c r="VJ27" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -45864,12 +45939,15 @@
         <v>3.9</v>
       </c>
       <c r="VI28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="VJ28" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -47610,11 +47688,14 @@
       </c>
       <c r="VI29" t="n">
         <v>2.7</v>
+      </c>
+      <c r="VJ29" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -49354,12 +49435,15 @@
         <v>3</v>
       </c>
       <c r="VI30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="VJ30" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -51100,11 +51184,14 @@
       </c>
       <c r="VI31" t="n">
         <v>3.4</v>
+      </c>
+      <c r="VJ31" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -52844,12 +52931,15 @@
         <v>3.3</v>
       </c>
       <c r="VI32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="VJ32" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -54589,12 +54679,15 @@
         <v>2.5</v>
       </c>
       <c r="VI33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="VJ33" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -56334,12 +56427,15 @@
         <v>5.1</v>
       </c>
       <c r="VI34" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="VJ34" t="n">
         <v>5.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -58080,11 +58176,14 @@
       </c>
       <c r="VI35" t="n">
         <v>2.6</v>
+      </c>
+      <c r="VJ35" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -59825,11 +59924,14 @@
       </c>
       <c r="VI36" t="n">
         <v>4.7</v>
+      </c>
+      <c r="VJ36" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -61569,12 +61671,15 @@
         <v>3.8</v>
       </c>
       <c r="VI37" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="VJ37" t="n">
         <v>3.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -63314,12 +63419,15 @@
         <v>4.3</v>
       </c>
       <c r="VI38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="VJ38" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -65060,11 +65168,14 @@
       </c>
       <c r="VI39" t="n">
         <v>3.5</v>
+      </c>
+      <c r="VJ39" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -66804,12 +66915,15 @@
         <v>2</v>
       </c>
       <c r="VI40" t="n">
+        <v>2</v>
+      </c>
+      <c r="VJ40" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -68550,11 +68664,14 @@
       </c>
       <c r="VI41" t="n">
         <v>4</v>
+      </c>
+      <c r="VJ41" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -70294,12 +70411,15 @@
         <v>3.5</v>
       </c>
       <c r="VI42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="VJ42" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -72039,12 +72159,15 @@
         <v>4.2</v>
       </c>
       <c r="VI43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="VJ43" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -73784,12 +73907,15 @@
         <v>3.4</v>
       </c>
       <c r="VI44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="VJ44" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -75530,11 +75656,14 @@
       </c>
       <c r="VI45" t="n">
         <v>4.1</v>
+      </c>
+      <c r="VJ45" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -77275,11 +77404,14 @@
       </c>
       <c r="VI46" t="n">
         <v>3.2</v>
+      </c>
+      <c r="VJ46" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -79019,12 +79151,15 @@
         <v>2.1</v>
       </c>
       <c r="VI47" t="n">
+        <v>2</v>
+      </c>
+      <c r="VJ47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -80765,11 +80900,14 @@
       </c>
       <c r="VI48" t="n">
         <v>3.1</v>
+      </c>
+      <c r="VJ48" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -82509,12 +82647,15 @@
         <v>3.9</v>
       </c>
       <c r="VI49" t="n">
+        <v>4</v>
+      </c>
+      <c r="VJ49" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -84255,11 +84396,14 @@
       </c>
       <c r="VI50" t="n">
         <v>2.8</v>
+      </c>
+      <c r="VJ50" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -85999,12 +86143,15 @@
         <v>2.2</v>
       </c>
       <c r="VI51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="VJ51" t="n">
         <v>2.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -87745,11 +87892,14 @@
       </c>
       <c r="VI52" t="n">
         <v>2.8</v>
+      </c>
+      <c r="VJ52" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -89490,11 +89640,14 @@
       </c>
       <c r="VI53" t="n">
         <v>4.8</v>
+      </c>
+      <c r="VJ53" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -91235,11 +91388,14 @@
       </c>
       <c r="VI54" t="n">
         <v>4.3</v>
+      </c>
+      <c r="VJ54" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -92979,12 +93135,15 @@
         <v>3</v>
       </c>
       <c r="VI55" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="VJ55" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -94725,6 +94884,9 @@
       </c>
       <c r="VI56" t="n">
         <v>2.8</v>
+      </c>
+      <c r="VJ56" t="n">
+        <v>2.9</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="635">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1760,6 +1760,9 @@
     <t xml:space="preserve">05/01/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">06/01/2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -3992,10 +3995,13 @@
       <c r="VJ4" t="s">
         <v>581</v>
       </c>
+      <c r="VK4" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5739,11 +5745,14 @@
       </c>
       <c r="VJ5" t="n">
         <v>4</v>
+      </c>
+      <c r="VK5" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7487,11 +7496,14 @@
       </c>
       <c r="VJ6" t="n">
         <v>3</v>
+      </c>
+      <c r="VK6" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -9234,12 +9246,15 @@
         <v>4.6</v>
       </c>
       <c r="VJ7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="VK7" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -10983,11 +10998,14 @@
       </c>
       <c r="VJ8" t="n">
         <v>3.4</v>
+      </c>
+      <c r="VK8" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12731,11 +12749,14 @@
       </c>
       <c r="VJ9" t="n">
         <v>3.4</v>
+      </c>
+      <c r="VK9" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -14478,12 +14499,15 @@
         <v>5.3</v>
       </c>
       <c r="VJ10" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="VK10" t="n">
         <v>5.2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -16226,12 +16250,15 @@
         <v>3.7</v>
       </c>
       <c r="VJ11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="VK11" t="n">
         <v>3.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -17975,11 +18002,14 @@
       </c>
       <c r="VJ12" t="n">
         <v>4.3</v>
+      </c>
+      <c r="VK12" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -19723,11 +19753,14 @@
       </c>
       <c r="VJ13" t="n">
         <v>3.9</v>
+      </c>
+      <c r="VK13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -21471,11 +21504,14 @@
       </c>
       <c r="VJ14" t="n">
         <v>5.3</v>
+      </c>
+      <c r="VK14" t="n">
+        <v>5.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -23218,12 +23254,15 @@
         <v>3.3</v>
       </c>
       <c r="VJ15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="VK15" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -24967,11 +25006,14 @@
       </c>
       <c r="VJ16" t="n">
         <v>3.2</v>
+      </c>
+      <c r="VK16" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -26715,11 +26757,14 @@
       </c>
       <c r="VJ17" t="n">
         <v>3</v>
+      </c>
+      <c r="VK17" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -28463,11 +28508,14 @@
       </c>
       <c r="VJ18" t="n">
         <v>3.3</v>
+      </c>
+      <c r="VK18" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -30211,11 +30259,14 @@
       </c>
       <c r="VJ19" t="n">
         <v>4.9</v>
+      </c>
+      <c r="VK19" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -31959,11 +32010,14 @@
       </c>
       <c r="VJ20" t="n">
         <v>3.7</v>
+      </c>
+      <c r="VK20" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -33706,12 +33760,15 @@
         <v>2.8</v>
       </c>
       <c r="VJ21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="VK21" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -35455,11 +35512,14 @@
       </c>
       <c r="VJ22" t="n">
         <v>2.9</v>
+      </c>
+      <c r="VK22" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -37202,12 +37262,15 @@
         <v>4.6</v>
       </c>
       <c r="VJ23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="VK23" t="n">
         <v>4.6</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -38951,11 +39014,14 @@
       </c>
       <c r="VJ24" t="n">
         <v>4.1</v>
+      </c>
+      <c r="VK24" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -40699,11 +40765,14 @@
       </c>
       <c r="VJ25" t="n">
         <v>3</v>
+      </c>
+      <c r="VK25" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -42447,11 +42516,14 @@
       </c>
       <c r="VJ26" t="n">
         <v>2.7</v>
+      </c>
+      <c r="VK26" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -44195,11 +44267,14 @@
       </c>
       <c r="VJ27" t="n">
         <v>3</v>
+      </c>
+      <c r="VK27" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -45943,11 +46018,14 @@
       </c>
       <c r="VJ28" t="n">
         <v>3.9</v>
+      </c>
+      <c r="VK28" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -47691,11 +47769,14 @@
       </c>
       <c r="VJ29" t="n">
         <v>2.8</v>
+      </c>
+      <c r="VK29" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -49438,12 +49519,15 @@
         <v>2.8</v>
       </c>
       <c r="VJ30" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="VK30" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -51187,11 +51271,14 @@
       </c>
       <c r="VJ31" t="n">
         <v>3.5</v>
+      </c>
+      <c r="VK31" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -52934,12 +53021,15 @@
         <v>3.1</v>
       </c>
       <c r="VJ32" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="VK32" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -54683,11 +54773,14 @@
       </c>
       <c r="VJ33" t="n">
         <v>2.5</v>
+      </c>
+      <c r="VK33" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -56431,11 +56524,14 @@
       </c>
       <c r="VJ34" t="n">
         <v>5.1</v>
+      </c>
+      <c r="VK34" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -58178,12 +58274,15 @@
         <v>2.6</v>
       </c>
       <c r="VJ35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="VK35" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -59926,12 +60025,15 @@
         <v>4.7</v>
       </c>
       <c r="VJ36" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="VK36" t="n">
         <v>4.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -61675,11 +61777,14 @@
       </c>
       <c r="VJ37" t="n">
         <v>3.8</v>
+      </c>
+      <c r="VK37" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -63422,12 +63527,15 @@
         <v>4.2</v>
       </c>
       <c r="VJ38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="VK38" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -65170,12 +65278,15 @@
         <v>3.5</v>
       </c>
       <c r="VJ39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="VK39" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -66919,11 +67030,14 @@
       </c>
       <c r="VJ40" t="n">
         <v>2</v>
+      </c>
+      <c r="VK40" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -68667,11 +68781,14 @@
       </c>
       <c r="VJ41" t="n">
         <v>4.2</v>
+      </c>
+      <c r="VK41" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -70415,11 +70532,14 @@
       </c>
       <c r="VJ42" t="n">
         <v>3.5</v>
+      </c>
+      <c r="VK42" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -72163,11 +72283,14 @@
       </c>
       <c r="VJ43" t="n">
         <v>4.2</v>
+      </c>
+      <c r="VK43" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -73910,12 +74033,15 @@
         <v>3.4</v>
       </c>
       <c r="VJ44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="VK44" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -75658,12 +75784,15 @@
         <v>4.1</v>
       </c>
       <c r="VJ45" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="VK45" t="n">
         <v>4.3</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -77407,11 +77536,14 @@
       </c>
       <c r="VJ46" t="n">
         <v>3.4</v>
+      </c>
+      <c r="VK46" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -79154,12 +79286,15 @@
         <v>2</v>
       </c>
       <c r="VJ47" t="n">
+        <v>2</v>
+      </c>
+      <c r="VK47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -80902,12 +81037,15 @@
         <v>3.1</v>
       </c>
       <c r="VJ48" t="n">
+        <v>3</v>
+      </c>
+      <c r="VK48" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -82650,12 +82788,15 @@
         <v>4</v>
       </c>
       <c r="VJ49" t="n">
+        <v>4</v>
+      </c>
+      <c r="VK49" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -84399,11 +84540,14 @@
       </c>
       <c r="VJ50" t="n">
         <v>2.9</v>
+      </c>
+      <c r="VK50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -86146,12 +86290,15 @@
         <v>2.1</v>
       </c>
       <c r="VJ51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="VK51" t="n">
         <v>2.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -87894,12 +88041,15 @@
         <v>2.8</v>
       </c>
       <c r="VJ52" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="VK52" t="n">
         <v>2.7</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -89642,12 +89792,15 @@
         <v>4.8</v>
       </c>
       <c r="VJ53" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="VK53" t="n">
         <v>4.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -91391,11 +91544,14 @@
       </c>
       <c r="VJ54" t="n">
         <v>4.2</v>
+      </c>
+      <c r="VK54" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -93138,12 +93294,15 @@
         <v>2.9</v>
       </c>
       <c r="VJ55" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="VK55" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -94886,6 +95045,9 @@
         <v>2.8</v>
       </c>
       <c r="VJ56" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="VK56" t="n">
         <v>2.9</v>
       </c>
     </row>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="637">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1766,6 +1766,9 @@
     <t xml:space="preserve">07/01/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">08/01/2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -4004,10 +4007,13 @@
       <c r="VL4" t="s">
         <v>583</v>
       </c>
+      <c r="VM4" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5757,11 +5763,14 @@
       </c>
       <c r="VL5" t="n">
         <v>4.3</v>
+      </c>
+      <c r="VM5" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7510,12 +7519,15 @@
         <v>2.9</v>
       </c>
       <c r="VL6" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="VM6" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -9265,11 +9277,14 @@
       </c>
       <c r="VL7" t="n">
         <v>4.5</v>
+      </c>
+      <c r="VM7" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -11018,12 +11033,15 @@
         <v>3.3</v>
       </c>
       <c r="VL8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="VM8" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12772,12 +12790,15 @@
         <v>3.3</v>
       </c>
       <c r="VL9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="VM9" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -14527,11 +14548,14 @@
       </c>
       <c r="VL10" t="n">
         <v>5.2</v>
+      </c>
+      <c r="VM10" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -16281,11 +16305,14 @@
       </c>
       <c r="VL11" t="n">
         <v>3.9</v>
+      </c>
+      <c r="VM11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -18035,11 +18062,14 @@
       </c>
       <c r="VL12" t="n">
         <v>3.6</v>
+      </c>
+      <c r="VM12" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -19789,11 +19819,14 @@
       </c>
       <c r="VL13" t="n">
         <v>4.1</v>
+      </c>
+      <c r="VM13" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -21543,11 +21576,14 @@
       </c>
       <c r="VL14" t="n">
         <v>5.5</v>
+      </c>
+      <c r="VM14" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -23296,12 +23332,15 @@
         <v>3.3</v>
       </c>
       <c r="VL15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="VM15" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -25051,11 +25090,14 @@
       </c>
       <c r="VL16" t="n">
         <v>3.4</v>
+      </c>
+      <c r="VM16" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -26804,12 +26846,15 @@
         <v>2.9</v>
       </c>
       <c r="VL17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="VM17" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -28558,12 +28603,15 @@
         <v>3.4</v>
       </c>
       <c r="VL18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="VM18" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -30313,11 +30361,14 @@
       </c>
       <c r="VL19" t="n">
         <v>5.2</v>
+      </c>
+      <c r="VM19" t="n">
+        <v>5.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -32067,11 +32118,14 @@
       </c>
       <c r="VL20" t="n">
         <v>4</v>
+      </c>
+      <c r="VM20" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -33821,11 +33875,14 @@
       </c>
       <c r="VL21" t="n">
         <v>2.8</v>
+      </c>
+      <c r="VM21" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -35575,11 +35632,14 @@
       </c>
       <c r="VL22" t="n">
         <v>3.2</v>
+      </c>
+      <c r="VM22" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -37329,11 +37389,14 @@
       </c>
       <c r="VL23" t="n">
         <v>4.7</v>
+      </c>
+      <c r="VM23" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -39082,12 +39145,15 @@
         <v>4</v>
       </c>
       <c r="VL24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="VM24" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -40836,12 +40902,15 @@
         <v>2.8</v>
       </c>
       <c r="VL25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="VM25" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -42591,11 +42660,14 @@
       </c>
       <c r="VL26" t="n">
         <v>2.8</v>
+      </c>
+      <c r="VM26" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -44345,11 +44417,14 @@
       </c>
       <c r="VL27" t="n">
         <v>3.5</v>
+      </c>
+      <c r="VM27" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -46099,11 +46174,14 @@
       </c>
       <c r="VL28" t="n">
         <v>4.4</v>
+      </c>
+      <c r="VM28" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -47853,11 +47931,14 @@
       </c>
       <c r="VL29" t="n">
         <v>3.2</v>
+      </c>
+      <c r="VM29" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -49606,12 +49687,15 @@
         <v>2.8</v>
       </c>
       <c r="VL30" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="VM30" t="n">
         <v>2.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -51361,11 +51445,14 @@
       </c>
       <c r="VL31" t="n">
         <v>3.8</v>
+      </c>
+      <c r="VM31" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -53115,11 +53202,14 @@
       </c>
       <c r="VL32" t="n">
         <v>3.1</v>
+      </c>
+      <c r="VM32" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -54869,11 +54959,14 @@
       </c>
       <c r="VL33" t="n">
         <v>2.6</v>
+      </c>
+      <c r="VM33" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -56623,11 +56716,14 @@
       </c>
       <c r="VL34" t="n">
         <v>5.4</v>
+      </c>
+      <c r="VM34" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -58377,11 +58473,14 @@
       </c>
       <c r="VL35" t="n">
         <v>2.5</v>
+      </c>
+      <c r="VM35" t="n">
+        <v>2.6</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -60131,11 +60230,14 @@
       </c>
       <c r="VL36" t="n">
         <v>4.7</v>
+      </c>
+      <c r="VM36" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -61885,11 +61987,14 @@
       </c>
       <c r="VL37" t="n">
         <v>4</v>
+      </c>
+      <c r="VM37" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -63639,11 +63744,14 @@
       </c>
       <c r="VL38" t="n">
         <v>4.3</v>
+      </c>
+      <c r="VM38" t="n">
+        <v>4.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -65393,11 +65501,14 @@
       </c>
       <c r="VL39" t="n">
         <v>3.7</v>
+      </c>
+      <c r="VM39" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -67147,11 +67258,14 @@
       </c>
       <c r="VL40" t="n">
         <v>2.2</v>
+      </c>
+      <c r="VM40" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -68900,12 +69014,15 @@
         <v>4.4</v>
       </c>
       <c r="VL41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="VM41" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -70655,11 +70772,14 @@
       </c>
       <c r="VL42" t="n">
         <v>3.5</v>
+      </c>
+      <c r="VM42" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -72409,11 +72529,14 @@
       </c>
       <c r="VL43" t="n">
         <v>4.1</v>
+      </c>
+      <c r="VM43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -74162,12 +74285,15 @@
         <v>3.4</v>
       </c>
       <c r="VL44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="VM44" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -75917,11 +76043,14 @@
       </c>
       <c r="VL45" t="n">
         <v>4.5</v>
+      </c>
+      <c r="VM45" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -77671,11 +77800,14 @@
       </c>
       <c r="VL46" t="n">
         <v>3.9</v>
+      </c>
+      <c r="VM46" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -79424,12 +79556,15 @@
         <v>2</v>
       </c>
       <c r="VL47" t="n">
+        <v>2</v>
+      </c>
+      <c r="VM47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -81179,11 +81314,14 @@
       </c>
       <c r="VL48" t="n">
         <v>3</v>
+      </c>
+      <c r="VM48" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -82932,12 +83070,15 @@
         <v>4</v>
       </c>
       <c r="VL49" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="VM49" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -84687,11 +84828,14 @@
       </c>
       <c r="VL50" t="n">
         <v>3.2</v>
+      </c>
+      <c r="VM50" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -86441,11 +86585,14 @@
       </c>
       <c r="VL51" t="n">
         <v>2.1</v>
+      </c>
+      <c r="VM51" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -88195,11 +88342,14 @@
       </c>
       <c r="VL52" t="n">
         <v>2.7</v>
+      </c>
+      <c r="VM52" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -89949,11 +90099,14 @@
       </c>
       <c r="VL53" t="n">
         <v>4.9</v>
+      </c>
+      <c r="VM53" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -91702,12 +91855,15 @@
         <v>4.1</v>
       </c>
       <c r="VL54" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="VM54" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -93457,11 +93613,14 @@
       </c>
       <c r="VL55" t="n">
         <v>3</v>
+      </c>
+      <c r="VM55" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -95211,6 +95370,9 @@
       </c>
       <c r="VL56" t="n">
         <v>2.9</v>
+      </c>
+      <c r="VM56" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="638">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1769,6 +1769,9 @@
     <t xml:space="preserve">08/01/2024</t>
   </si>
   <si>
+    <t xml:space="preserve">09/01/2024</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -4010,10 +4013,13 @@
       <c r="VM4" t="s">
         <v>584</v>
       </c>
+      <c r="VN4" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5766,11 +5772,14 @@
       </c>
       <c r="VM5" t="n">
         <v>4.2</v>
+      </c>
+      <c r="VN5" t="n">
+        <v>4.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B6" t="n">
         <v>6.6</v>
@@ -7523,11 +7532,14 @@
       </c>
       <c r="VM6" t="n">
         <v>2.8</v>
+      </c>
+      <c r="VN6" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -9279,12 +9291,15 @@
         <v>4.5</v>
       </c>
       <c r="VM7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="VN7" t="n">
         <v>4.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -11037,11 +11052,14 @@
       </c>
       <c r="VM8" t="n">
         <v>3.4</v>
+      </c>
+      <c r="VN8" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12793,12 +12811,15 @@
         <v>3.3</v>
       </c>
       <c r="VM9" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="VN9" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -14550,12 +14571,15 @@
         <v>5.2</v>
       </c>
       <c r="VM10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="VN10" t="n">
         <v>5.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -16307,12 +16331,15 @@
         <v>3.9</v>
       </c>
       <c r="VM11" t="n">
+        <v>4</v>
+      </c>
+      <c r="VN11" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B12" t="n">
         <v>9.8</v>
@@ -18065,11 +18092,14 @@
       </c>
       <c r="VM12" t="n">
         <v>3.4</v>
+      </c>
+      <c r="VN12" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -19821,12 +19851,15 @@
         <v>4.1</v>
       </c>
       <c r="VM13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="VN13" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B14" t="n">
         <v>8.7</v>
@@ -21578,12 +21611,15 @@
         <v>5.5</v>
       </c>
       <c r="VM14" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="VN14" t="n">
         <v>5.7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B15" t="n">
         <v>9.7</v>
@@ -23335,12 +23371,15 @@
         <v>3.3</v>
       </c>
       <c r="VM15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="VN15" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -25092,12 +25131,15 @@
         <v>3.4</v>
       </c>
       <c r="VM16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="VN16" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B17" t="n">
         <v>9.8</v>
@@ -26849,12 +26891,15 @@
         <v>2.9</v>
       </c>
       <c r="VM17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="VN17" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -28607,11 +28652,14 @@
       </c>
       <c r="VM18" t="n">
         <v>3.5</v>
+      </c>
+      <c r="VN18" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -30363,12 +30411,15 @@
         <v>5.2</v>
       </c>
       <c r="VM19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="VN19" t="n">
         <v>5.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -32121,11 +32172,14 @@
       </c>
       <c r="VM20" t="n">
         <v>4.2</v>
+      </c>
+      <c r="VN20" t="n">
+        <v>4.3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B21" t="n">
         <v>4.3</v>
@@ -33877,12 +33931,15 @@
         <v>2.8</v>
       </c>
       <c r="VM21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="VN21" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -35634,12 +35691,15 @@
         <v>3.2</v>
       </c>
       <c r="VM22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="VN22" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -37392,11 +37452,14 @@
       </c>
       <c r="VM23" t="n">
         <v>4.8</v>
+      </c>
+      <c r="VN23" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -39148,12 +39211,15 @@
         <v>3.9</v>
       </c>
       <c r="VM24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="VN24" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -40905,12 +40971,15 @@
         <v>2.8</v>
       </c>
       <c r="VM25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="VN25" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B26" t="n">
         <v>6.4</v>
@@ -42662,12 +42731,15 @@
         <v>2.8</v>
       </c>
       <c r="VM26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="VN26" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B27" t="n">
         <v>10.5</v>
@@ -44420,11 +44492,14 @@
       </c>
       <c r="VM27" t="n">
         <v>3.7</v>
+      </c>
+      <c r="VN27" t="n">
+        <v>3.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -46176,12 +46251,15 @@
         <v>4.4</v>
       </c>
       <c r="VM28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="VN28" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B29" t="n">
         <v>6</v>
@@ -47934,11 +48012,14 @@
       </c>
       <c r="VM29" t="n">
         <v>3.3</v>
+      </c>
+      <c r="VN29" t="n">
+        <v>3.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B30" t="n">
         <v>6.7</v>
@@ -49691,11 +49772,14 @@
       </c>
       <c r="VM30" t="n">
         <v>2.7</v>
+      </c>
+      <c r="VN30" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B31" t="n">
         <v>5.9</v>
@@ -51447,12 +51531,15 @@
         <v>3.8</v>
       </c>
       <c r="VM31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="VN31" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B32" t="n">
         <v>5.8</v>
@@ -53205,11 +53292,14 @@
       </c>
       <c r="VM32" t="n">
         <v>3.2</v>
+      </c>
+      <c r="VN32" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B33" t="n">
         <v>3.3</v>
@@ -54961,12 +55051,15 @@
         <v>2.6</v>
       </c>
       <c r="VM33" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="VN33" t="n">
         <v>2.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -56719,11 +56812,14 @@
       </c>
       <c r="VM34" t="n">
         <v>5.5</v>
+      </c>
+      <c r="VN34" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -58476,11 +58572,14 @@
       </c>
       <c r="VM35" t="n">
         <v>2.6</v>
+      </c>
+      <c r="VN35" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B36" t="n">
         <v>10.3</v>
@@ -60233,11 +60332,14 @@
       </c>
       <c r="VM36" t="n">
         <v>4.8</v>
+      </c>
+      <c r="VN36" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -61990,11 +62092,14 @@
       </c>
       <c r="VM37" t="n">
         <v>4.1</v>
+      </c>
+      <c r="VN37" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -63746,12 +63851,15 @@
         <v>4.3</v>
       </c>
       <c r="VM38" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="VN38" t="n">
         <v>4.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B39" t="n">
         <v>6.4</v>
@@ -65503,12 +65611,15 @@
         <v>3.7</v>
       </c>
       <c r="VM39" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="VN39" t="n">
         <v>3.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B40" t="n">
         <v>3.4</v>
@@ -67260,12 +67371,15 @@
         <v>2.2</v>
       </c>
       <c r="VM40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="VN40" t="n">
         <v>2.3</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -69017,12 +69131,15 @@
         <v>4.5</v>
       </c>
       <c r="VM41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="VN41" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -70774,12 +70891,15 @@
         <v>3.5</v>
       </c>
       <c r="VM42" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="VN42" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -72531,12 +72651,15 @@
         <v>4.1</v>
       </c>
       <c r="VM43" t="n">
+        <v>4</v>
+      </c>
+      <c r="VN43" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B44" t="n">
         <v>8</v>
@@ -74288,12 +74411,15 @@
         <v>3.4</v>
       </c>
       <c r="VM44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="VN44" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B45" t="n">
         <v>7.8</v>
@@ -76045,12 +76171,15 @@
         <v>4.5</v>
       </c>
       <c r="VM45" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="VN45" t="n">
         <v>4.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B46" t="n">
         <v>7.4</v>
@@ -77803,11 +77932,14 @@
       </c>
       <c r="VM46" t="n">
         <v>4.3</v>
+      </c>
+      <c r="VN46" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -79559,12 +79691,15 @@
         <v>2</v>
       </c>
       <c r="VM47" t="n">
+        <v>2</v>
+      </c>
+      <c r="VN47" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -81317,11 +81452,14 @@
       </c>
       <c r="VM48" t="n">
         <v>3.1</v>
+      </c>
+      <c r="VN48" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -83073,12 +83211,15 @@
         <v>4.1</v>
       </c>
       <c r="VM49" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="VN49" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -84831,11 +84972,14 @@
       </c>
       <c r="VM50" t="n">
         <v>3.3</v>
+      </c>
+      <c r="VN50" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B51" t="n">
         <v>8.6</v>
@@ -86587,12 +86731,15 @@
         <v>2.1</v>
       </c>
       <c r="VM51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="VN51" t="n">
         <v>2.2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
@@ -88345,11 +88492,14 @@
       </c>
       <c r="VM52" t="n">
         <v>2.8</v>
+      </c>
+      <c r="VN52" t="n">
+        <v>2.9</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -90101,12 +90251,15 @@
         <v>4.9</v>
       </c>
       <c r="VM53" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="VN53" t="n">
         <v>4.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B54" t="n">
         <v>7.5</v>
@@ -91858,12 +92011,15 @@
         <v>4.2</v>
       </c>
       <c r="VM54" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="VN54" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -93615,12 +93771,15 @@
         <v>3</v>
       </c>
       <c r="VM55" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="VN55" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -95373,6 +95532,9 @@
       </c>
       <c r="VM56" t="n">
         <v>3</v>
+      </c>
+      <c r="VN56" t="n">
+        <v>3.1</v>
       </c>
     </row>
   </sheetData>

--- a/static/data/source/unemployment_rate.xlsx
+++ b/static/data/source/unemployment_rate.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="645">
   <si>
     <t xml:space="preserve">Geography</t>
   </si>
@@ -1790,6 +1790,9 @@
     <t xml:space="preserve">03/01/2025</t>
   </si>
   <si>
+    <t xml:space="preserve">04/01/2025</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
@@ -4052,10 +4055,13 @@
       <c r="VT4" t="s">
         <v>591</v>
       </c>
+      <c r="VU4" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B5" t="n">
         <v>7.9</v>
@@ -5828,12 +5834,15 @@
         <v>4.1</v>
       </c>
       <c r="VT5" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="VU5" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B6" t="n">
         <v>6.7</v>
@@ -7606,12 +7615,15 @@
         <v>3.3</v>
       </c>
       <c r="VT6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="VU6" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B7" t="n">
         <v>7.1</v>
@@ -9384,12 +9396,15 @@
         <v>4.7</v>
       </c>
       <c r="VT7" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="VU7" t="n">
         <v>4.7</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B8" t="n">
         <v>10.2</v>
@@ -11162,12 +11177,15 @@
         <v>3.9</v>
       </c>
       <c r="VT8" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="VU8" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B9" t="n">
         <v>7.3</v>
@@ -12940,12 +12958,15 @@
         <v>3.6</v>
       </c>
       <c r="VT9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="VU9" t="n">
         <v>3.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B10" t="n">
         <v>9.2</v>
@@ -14718,12 +14739,15 @@
         <v>5.4</v>
       </c>
       <c r="VT10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="VU10" t="n">
         <v>5.3</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B11" t="n">
         <v>5.8</v>
@@ -16496,12 +16520,15 @@
         <v>4.7</v>
       </c>
       <c r="VT11" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="VU11" t="n">
         <v>4.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B12" t="n">
         <v>9.7</v>
@@ -18275,11 +18302,14 @@
       </c>
       <c r="VT12" t="n">
         <v>3.6</v>
+      </c>
+      <c r="VU12" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -20053,11 +20083,14 @@
       </c>
       <c r="VT13" t="n">
         <v>3.7</v>
+      </c>
+      <c r="VU13" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B14" t="n">
         <v>8.8</v>
@@ -21831,11 +21864,14 @@
       </c>
       <c r="VT14" t="n">
         <v>5.6</v>
+      </c>
+      <c r="VU14" t="n">
+        <v>5.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B15" t="n">
         <v>9.6</v>
@@ -23609,11 +23645,14 @@
       </c>
       <c r="VT15" t="n">
         <v>3.6</v>
+      </c>
+      <c r="VU15" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
@@ -25386,12 +25425,15 @@
         <v>3.6</v>
       </c>
       <c r="VT16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="VU16" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B17" t="n">
         <v>9.6</v>
@@ -27164,12 +27206,15 @@
         <v>3</v>
       </c>
       <c r="VT17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="VU17" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B18" t="n">
         <v>5.6</v>
@@ -28942,12 +28987,15 @@
         <v>3.7</v>
       </c>
       <c r="VT18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="VU18" t="n">
         <v>3.7</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -30720,12 +30768,15 @@
         <v>4.8</v>
       </c>
       <c r="VT19" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="VU19" t="n">
         <v>4.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B20" t="n">
         <v>6.6</v>
@@ -32499,11 +32550,14 @@
       </c>
       <c r="VT20" t="n">
         <v>4.1</v>
+      </c>
+      <c r="VU20" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B21" t="n">
         <v>4.4</v>
@@ -34277,11 +34331,14 @@
       </c>
       <c r="VT21" t="n">
         <v>3.4</v>
+      </c>
+      <c r="VU21" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B22" t="n">
         <v>4.2</v>
@@ -36054,12 +36111,15 @@
         <v>3.8</v>
       </c>
       <c r="VT22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="VU22" t="n">
         <v>3.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B23" t="n">
         <v>5.6</v>
@@ -37832,12 +37892,15 @@
         <v>5.3</v>
       </c>
       <c r="VT23" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="VU23" t="n">
         <v>5.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B24" t="n">
         <v>6.3</v>
@@ -39610,12 +39673,15 @@
         <v>4.4</v>
       </c>
       <c r="VT24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="VU24" t="n">
         <v>4.4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B25" t="n">
         <v>8.7</v>
@@ -41388,12 +41454,15 @@
         <v>3.5</v>
       </c>
       <c r="VT25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="VU25" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B26" t="n">
         <v>6.5</v>
@@ -43167,11 +43236,14 @@
       </c>
       <c r="VT26" t="n">
         <v>3</v>
+      </c>
+      <c r="VU26" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B27" t="n">
         <v>10.6</v>
@@ -44945,11 +45017,14 @@
       </c>
       <c r="VT27" t="n">
         <v>4.4</v>
+      </c>
+      <c r="VU27" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B28" t="n">
         <v>9.9</v>
@@ -46722,12 +46797,15 @@
         <v>5.4</v>
       </c>
       <c r="VT28" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="VU28" t="n">
         <v>5.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B29" t="n">
         <v>5.9</v>
@@ -48501,11 +48579,14 @@
       </c>
       <c r="VT29" t="n">
         <v>3.1</v>
+      </c>
+      <c r="VU29" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B30" t="n">
         <v>6.6</v>
@@ -50279,11 +50360,14 @@
       </c>
       <c r="VT30" t="n">
         <v>3.9</v>
+      </c>
+      <c r="VU30" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B31" t="n">
         <v>6</v>
@@ -52057,11 +52141,14 @@
       </c>
       <c r="VT31" t="n">
         <v>3.8</v>
+      </c>
+      <c r="VU31" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B32" t="n">
         <v>5.9</v>
@@ -53834,12 +53921,15 @@
         <v>2.8</v>
       </c>
       <c r="VT32" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="VU32" t="n">
         <v>2.7</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B33" t="n">
         <v>3.2</v>
@@ -55613,11 +55703,14 @@
       </c>
       <c r="VT33" t="n">
         <v>2.9</v>
+      </c>
+      <c r="VU33" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B34" t="n">
         <v>9.2</v>
@@ -57391,11 +57484,14 @@
       </c>
       <c r="VT34" t="n">
         <v>5.7</v>
+      </c>
+      <c r="VU34" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B35" t="n">
         <v>6.5</v>
@@ -59168,12 +59264,15 @@
         <v>3</v>
       </c>
       <c r="VT35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="VU35" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B36" t="n">
         <v>10.2</v>
@@ -60947,11 +61046,14 @@
       </c>
       <c r="VT36" t="n">
         <v>4.7</v>
+      </c>
+      <c r="VU36" t="n">
+        <v>4.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B37" t="n">
         <v>8.6</v>
@@ -62724,12 +62826,15 @@
         <v>4.4</v>
       </c>
       <c r="VT37" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="VU37" t="n">
         <v>4.3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B38" t="n">
         <v>10.3</v>
@@ -64502,12 +64607,15 @@
         <v>4.3</v>
       </c>
       <c r="VT38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="VU38" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B39" t="n">
         <v>6.5</v>
@@ -66280,12 +66388,15 @@
         <v>3.7</v>
       </c>
       <c r="VT39" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="VU39" t="n">
         <v>3.7</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="B40" t="n">
         <v>3.5</v>
@@ -68058,12 +68169,15 @@
         <v>2.6</v>
       </c>
       <c r="VT40" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="VU40" t="n">
         <v>2.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B41" t="n">
         <v>8.1</v>
@@ -69837,11 +69951,14 @@
       </c>
       <c r="VT41" t="n">
         <v>4.8</v>
+      </c>
+      <c r="VU41" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B42" t="n">
         <v>5.8</v>
@@ -71615,11 +71732,14 @@
       </c>
       <c r="VT42" t="n">
         <v>3.3</v>
+      </c>
+      <c r="VU42" t="n">
+        <v>3.2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B43" t="n">
         <v>9.5</v>
@@ -73393,11 +73513,14 @@
       </c>
       <c r="VT43" t="n">
         <v>4.6</v>
+      </c>
+      <c r="VU43" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B44" t="n">
         <v>8.1</v>
@@ -75171,11 +75294,14 @@
       </c>
       <c r="VT44" t="n">
         <v>3.8</v>
+      </c>
+      <c r="VU44" t="n">
+        <v>3.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B45" t="n">
         <v>7.7</v>
@@ -76949,11 +77075,14 @@
       </c>
       <c r="VT45" t="n">
         <v>4.8</v>
+      </c>
+      <c r="VU45" t="n">
+        <v>4.9</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B46" t="n">
         <v>7.3</v>
@@ -78727,11 +78856,14 @@
       </c>
       <c r="VT46" t="n">
         <v>4.1</v>
+      </c>
+      <c r="VU46" t="n">
+        <v>4.2</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B47" t="n">
         <v>3.3</v>
@@ -80504,12 +80636,15 @@
         <v>1.9</v>
       </c>
       <c r="VT47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="VU47" t="n">
         <v>1.8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B48" t="n">
         <v>6</v>
@@ -82283,11 +82418,14 @@
       </c>
       <c r="VT48" t="n">
         <v>3.6</v>
+      </c>
+      <c r="VU48" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B49" t="n">
         <v>5.8</v>
@@ -84060,12 +84198,15 @@
         <v>4.1</v>
       </c>
       <c r="VT49" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="VU49" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B50" t="n">
         <v>5.8</v>
@@ -85838,12 +85979,15 @@
         <v>3.2</v>
       </c>
       <c r="VT50" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="VU50" t="n">
         <v>3.1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B51" t="n">
         <v>8.5</v>
@@ -87617,11 +87761,14 @@
       </c>
       <c r="VT51" t="n">
         <v>2.6</v>
+      </c>
+      <c r="VU51" t="n">
+        <v>2.7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B52" t="n">
         <v>6</v>
@@ -89395,11 +89542,14 @@
       </c>
       <c r="VT52" t="n">
         <v>3.2</v>
+      </c>
+      <c r="VU52" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B53" t="n">
         <v>8.5</v>
@@ -91172,12 +91322,15 @@
         <v>4.4</v>
       </c>
       <c r="VT53" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="VU53" t="n">
         <v>4.4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B54" t="n">
         <v>7.4</v>
@@ -92950,12 +93103,15 @@
         <v>3.9</v>
       </c>
       <c r="VT54" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="VU54" t="n">
         <v>3.8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B55" t="n">
         <v>5.8</v>
@@ -94729,11 +94885,14 @@
       </c>
       <c r="VT55" t="n">
         <v>3.2</v>
+      </c>
+      <c r="VU55" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B56" t="n">
         <v>4.1</v>
@@ -96507,6 +96666,9 @@
       </c>
       <c r="VT56" t="n">
         <v>3.4</v>
+      </c>
+      <c r="VU56" t="n">
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>
